--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7971F15E-C2F7-6741-B242-66110D1FD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018F384-D17A-644C-804B-26CD93346828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="25600" yWindow="-1560" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
+    <sheet name="Gastrointestinal System" sheetId="5" r:id="rId2"/>
+    <sheet name="Neurology" sheetId="4" r:id="rId3"/>
+    <sheet name="Cardiovascular" sheetId="9" r:id="rId4"/>
+    <sheet name="sp" sheetId="2" r:id="rId5"/>
+    <sheet name="Endocrine System" sheetId="6" r:id="rId6"/>
+    <sheet name="General Surgery" sheetId="3" r:id="rId7"/>
+    <sheet name="Musculoskeletal" sheetId="8" r:id="rId8"/>
+    <sheet name="Social Work" sheetId="10" r:id="rId9"/>
+    <sheet name="Obstetrics" sheetId="11" r:id="rId10"/>
+    <sheet name="Infectious Diseases" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +37,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,38 +46,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="359">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Case Study No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="548">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>General Surgery</t>
-  </si>
-  <si>
     <t>A Postoperative Surgical Site Infection</t>
   </si>
   <si>
     <t>Patient Profile</t>
   </si>
   <si>
-    <t>Name: Leonard G. Mateo
-Age: 70 years
-Gender: Male
-Ethnicity: Filipino-American (notable for cultural considerations in family involvement and stoicism toward pain)
-Primary Language: English
-Setting: Surgical Intensive Care Unit (SICU)</t>
-  </si>
-  <si>
     <t>Sno</t>
-  </si>
-  <si>
-    <t>Neurology</t>
   </si>
   <si>
     <t>Chronic Tension Headache </t>
@@ -217,14 +208,6 @@
     <t>Parkinsonism</t>
   </si>
   <si>
-    <t>Name: Mr. Hassan Ali
-Age: 68
-Gender: Male
-Ethnicity: Middle Eastern
-Language Preference: English (primary), Arabic (secondary)
-Religious Consideration: Muslim (prayer routine affected by physical limitations)</t>
-  </si>
-  <si>
     <t>I feel like my body isn’t listening to me. Everything has slowed down over the past year.</t>
   </si>
   <si>
@@ -334,9 +317,6 @@
 Virtual Sim: Interactive decision-making tree with evolving symptoms over time</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Performs focused neurological exam and headache history
 Screens for sleep apnea (STOP-Bang or equivalent)
 Discusses psychosocial contributors and fatigue
@@ -348,15 +328,6 @@
   </si>
   <si>
     <t>Stroke</t>
-  </si>
-  <si>
-    <t>Name: Mr. Mahmoud El-Sayed
-Age: 74
-Gender: Male
-Ethnicity: Egyptian
-Primary Language: Arabic (limited English)
-Interpreter required: Yes
-Setting: Emergency Department, Stroke Bay</t>
   </si>
   <si>
     <t>Complaint (via daughter and interpreter):
@@ -457,15 +428,6 @@
     <t>Spastic diplegic Cerebral Palsy</t>
   </si>
   <si>
-    <t>Name: Mateo Alvarez
-Age: 14 years
-Gender: Male
-Ethnicity: Hispanic (Mexican-American)
-Language: Bilingual – Spanish and English
-Schooling: Public middle school, mainstreamed with special education support
-Living Situation: Lives with both parents and two younger siblings in a multi-generational household. Primary caregiver: mother.</t>
-  </si>
-  <si>
     <t>Referred to occupational therapy by his school team following increased difficulty with self-care, handwriting fatigue, and social withdrawal. His teacher notes Mateo avoids group projects and seems discouraged by his mobility limitations during physical education and lunchtime activities.</t>
   </si>
   <si>
@@ -566,16 +528,6 @@
   </si>
   <si>
     <t>Motor neurone disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: Rajiv Malhotra
-Age: 68
-Gender: Male
-Ethnicity: South Asian
-Language: English, Hindi (native)
-Marital Status: Married
-Occupation (Retired): Mechanical engineer, formerly university professor
-Insurance: Medicare </t>
   </si>
   <si>
     <t>“I’ve been dropping tools and my hand just doesn’t feel as strong — especially on the left side. It’s frustrating. I’ve also had some odd twitching in my arms lately.”</t>
@@ -683,16 +635,6 @@
     <t>Muscular Dystrophy</t>
   </si>
   <si>
-    <t>Name: Elijah Navarro
-Age: 9 years
-Gender: Male
-Ethnicity: Filipino-American
-Grade: 3rd grade, mainstream classroom with Individualized Education Plan (IEP)
-Primary Language Spoken at Home: Tagalog and English
-Insurance Status: Medicaid
-Referral Source: Pediatric neurologist</t>
-  </si>
-  <si>
     <t>Elijah is referred to occupational therapy following increasing difficulty in classroom participation and decreased endurance for play activities. His teacher reports that he has recently started using a mobility aid (walker) during school hours and often requires assistance with toileting and meal times. Parents report Elijah struggles with dressing and becomes easily fatigued after minimal exertion.</t>
   </si>
   <si>
@@ -790,15 +732,6 @@
     <t>Impaired Motor Function and Functional Mobility Associated With Progressive Disorders of the Central Nervous System or Multisystem Involvement.</t>
   </si>
   <si>
-    <t>Name: Samuel Diaz
-Age: 67
-Gender: Male
-Ethnicity: Hispanic
-Language Preference: Spanish (primary), English (limited proficiency)
-Interpreter Required: Yes
-Insurance: Medicaid</t>
-  </si>
-  <si>
     <t>Samuel is referred to outpatient physical therapy following recent discharge from a short-term rehabilitation facility. He reports, via interpreter, increased fatigue, unsteadiness when walking, and difficulty climbing stairs. His wife adds that he’s “not himself lately” and spends most of his day sitting or sleeping.</t>
   </si>
   <si>
@@ -906,18 +839,7 @@
 Telehealth PT training: Role-play remote evaluation and caregiver instruction</t>
   </si>
   <si>
-    <t>Gastrointestinal System</t>
-  </si>
-  <si>
     <t>Pyloric Stenosis</t>
-  </si>
-  <si>
-    <t>Name: Mrs. Laila Farooq
-Age: 58
-Gender: Female
-Ethnicity: South Asian (Pakistani)
-Language: Urdu (limited English proficiency)
-Interpreter Required: Yes (certified medical interpreter)</t>
   </si>
   <si>
     <t>Temperature: 97.8°F (36.5°C)
@@ -1029,15 +951,6 @@
     <t>Appendicitis</t>
   </si>
   <si>
-    <t>Name: Laila Ahmed
-Age: 28
-Gender: Female
-Ethnicity: Middle Eastern
-Language Preference: English (primary), Arabic (conversational)
-Occupation: Elementary school teacher
-Insurance Status: Medicaid</t>
-  </si>
-  <si>
     <t>“My lower belly hurts, and I feel nauseous again. I thought this was just postpartum stuff.”</t>
   </si>
   <si>
@@ -1134,15 +1047,6 @@
   </si>
   <si>
     <t>Diverticulitis</t>
-  </si>
-  <si>
-    <t>Name: William “Bill” Hernandez
-Age: 72
-Gender: Male
-Ethnicity: Hispanic
-Language Preference: English and conversational Spanish
-Occupation (Retired): Former HVAC technician
-Insurance Status: Medicare with supplemental plan</t>
   </si>
   <si>
     <t>“It’s that same pain on the left again… but worse this time.”</t>
@@ -1249,15 +1153,6 @@
   </si>
   <si>
     <t>Giardiasis</t>
-  </si>
-  <si>
-    <t>Name: Charles "Charlie" Rowe
-Age: 65
-Gender: Male
-Occupation: Recently retired insurance claims adjuster
-Language: English
-Marital Status: Married, two adult children
-Insurance: Medicare + Travel Supplemental Plan</t>
   </si>
   <si>
     <t>"I saw someone here a couple weeks ago for stomach problems after I came back from a trip. They thought it was just traveler's diarrhea and gave me something to slow it down, but it hasn’t gotten any better. In fact, I’ve dropped almost 15 pounds and still feel awful."</t>
@@ -1364,18 +1259,7 @@
 How did you integrate the travel and dietary history into your diagnostic reasoning?</t>
   </si>
   <si>
-    <t>Endocrine System</t>
-  </si>
-  <si>
     <t>Hyperthyroidism</t>
-  </si>
-  <si>
-    <t>Name: Priya R.
-Age: 32
-Gender: Female
-Ethnicity: South Asian
-Occupation: Software Developer
-Language Preference: English, fluent; conversational Hindi</t>
   </si>
   <si>
     <t>"I’ve been feeling constantly hot, anxious, and my heart races even when I’m resting. I also noticed I'm losing weight even though I'm eating more."</t>
@@ -1467,19 +1351,7 @@
 How can cultural humility enhance diagnosis and adherence?</t>
   </si>
   <si>
-    <t>Ophthalmology</t>
-  </si>
-  <si>
     <t>Ptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: Layla Hassan
-Age: 29
-Gender: Female
-Ethnicity: Middle Eastern
-Occupation: Software engineer
-Marital Status: Single
-</t>
   </si>
   <si>
     <t>“I’ve been having this weird eyelid drooping on the left side. It’s subtle in the morning but worse by the end of the day. And lately, I feel more tired when I talk or chew.”</t>
@@ -1514,27 +1386,6 @@
 Exercises infrequently</t>
   </si>
   <si>
-    <t>General: Alert, oriented, pleasant, appears fatigued
-HEENT:
-Left-sided ptosis, worsens with sustained upward gaze
-Pupils equal, round, reactive to light and accommodation (PERRLA)
-Extraocular movements intact; no nystagmus
-No proptosis or lid edema
-Speech: Slurred after prolonged counting
-Neuro:
-Mild proximal muscle fatigue in shoulders after repetition
-Deep tendon reflexes normal
-No sensory deficit
-Lab/Diagnostics Ordered:
-CBC, CMP – WNL
-TSH, Free T4 – WNL
-Acetylcholine receptor antibody panel – Pending
-Edrophonium (Tensilon) test – Positive (dramatic, temporary resolution of ptosis)
-Chest CT (to assess for thymoma) – Pending
-Ice Pack Test – Positive improvement of ptosis
-MRI Brain/Orbit with contrast – No acute intracranial pathology or mass lesions</t>
-  </si>
-  <si>
     <t>Differentiating between neurogenic, myogenic, and mechanical causes of ptosis
 Recognizing subtle signs of myasthenia gravis and diurnal variation
 Considering non-ocular presenting signs of systemic neuromuscular disorders
@@ -1589,19 +1440,7 @@
 	The ice pack test can be a simple, low-resource bedside tool to support diagnosis in resource-limited settings.</t>
   </si>
   <si>
-    <t>Musculoskeletal</t>
-  </si>
-  <si>
     <t>Spinal Muscular Atrophy</t>
-  </si>
-  <si>
-    <t>Name: Isa Garcia
-Age: 6 years old
-Gender: Female
-Ethnicity: Hispanic (Mexican-American)
-Primary Language: English and Spanish
-School Grade: Kindergarten
-Setting: Public elementary school (inclusive classroom setting)</t>
   </si>
   <si>
     <t>Isa was referred for occupational therapy by her pediatric neurologist following a recent clinical deterioration in gross and fine motor skills. Her teachers report difficulty with classroom participation, fatigue during tasks, and challenges with accessing school materials and play equipment.</t>
@@ -1700,9 +1539,6 @@
 Classroom discussion (clinical reasoning labs)
 OSCE stations (assessing functional evaluation, communication)
 Virtual simulations (telehealth assessment, caregiver education)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiovascular </t>
   </si>
   <si>
     <t>Infective Endocarditis</t>
@@ -1803,9 +1639,6 @@
 OSCE Station: Focus on cardiac auscultation, differential diagnosis, clinical reasoning
 Virtual Simulation: Use evolving symptoms and labs with timed decision points
 Classroom PBL: Break into stages with role-play (e.g., PA, nurse, cardiologist)</t>
-  </si>
-  <si>
-    <t>Social Work</t>
   </si>
   <si>
     <t xml:space="preserve">Active Listening </t>
@@ -2362,15 +2195,9 @@
     <t>Physical Exam</t>
   </si>
   <si>
-    <t>Skin: Warm, flushed
-Wound Site: Right lower quadrant incision is erythematous, indurated, tender; 3 cm segment appears mildly gaping with cloudy, serosanguineous drainage. No purulence or odor. No crepitus or significant fluctuance.
-Review of Systems
-Positive for: Chills, rigors, wound pain
-Negative for: Shortness of breath, urinary symptoms, nausea/vomiting</t>
-  </si>
-  <si>
     <t>General: Alert, anxious, expressive aphasia
-Neurological: Facial droop: Right-sided
+Neurological:
+Facial droop: Right-sided
 Motor Strength:
 Left arm: 1/5
 Left leg: 2/5
@@ -2380,6 +2207,1444 @@
 NIHSS Score: Estimated 14
 Cardiac: Irregularly irregular rhythm
 Lungs/Abdomen: Unremarkable</t>
+  </si>
+  <si>
+    <t>Skin: Warm, flushed
+Wound Site: Right lower quadrant incision is erythematous, indurated, tender; 3 cm segment appears mildly gaping with cloudy, serosanguineous drainage. No purulence or odor. No crepitus or significant fluctuance.
+Review of Systems
+Positive for: Chills, rigors, wound pain
+Negative for: Shortness of breath, urinary symptoms, nausea/vomiting</t>
+  </si>
+  <si>
+    <t>Hyperemesis Gravidarum in a Young First-Time Mother</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Amal R.
+Age: 26
+Gender: Female
+Ethnicity: Middle Eastern (Lebanese descent)
+Language Preference: Arabic, communicates in English with moderate fluency
+Occupation: Graduate student (Pharmacy)
+Marital Status: Married for 6 months
+Gestation: 9 weeks by LMP                                              Target audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>Mrs. Amal R. presents to the Emergency Department with persistent nausea, excessive vomiting for the past 5 days, generalized weakness, dizziness, and inability to tolerate oral fluids or food.</t>
+  </si>
+  <si>
+    <t>Temperature: 37.4°C
+Heart Rate: 112 bpm
+Respiratory Rate: 18/min
+Blood Pressure: 92/60 mmHg
+Oxygen Saturation: 99% (RA)
+Weight: 48 kg (baseline 52 kg, ~8% loss)</t>
+  </si>
+  <si>
+    <t>History of mild anxiety (not medicated)
+Migraines since adolescence
+No history of chronic illness</t>
+  </si>
+  <si>
+    <t>Prenatal multivitamin
+Occasional paracetamol for headaches</t>
+  </si>
+  <si>
+    <t>Non-smoker, does not consume alcohol
+Lives with her husband in an apartment near campus
+High academic stress due to exams
+No recent travel or exposure to illness</t>
+  </si>
+  <si>
+    <t>Urinalysis: +++ Ketones, trace protein
+Serum Electrolytes: Na+ 130 mmol/L, K+ 3.0 mmol/L, Cl– 94 mmol/L
+Serum Bicarbonate: 17 mmol/L (low)
+Creatinine: 1.3 mg/dL (mildly elevated)
+Glucose (random): 62 mg/dL
+TSH: 0.2 mIU/L (low)
+Free T4: Mildly elevated
+Beta-hCG: 210,000 IU/L
+Transabdominal USG: Singleton intrauterine pregnancy at 9 weeks gestation, viable fetus, no molar pregnancy</t>
+  </si>
+  <si>
+    <t>On exam, the patient appears fatigued, mildly icteric, and dry mucous membranes are noted. There is an acetone smell to her breath. Mild suprapubic tenderness without peritonism. No neurologic deficits.
+She has received ondansetron and IV fluids (normal saline + dextrose) in triage, but continues to retch. No improvement in urine output over 4 hours.</t>
+  </si>
+  <si>
+    <t>Differentiating physiological nausea and vomiting from hyperemesis gravidarum
+Recognizing electrolyte imbalance and ketosis from simple dehydration
+Addressing transient gestational hyperthyroidism versus pathologic thyroid disease
+Identifying the need for hospital admission and nutritional support
+Assessing for rare but serious complications like Wernicke’s encephalopathy</t>
+  </si>
+  <si>
+    <t>Conduct a focused history and physical exam for a pregnant patient with vomiting
+Interpret laboratory data to confirm the diagnosis of hyperemesis gravidarum
+Initiate appropriate fluid resuscitation and correct electrolytes
+Order thiamine before administering glucose-containing fluids
+Recognize red flags: persistent vomiting, weight loss &gt;5%, ketonuria, altered mental status
+Engage in shared decision-making with the patient
+Communicate with OB, dietitian, and nursing for coordinated care</t>
+  </si>
+  <si>
+    <t>Elicit obstetric history and establish gestational age
+Identify clinical signs of dehydration and malnutrition
+Order and interpret labs including ketones, electrolytes, TSH/T4, and hCG
+Initiate IV fluids with electrolytes and thiamine
+Prescribe antiemetics appropriately
+Consult OB for ongoing care plan
+Monitor for Wernicke’s and neuro signs
+Discuss psychosocial context and stress management</t>
+  </si>
+  <si>
+    <t>OB/GYN: Co-manage pregnancy-related complications
+Dietitian: Nutritional planning post-stabilization
+Nursing: Intake/output monitoring, patient education, IV administration
+Psychology/Psychiatry: Screen for anxiety and stress-induced exacerbation
+Pharmacist: Review safety and dosing of antiemetics in pregnancy</t>
+  </si>
+  <si>
+    <t>How do you differentiate hyperemesis gravidarum from common nausea of early pregnancy?
+What are the consequences of delayed thiamine administration in such patients?
+When is it appropriate to escalate care or consider admission to higher-level monitoring?
+What ethical considerations arise in managing a condition that may prompt patients to request pregnancy termination?</t>
+  </si>
+  <si>
+    <t>Reflection: What part of the case challenged your clinical assumptions the most?
+Clinical Judgment: How did you prioritize investigations and interventions?
+Communication: How did you approach explaining the condition to the patient?
+Systems Thinking: What support systems might help this patient recover more holistically?
+Professionalism: How do you balance empathy and assertiveness in care when the patient is emotionally distressed?</t>
+  </si>
+  <si>
+    <t>Classroom: Use for differential diagnosis and management planning sessions.
+OSCE: Simulated patient encounter with dynamic vitals/lab updates.
+Virtual Simulation: Real-time choices leading to changing patient stability.</t>
+  </si>
+  <si>
+    <t>Managing Septic Abortion in a Marginalized Patient</t>
+  </si>
+  <si>
+    <t>A 24-year-old woman presents to the Emergency Department (ED) with 3 days of worsening lower abdominal pain, fever, and malodorous vaginal discharge. She appears visibly anxious and reluctant to speak.</t>
+  </si>
+  <si>
+    <t>Temp: 39.2°C
+BP: 98/64 mmHg
+HR: 116 bpm
+RR: 24 breaths/min
+SpO₂: 96% on room air
+Pain Score: 7/10 lower abdomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mild asthma (uses albuterol PRN)
+Irregular menstrual cycles since menarche
+No prior surgeries
+G2P0A2 (one spontaneous abortion, one unclear)
+</t>
+  </si>
+  <si>
+    <t>Albuterol inhaler PRN
+Occasional ibuprofen for cramps (OTC)</t>
+  </si>
+  <si>
+    <t>Immigrated from Somalia at age 12
+Non-smoker, non-drinker
+Not sexually active currently; denies recent consensual intercourse (initially)
+Attends mosque regularly
+Hesitant to discuss sexual and reproductive history
+No regular primary care provider
+No known prior gynecologic exams</t>
+  </si>
+  <si>
+    <t>CBC: WBC 19.6 x10⁹/L (neutrophil predominant), Hgb 9.8 g/dL, Platelets 130,000
+CRP: 128 mg/L
+Serum Lactate: 3.9 mmol/L
+BUN/Cr: 30/1.6 mg/dL
+LFTs: Mild elevation of AST/ALT
+Urinalysis: Negative nitrites, trace protein
+Beta-hCG: Positive (78 IU/L)
+Pelvic Ultrasound: Retained products of conception, endometrial thickening, free fluid in POD
+Blood Cultures: Pending
+High Vaginal Swab: Sent for gram stain, culture/sensitivity
+CXR: No infiltrates
+Abdominal X-ray: No free air, but prominent bowel loops</t>
+  </si>
+  <si>
+    <t>After initial fluid resuscitation and empiric antibiotics (piperacillin-tazobactam + clindamycin), her mental status worsens. She becomes hypotensive despite fluid boluses and is transferred to ICU for vasopressor support.
+Gynecology is consulted; uterine evacuation is delayed 12 hours to stabilize her, then performed under IV sedation with infection control precautions.</t>
+  </si>
+  <si>
+    <t>Navigating cultural and language barriers in sexual health discussions
+Recognizing signs of evolving sepsis in a young, otherwise healthy patient
+Distinguishing spontaneous vs. unsafe induced abortion (without direct disclosure)
+Knowing when to escalate care to ICU or surgical teams
+Interpreting and prioritizing lab/imaging in septic patients
+Balancing patient autonomy, confidentiality, and legal/moral considerations
+Ethical dilemmas around undocumented procedures and access to care</t>
+  </si>
+  <si>
+    <t>Obtain a nonjudgmental, culturally sensitive history
+Initiate sepsis protocol: fluids, broad-spectrum antibiotics, lactate monitoring
+Request early gynecology consult
+Interpret ultrasound and labs to determine source of infection
+Communicate case effectively during handoff to ICU
+Discuss contraception and follow-up post-recovery
+Collaborate with interpreter and social work
+Report suspected unsafe abortion (as per local laws &amp; hospital protocol)</t>
+  </si>
+  <si>
+    <t>Recognize and triage for sepsis
+Initiate empiric antibiotics and fluid resuscitation
+Obtain appropriate labs and imaging
+Escalate care to ICU as needed
+Consult OB/GYN promptly
+Facilitate uterine evacuation once stable
+Ensure proper documentation
+Engage interprofessional team (nursing, interpreter, social worker)</t>
+  </si>
+  <si>
+    <t>Interpreter Services: For consent and history-taking
+Social Work: Discuss insurance, housing, and potential abuse or coercion
+ICU Team: For hemodynamic monitoring and vasopressor management
+OB/GYN: For uterine evacuation, ongoing infection control
+Nursing Staff: For early warning signs, antibiotic administration, and patient advocacy</t>
+  </si>
+  <si>
+    <t>How would you approach a patient who may be concealing an unsafe abortion?
+What biases could interfere with your clinical judgment in this case?
+How do you ensure respectful, culturally sensitive care during reproductive health discussions?
+When do you delay uterine evacuation in a septic abortion?
+What legal/ethical responsibilities do you have in suspected unsafe abortion cases?</t>
+  </si>
+  <si>
+    <t>What went well in your approach to the patient?
+Where did communication barriers arise, and how did you manage them?
+What signs pointed to clinical deterioration, and were they recognized early?
+How did interprofessional collaboration affect patient care?
+What systemic issues may have contributed to this patient’s condition?
+How might this case influence your approach to reproductive health in underserved populations?</t>
+  </si>
+  <si>
+    <t>Classroom: Role-play scenarios with standardized patient and interpreter
+OSCE: Assess triage, sepsis management, and communication skills
+Virtual Simulation: Integrate EMR-based decisions and dynamic vitals
+Debrief Session: Use real-time vitals/labs to guide decision-making with team input</t>
+  </si>
+  <si>
+    <t>Managing Acute Abdomen in Pregnancy with Leiomyoma</t>
+  </si>
+  <si>
+    <t>Name: Ms. Amina B.
+Age: 24
+Gender: Female
+Ethnicity: Somali-American
+Language Preference: Somali (requires interpreter for full fluency)
+Religion: Muslim
+Marital Status: Unmarried
+Insurance Status: Uninsured
+Living Situation: Shared apartment with two cousins
+Occupation: Part-time cashier                                  Target Audience: Medical students, Residets</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Nura Ali
+Age: 30
+Gender: Female
+Ethnicity: East African (Ethiopian origin)
+Gravida/Parity: G2P0
+Gestational Age: 22 weeks (confirmed by early ultrasound)
+Language: Speaks limited English, prefers Amharic (interpreter needed)
+Marital Status: Married, newly relocated to U.S.                                                                                 Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>Sudden onset of severe, localized lower abdominal pain over 12 hours, non-radiating, associated with nausea and reduced fetal movements. She reports feeling generally unwell and has difficulty walking due to pain.</t>
+  </si>
+  <si>
+    <t>Temp: 37.9°C
+HR: 102 bpm
+BP: 108/64 mmHg
+RR: 20/min
+SpO₂: 98% on room air
+Pain Score: 8/10</t>
+  </si>
+  <si>
+    <t>Known uterine fibroids diagnosed 2 years ago (largest 9 cm posterior intramural)
+Iron deficiency anemia (mild, managed with oral iron)
+No history of surgery</t>
+  </si>
+  <si>
+    <t>Ferrous sulfate 325 mg once daily
+Prenatal multivitamins
+Acetaminophen PRN (has taken 1 g at home prior to arrival)</t>
+  </si>
+  <si>
+    <t>Lives with husband and mother-in-law
+No tobacco, alcohol, or recreational drug use
+Primary care and OB care established 6 weeks ago
+Delayed prenatal care due to recent immigration
+Limited understanding of U.S. healthcare system</t>
+  </si>
+  <si>
+    <t>CBC:
+WBC: 13.8 x10⁹/L (mild leukocytosis)
+Hgb: 9.4 g/dL
+Platelets: 198 x10⁹/L
+CRP: Elevated at 58 mg/L
+Beta-hCG: Consistent with 22-week gestation
+UA: Negative
+Ultrasound (Bedside, then Formal):
+Single intrauterine fetus with fetal heart rate 150 bpm
+Posterior fundal fibroid, ~10 cm, heterogeneous with peripheral cystic degeneration
+No placental abruption
+No free intraperitoneal fluid
+Fetal Dopplers: Normal at this time</t>
+  </si>
+  <si>
+    <t>After 6 hours of observation and supportive therapy (acetaminophen, IV hydration), the patient develops a low-grade fever (38.3°C), worsening pain, and mild uterine irritability. Labs repeated show increasing WBC (15.4 x10⁹/L) and CRP (80 mg/L). OB resident is concerned about red degeneration of fibroid but must also consider other surgical causes of acute abdomen.
+OB attending and radiologist are consulted. MRI is deferred due to stability. Conservative management is continued. The patient gradually improves over 72 hours and is discharged on oral analgesics with outpatient OB follow-up.</t>
+  </si>
+  <si>
+    <t>Differential Diagnosis of Acute Abdomen in Pregnancy: Appendicitis, torsion, abruption, fibroid degeneration
+Recognizing Red Degeneration: Often a diagnosis of exclusion requiring conservative management
+Balancing Investigations in Pregnancy: When and how to use imaging (ultrasound vs. MRI)
+Communication Across Language and Cultural Barriers: Sensitive health discussions and consent
+Collaborating Across Specialties: OB, radiology, anesthesia if pain becomes unmanageable</t>
+  </si>
+  <si>
+    <t>Perform focused yet sensitive obstetric history
+Interpret abnormal vitals in context of pregnancy and systemic inflammatory response
+Recognize red degeneration as likely diagnosis from imaging and history
+Provide patient-centered counseling with interpreter present
+Initiate supportive management: pain control, hydration, close monitoring
+Know when to escalate to imaging or surgical consult
+Anticipate future obstetric complications based on fibroid size and location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain pregnancy-specific focused history and physical
+Rule out obstetric emergencies (e.g., abruption, labor)
+Order appropriate labs and imaging
+Recognize signs of red degeneration
+Manage pain appropriately (non-NSAID preferred initially)
+Coordinate care with OB, radiology, and nursing
+Provide culturally sensitive education on fibroids in pregnancy
+Ensure clear follow-up and safety netting upon discharge
+</t>
+  </si>
+  <si>
+    <t>Interpreter Services: For accurate history-taking and informed consent
+Nursing Team: Monitoring vitals, pain, fetal well-being
+Radiology: Imaging interpretation and alternatives in pregnancy
+Pharmacy: Safe analgesic and antibiotic options in pregnancy
+Social Work: Addressing healthcare access for immigrant patient
+OB Team: Managing complications of fibroids in pregnancy</t>
+  </si>
+  <si>
+    <t>What are the challenges in diagnosing red degeneration in pregnancy?
+When is surgical intervention indicated in a pregnant patient with fibroids?
+How does cultural background affect health-seeking behavior and communication in OB care?
+What are the risks to both mother and fetus if fibroid degeneration is misdiagnosed or undertreated?
+What are the long-term considerations for pregnancy in women with large fibroids?</t>
+  </si>
+  <si>
+    <t>What clues helped you differentiate fibroid degeneration from other causes of acute abdomen?
+What would you have done differently in managing pain or patient communication?
+How did cultural and language considerations impact care delivery in this case?
+How do fibroids affect pregnancy, labor, and delivery planning?
+What knowledge gaps did you identify for yourself in obstetric emergencies?</t>
+  </si>
+  <si>
+    <t>OSCE Station: Focused OB history + interpretation of imaging
+Virtual Simulation: EHR-based case with evolving vitals and imaging reports
+Team-Based Classroom Simulation: OB resident, radiology consult, interpreter
+Standardized Patient Role Play: With interpreter and patient actor to simulate communication and cultural humility</t>
+  </si>
+  <si>
+    <t>Acute Abdomen and Ovarian Mass in Mid-Pregnancy</t>
+  </si>
+  <si>
+    <t>Name: Layla Hassan
+Age: 27
+Gender: Female
+Ethnicity: Somali
+Gestational Age: 18 weeks + 3 days by last menstrual period (confirmed by early ultrasound)
+Gravida/Parity: G1P0
+Language: Somali (interpreter required), basic conversational English
+Marital Status: Married, immigrated 1 year ago                                                                            Target Audience: Medical Residents, Students</t>
+  </si>
+  <si>
+    <t>Layla presents to the Emergency Department with sudden onset severe right lower quadrant abdominal pain for the past 4 hours. She reports nausea and one episode of non-bilious vomiting. She denies fever, vaginal bleeding, or urinary symptoms. The pain is sharp, non-radiating, and worsens with movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature: 37.4°C
+Heart Rate: 115 bpm
+Blood Pressure: 100/68 mmHg
+Respiratory Rate: 18/min
+SpO₂: 99% on room air
+Pain Score: 9/10
+</t>
+  </si>
+  <si>
+    <t>No known chronic illnesses
+Normal menstrual history before pregnancy
+Routine prenatal care began at 12 weeks
+No previous surgeries</t>
+  </si>
+  <si>
+    <t>Prenatal vitamins
+Iron tablets for mild anemia</t>
+  </si>
+  <si>
+    <t>Homemaker, recently moved to the U.S.
+No smoking, alcohol, or drug use
+Eats home-cooked meals; limited processed food intake
+No known exposure to tuberculosis or recent travel</t>
+  </si>
+  <si>
+    <t>Abdomen: Tenderness in right lower quadrant, guarding present
+Uterus palpable at umbilicus
+No rebound tenderness or peritoneal signs
+Fetal heart tones auscultated via Doppler: 150 bpm
+No cervical motion tenderness or vaginal discharge</t>
+  </si>
+  <si>
+    <t>CBC:
+WBC: 14.2 x10⁹/L
+Hemoglobin: 10.1 g/dL
+Platelets: 208 x10⁹/L
+CRP: Elevated (58 mg/L)
+Beta-hCG: Consistent with gestation
+Urinalysis: Normal
+Ultrasound (Transabdominal and Transvaginal):
+Single live intrauterine fetus, normal growth and amniotic fluid
+Right adnexal mass, ~10 cm, complex with solid and cystic components; no clear Doppler flow
+No free fluid
+MRI (Ordered after OB consultation):
+Suspicious for torsion of a dermoid cyst; evidence of stromal edema; uterus displaced posteriorly</t>
+  </si>
+  <si>
+    <t>Pain intensifies over 2 hours with progressive nausea. Layla becomes hypotensive (BP 92/60), tachycardic (HR 125), and increasingly anxious. Surgical and OB teams urgently evaluate for ovarian torsion.</t>
+  </si>
+  <si>
+    <t>Distinguishing physiological pregnancy discomfort from true surgical pathology
+Interpreting imaging of ovarian masses in pregnancy and understanding limitations of tumor markers
+Making safe decisions around surgical timing during pregnancy
+Managing acute abdomen without compromising fetal well-being
+Addressing patient consent and shared decision-making across cultural and language barriers</t>
+  </si>
+  <si>
+    <t>Take focused history with interpreter support
+Prioritize differential diagnosis: appendicitis, ovarian torsion, abruption, ectopic, urinary pathology
+Order and interpret appropriate labs and imaging
+Identify surgical emergency: ovarian torsion
+Coordinate with OB and general surgery for prompt laparoscopic management
+Counsel patient/family using culturally competent communication
+Consider implications of adnexal mass findings in future prenatal and delivery planning</t>
+  </si>
+  <si>
+    <t>Obtain comprehensive history using an interpreter
+Initiate emergency labs and obstetric ultrasound
+Identify adnexal mass with concerning features on imaging
+Escalate to senior OB/GYN and surgical consults
+Explain diagnosis and management options clearly to patient
+Initiate IV fluids, pain control, and prepare for OR if surgical decision made
+Document and communicate fetal monitoring status throughout
+Arrange follow-up pathology review and discuss impact on pregnancy</t>
+  </si>
+  <si>
+    <t>Interpreter Services: Ensures informed decision-making and trust
+OB/GYN and Surgery Teams: Joint intraoperative planning
+Radiologist: Input on imaging findings, mass characterization
+Nursing Team: Fetal monitoring, perioperative preparation
+Anesthesia: Pre-op risk assessment in pregnant patient
+Pathologist: Histologic classification of the ovarian mass</t>
+  </si>
+  <si>
+    <t>How does pregnancy alter the presentation of abdominal pathology?
+What are the indications for surgical intervention in mid-pregnancy?
+How do we approach imaging decisions in pregnant patients?
+What are the ethical considerations when patient understanding is limited by language/culture?
+How do dermoid cysts differ from other adnexal masses in pregnancy?</t>
+  </si>
+  <si>
+    <t>What clinical signs led you to suspect ovarian torsion?
+How did you balance fetal and maternal safety in your decision-making?
+What were the communication challenges, and how did you address them?
+How would this case change if the patient were 10 weeks pregnant? Or 34 weeks?
+What follow-up care does this patient need postoperatively and after delivery?</t>
+  </si>
+  <si>
+    <t>Virtual Simulation or OSCE: Use an evolving EMR with ultrasound/MRI findings
+Team-based Exercise: With OB, interpreter, and surgical roles
+Live Scenario with Standardized Patient: Focus on real-time communication and consent
+Problem-Based Learning Module: Encourage reflective discussion on surgical ethics and maternal-fetal health</t>
+  </si>
+  <si>
+    <t>Name: Leonard G. Mateo
+Age: 70 years
+Gender: Male
+Ethnicity: Filipino-American (notable for cultural considerations in family involvement and stoicism toward pain)
+Primary Language: English
+Setting: Surgical Intensive Care Unit (SICU)   Target Audience: Nursing Students</t>
+  </si>
+  <si>
+    <t>Name: Aaliyah Campbell
+Age: 44 years
+Gender: Female
+Ethnicity: African American
+Pronouns: She/her
+Setting: Primary Care Clinic
+Insurance: Medicaid                                            Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Mr. Mahmoud El-Sayed
+Age: 74
+Gender: Male
+Ethnicity: Egyptian
+Primary Language: Arabic (limited English)
+Interpreter required: Yes
+Setting: Emergency Department, Stroke Bay                                                                            Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Rajiv Malhotra
+Age: 68
+Gender: Male
+Ethnicity: South Asian
+Language: English, Hindi (native)
+Marital Status: Married
+Occupation (Retired): Mechanical engineer, formerly university professor
+Insurance: Medicare                                            Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Elijah Navarro
+Age: 9 years
+Gender: Male
+Ethnicity: Filipino-American
+Grade: 3rd grade, mainstream classroom with Individualized Education Plan (IEP)
+Primary Language Spoken at Home: Tagalog and English
+Insurance Status: Medicaid
+Referral Source: Pediatric neurologist            Target Audience: Occupational Therapy students</t>
+  </si>
+  <si>
+    <t>Name: Mr. Hassan Ali
+Age: 68
+Gender: Male
+Ethnicity: Middle Eastern
+Language Preference: English (primary), Arabic (secondary)
+Religious Consideration: Muslim (prayer routine affected by physical limitations)+E5  Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Mateo Alvarez
+Age: 14 years
+Gender: Male
+Ethnicity: Hispanic (Mexican-American)
+Language: Bilingual – Spanish and English
+Schooling: Public middle school, mainstreamed with special education support
+Living Situation: Lives with both parents and two younger siblings in a multi-generational household. Primary caregiver: mother.                                                                      Target Audience: Occupational Therapy Students</t>
+  </si>
+  <si>
+    <t>Name: Samuel Diaz
+Age: 67
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: Spanish (primary), English (limited proficiency)
+Interpreter Required: Yes
+Insurance: Medicaid                                             Target Audience: Physical Therapy Students</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Laila Farooq
+Age: 58
+Gender: Female
+Ethnicity: South Asian (Pakistani)
+Language: Urdu (limited English proficiency)
+Interpreter Required: Yes (certified medical interpreter)                                                               Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Laila Ahmed
+Age: 28
+Gender: Female
+Ethnicity: Middle Eastern
+Language Preference: English (primary), Arabic (conversational)
+Occupation: Elementary school teacher
+Insurance Status: Medicaid                                    Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: William “Bill” Hernandez
+Age: 72
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: English and conversational Spanish
+Occupation (Retired): Former HVAC technician
+Insurance Status: Medicare with supplemental plan                                                Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Target Audience: PA's</t>
+  </si>
+  <si>
+    <t>Name: Isa Garcia
+Age: 6 years old
+Gender: Female
+Ethnicity: Hispanic (Mexican-American)
+Primary Language: English and Spanish
+School Grade: Kindergarten
+Setting: Public elementary school (inclusive classroom setting)                                                Target Audience: Occupational Therapy Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Layla Hassan
+Age: 29
+Gender: Female
+Ethnicity: Middle Eastern
+Occupation: Software engineer
+Marital Status: Single                                           Target Audience: PA's
+</t>
+  </si>
+  <si>
+    <t>General: Alert, oriented, pleasant, appears fatigued
+HEENT:
+Left-sided ptosis, worsens with sustained upward gaze
+Pupils equal, round, reactive to light and accommodation (PERRLA)
+Extraocular movements intact; no nystagmus
+No proptosis or lid edema
+Speech: Slurred after prolonged counting
+Neuro:
+Mild proximal muscle fatigue in shoulders after repetition
+Deep tendon reflexes normal
+No sensory deficit</t>
+  </si>
+  <si>
+    <t>Lab/Diagnostics Ordered:
+CBC, CMP – WNL
+TSH, Free T4 – WNL
+Acetylcholine receptor antibody panel – Pending
+Edrophonium (Tensilon) test – Positive (dramatic, temporary resolution of ptosis)
+Chest CT (to assess for thymoma) – Pending
+Ice Pack Test – Positive improvement of ptosis
+MRI Brain/Orbit with contrast – No acute intracranial pathology or mass lesions</t>
+  </si>
+  <si>
+    <t>Name: Charles "Charlie" Rowe
+Age: 65
+Gender: Male
+Occupation: Recently retired insurance claims adjuster
+Language: English
+Marital Status: Married, two adult children
+Insurance: Medicare + Travel Supplemental Plan                                                                             Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Priya R.
+Age: 32
+Gender: Female
+Ethnicity: South Asian
+Occupation: Software Developer
+Language Preference: English, fluent; conversational Hindi                                            Target Audience: PA's</t>
+  </si>
+  <si>
+    <t>Evolving Tetanus in an Urban Underserved Teen</t>
+  </si>
+  <si>
+    <t>Name: Ayesha N.
+Age: 17 years
+Gender: Female
+Ethnicity: South Asian (second-generation immigrant)
+Language: English-speaking, parents primarily speak Urdu
+Setting: Urban community health center in a low-resource neighborhood                           Target Audience: Medical Residents, Students</t>
+  </si>
+  <si>
+    <t>Difficulty opening her mouth for two days, painful muscle stiffness in the neck and jaw.</t>
+  </si>
+  <si>
+    <t>Temp: 37.9°C
+HR: 112 bpm
+BP: 140/85 mmHg
+RR: 24 breaths/min
+SpO₂: 98% on room air</t>
+  </si>
+  <si>
+    <t>Ayesha stepped on a rusty nail five days ago while playing in a vacant lot. She did not seek medical attention and treated the wound at home using turmeric paste as advised by her grandmother. Two days ago, she began experiencing difficulty chewing and speaking. Her jaw is now locked, and she complains of stiffness in the neck and abdominal muscles. She has also had some episodes of sweating and mild nausea. No current breathing difficulty.</t>
+  </si>
+  <si>
+    <t>Unclear childhood immunization status; family recently moved from a rural area in Pakistan where vaccination access was limited.
+No chronic illnesses.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Lives with extended family of 7 in a two-bedroom apartment.
+Attends public school, aspiring to study nursing.
+No tobacco, alcohol, or drug use.
+Family uses traditional remedies for common ailments; infrequent access to formal healthcare.
+No known exposure to communicable diseases.</t>
+  </si>
+  <si>
+    <t>CBC: Elevated WBC (13,800), Neutrophilia
+CRP: Elevated
+Serum electrolytes: Normal
+Wound swab culture: Pending
+Chest X-ray: No infiltrates or consolidation
+Head CT (to rule out CNS pathology): Normal
+Immunization titers (Tetanus IgG): Low</t>
+  </si>
+  <si>
+    <t>While in the emergency department, Ayesha becomes hypersensitive to sound and touch. She experiences a sudden spasm of her abdominal and back muscles (opisthotonos), and her breathing becomes shallow. She is immediately transferred to the ICU for airway protection and sedation. A tracheostomy is considered due to repeated spasms and risk of laryngospasm.</t>
+  </si>
+  <si>
+    <t>Recognizing tetanus in an era of presumed universal vaccination
+Cultural influences on wound management and delayed care-seeking
+Limited documentation of immunization in recent immigrants
+Avoiding anchoring bias (e.g., assuming dental or ENT causes for jaw stiffness)
+Prioritizing airway in a high-risk neurotoxic presentation
+Selecting empiric antibiotics and immunoglobulin appropriately
+Addressing family communication and consent across language and cultural barriers</t>
+  </si>
+  <si>
+    <t>Perform a detailed and culturally sensitive history
+Recognize signs of generalized tetanus
+Prioritize airway management
+Order appropriate labs and initiate early treatment
+Communicate findings with nursing and ICU teams
+Coordinate with pharmacy for human tetanus immunoglobulin and antibiotics
+Educate patient/family about vaccination, cultural beliefs, and prevention
+Escalate to senior staff when deterioration occurs</t>
+  </si>
+  <si>
+    <t>Rapid assessment of ABCs and protective airway planning
+ Early recognition of tetanus from clinical presentation
+ Prompt administration of Tetanus Immune Globulin (TIG)
+ Empiric antibiotic therapy (e.g., Metronidazole IV)
+ Wound debridement consult
+ Document vaccination status and initiate full TT series
+ Effective communication with interprofessional team (nurses, respiratory therapy, infectious disease)
+ Cultural competence in communicating treatment plan with non-English-speaking guardians</t>
+  </si>
+  <si>
+    <t>Nursing: Continuous sedation and spasm monitoring
+Respiratory Therapy: Tracheostomy and ventilation support
+Pharmacy: Urgent sourcing and dosing of TIG
+Social Work/Interpreter Services: Support with informed consent and health literacy education
+Infectious Disease: Guidance on duration and type of antibiotics, reporting to public health</t>
+  </si>
+  <si>
+    <t>What historical features made this patient high-risk for tetanus despite living in a developed country?
+How does lack of immunization documentation impact your clinical decision-making?
+What are the ethical implications of treating a critically ill minor with limited parental understanding of the disease?
+How can clinicians address traditional medicine use without alienating the patient or family?</t>
+  </si>
+  <si>
+    <t>What biases may have influenced your differential diagnosis?
+How did you balance clinical urgency with limited information?
+How did interprofessional communication affect your decision-making process?
+What strategies can be used to improve vaccination coverage in underrepresented populations?
+Reflect on how you handled uncertainty in this case—what would you do differently?</t>
+  </si>
+  <si>
+    <t>For OSCEs: Focus on early recognition, communication, and ordering of treatment
+For Virtual Simulation: Include audiovisual clips of muscle spasms and cultural interviews
+In-Class Use: Facilitate small-group analysis of missed immunization opportunities and ethical scenarios</t>
+  </si>
+  <si>
+    <t>SP Profile</t>
+  </si>
+  <si>
+    <t>Case Objectives</t>
+  </si>
+  <si>
+    <t>Scene Setup</t>
+  </si>
+  <si>
+    <t>SP Opening line</t>
+  </si>
+  <si>
+    <t>Chief Complaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Present Illness </t>
+  </si>
+  <si>
+    <t>Review of Systems</t>
+  </si>
+  <si>
+    <t>SP Behavior Cues</t>
+  </si>
+  <si>
+    <t>Discussion Questions</t>
+  </si>
+  <si>
+    <t>Name: Michael Rodriguez
+Age: 34
+Gender Identity: Male (He/Him)
+Ethnicity: Hispanic (Puerto Rican heritage)
+Occupation: Tech project manager
+Setting: Outpatient primary care clinic</t>
+  </si>
+  <si>
+    <t>Identify and manage a case of hyperthyroidism.
+Practice clinical reasoning and decision-making.
+Demonstrate effective communication with a culturally diverse patient.
+Engage in interdisciplinary collaboration (e.g., endocrinology, pharmacy).
+Address patient education and shared decision-making.</t>
+  </si>
+  <si>
+    <t>Setting: A primary care examination room. The SP is seated, slightly restless, fidgeting with his phone. Appears lean, mildly anxious.
+Clothing/Props: Casual business attire. Slight tremor visible in hands. Light sheen of perspiration. Brings in a reusable water bottle. If available, slight proptosis or "wide-eyed" appearance can be simulated with makeup or expression.</t>
+  </si>
+  <si>
+    <t>"Hey Doc—sorry if I seem a little wired today. I’ve been feeling kind of off lately, not sure what’s going on."</t>
+  </si>
+  <si>
+    <t>(If asked):
+“I’ve been feeling super jittery and anxious. My heart’s been racing even when I’m just sitting. It’s been a couple of months now.”</t>
+  </si>
+  <si>
+    <t>Onset: ~2–3 months ago
+Progression: Symptoms have gradually worsened
+Associated symptoms: Fatigue, heat intolerance, frequent bowel movements, difficulty sleeping, hand tremors, 8–10 lb weight loss (unintentional)
+Denies: Fever, chills, chest pain, shortness of breath, vomiting
+Stressors: Work has been busy, but nothing out of the ordinary
+Eating more: Yes—“like I’m always hungry”
+Mood: “A bit on edge all the time”</t>
+  </si>
+  <si>
+    <t>BP: 128/64 mmHg
+HR: 116 bpm, irregular
+RR: 18/min
+Temp: 98.8°F
+O2 sat: 99% on room air
+Weight: 145 lbs (down from 155 lbs six months ago)</t>
+  </si>
+  <si>
+    <t>Mild childhood asthma (no meds currently)
+No known heart problems
+No prior surgeries</t>
+  </si>
+  <si>
+    <t>Occasional melatonin for sleep
+Vitamin D
+No prescription medications</t>
+  </si>
+  <si>
+    <t>Penicillin – causes a rash</t>
+  </si>
+  <si>
+    <t>Lives alone, single
+Works 50–60 hours/week
+Drinks 1–2 beers on weekends
+No smoking or recreational drugs
+Exercises 2–3 times/week but recently “can’t keep up like I used to”
+Mother had a thyroid problem—“I think she had something where she had to take meds for life.”</t>
+  </si>
+  <si>
+    <t>Mother: hypothyroidism
+Father: Type 2 diabetes
+No known history of heart disease or autoimmune conditions in siblings</t>
+  </si>
+  <si>
+    <t>General: Fatigue, weight loss, warm all the time
+Cardiac: Palpitations
+GI: Frequent bowel movements (not watery), ~3–4/day
+Neuro: Tremors, irritability
+Musculoskeletal: Weakness in thighs—“going up stairs is rough”
+Skin: Sweaty hands, no rashes
+Vision: Sometimes feels like eyes are dry or “bulging a bit,” uses drops</t>
+  </si>
+  <si>
+    <t>Empathetic listening :	Appears more comfortable, opens up more.
+Failure to explore symptoms: Remains vague, may prompt: “I dunno... does this sound like stress to you?”
+Asking about family history:“Yeah, my mom had thyroid issues. Not sure what kind though.”
+Asking about sleep: “I can’t stay asleep. I wake up sweaty and just can’t settle down again.”
+Touches hand for tremor: Subtle visible tremor; SP should amplify tremor slightly if unnoticed
+Auscultates heart: “It feels like my heart is skipping sometimes too.”
+Checks eyes: Slight proptosis or simulated lid lag; SP keeps eyes wide and blinks slowly</t>
+  </si>
+  <si>
+    <t>Recognize symptoms of hyperthyroidism
+Perform focused physical exam: thyroid, heart, reflexes, eyes
+Order appropriate labs: TSH, Free T4, T3, thyroid antibodies
+Consider ECG and thyroid ultrasound or scan
+Initiate interdisciplinary referral to endocrinology
+Counsel patient on diagnosis and plan (beta-blockers, lifestyle advice)
+Screen for triggers or precipitating factors
+Use clear, jargon-free language when educating patient</t>
+  </si>
+  <si>
+    <t>Performs focused thyroid exam
+Asks about weight, appetite, GI symptoms
+Asks about family history
+Screens for cardiovascular symptoms
+Recommends labs for thyroid function
+Identifies likely hyperthyroidism
+Provides initial education and plan
+Suggests or initiates referral
+Demonstrates culturally sensitive communication</t>
+  </si>
+  <si>
+    <t>What are the key findings that point toward hyperthyroidism rather than anxiety?
+How would you differentiate Graves’ disease from toxic multinodular goiter clinically?
+What are potential complications if hyperthyroidism is left untreated?
+How do you discuss chronic conditions with a young, working adult under stress?
+What role does the PA play in coordinating endocrine care?</t>
+  </si>
+  <si>
+    <t>How confident were you in identifying hyperthyroidism?
+What challenges did you face in keeping the differential broad early on?
+What did you do well in building rapport with the patient?
+If this were a telehealth visit, what would have been different?
+How would you modify your approach for a non-English-speaking patient?</t>
+  </si>
+  <si>
+    <t>Bronchiectasis</t>
+  </si>
+  <si>
+    <t>Develop a comprehensive pediatric history focused on chronic respiratory symptoms.
+Recognize signs and symptoms of pediatric bronchiectasis and differentiate from common respiratory illnesses.
+Apply clinical reasoning to generate a problem list and differential diagnoses.
+Identify when to escalate for imaging or referral.
+Demonstrate empathetic communication with caregivers with language and cultural considerations.
+Practice interprofessional collaboration (e.g., with pulmonology, infectious disease, physiotherapy).</t>
+  </si>
+  <si>
+    <t>Standard exam room with pediatric posters, a small chair for child, larger chair for caregiver. SP portraying the child’s mother. Learner is expected to address both the child and mother. Interpreter services are available but not initially offered unless requested.</t>
+  </si>
+  <si>
+    <t>Mother: “Doctor saab, my son is always coughing… this is the third time he’s had pneumonia in a year. Something is not right.”</t>
+  </si>
+  <si>
+    <t>(if asked):
+“Persistent cough and low weight gain.”</t>
+  </si>
+  <si>
+    <t>Cough ongoing for over a year; wet-sounding, worse in mornings, occasionally blood-streaked.
+“Flu” or “chest infection” every few months. Treated with antibiotics 3 times this year.
+Poor weight gain. Eats poorly. Tires easily when playing.
+Last hospitalization 2 months ago for “pneumonia.”
+No known fever currently. No known TB exposure.
+Not vaccinated for measles due to parental concerns during COVID.</t>
+  </si>
+  <si>
+    <t>Temperature: 37.2°C
+Heart Rate: 112 bpm
+Respiratory Rate: 28/min
+BP: 100/65 mmHg
+SpO₂: 95% room air
+Weight: 16.5 kg (&lt;5th percentile)
+Height: 107 cm (10th percentile)</t>
+  </si>
+  <si>
+    <t>Recurrent respiratory infections
+Admitted twice in past year
+No known congenital issues
+Delivered full-term, normal vaginal delivery</t>
+  </si>
+  <si>
+    <t>Albuterol PRN (from recent hospitalization)
+Amoxicillin (last dose 3 weeks ago)</t>
+  </si>
+  <si>
+    <t>Lives with parents, 3 siblings in small apartment
+Non-smoker household
+Attends kindergarten irregularly due to illness
+Family income: low, father works two jobs
+No pets</t>
+  </si>
+  <si>
+    <t>Cousin with cystic fibrosis (UK-based)
+Mother reports “bad lungs run in the family”</t>
+  </si>
+  <si>
+    <t>Positive for: Cough, sputum production, occasional hemoptysis, fatigue, poor appetite
+Negative for: Fever, night sweats, joint pain, rashes</t>
+  </si>
+  <si>
+    <t>Mother is visibly worried, anxious, protective
+Mild language barrier, asks for clarification often
+SP may ask about “foreign body stuck” or previous "bad air" at home
+Child is quiet but compliant</t>
+  </si>
+  <si>
+    <t>Physical Exam Findings</t>
+  </si>
+  <si>
+    <t>General: Mildly underweight, alert, interactive
+Lungs: Crackles and rhonchi in lower lobes bilaterally
+Clubbing: Present
+No cyanosis
+ENT: Mild nasal congestion, post-nasal drip
+CVS/Abdo/Neuro: Normal</t>
+  </si>
+  <si>
+    <t>CBC: Mild leukocytosis
+CXR: Peribronchial thickening, patchy infiltrates
+HRCT (if ordered or suggested): Bronchial dilatation and wall thickening (suggestive of bronchiectasis)
+Sweat chloride test: Pending
+Sputum culture: Pseudomonas aeruginosa isolated
+Immunoglobulin panel: WNL</t>
+  </si>
+  <si>
+    <t>Take thorough history focusing on chronic cough and infections
+Recognize red flags: hemoptysis, clubbing, poor weight gain, recurrent pneumonias
+Suggest differential: bronchiectasis, cystic fibrosis, immunodeficiency, asthma
+Recommend HRCT for diagnosis
+Consider sweat chloride testing
+Initiate interprofessional consults (Pulmonology, ID, Nutrition, Social Work)
+Counsel mother with empathy; offer interpreter or written info
+Discuss importance of full immunization
+Emphasize importance of follow-up and airway clearance therapies</t>
+  </si>
+  <si>
+    <t>Establish rapport with caregiver and child
+Elicit detailed symptom history with timeline
+Identify growth faltering and recurrent infections
+Perform focused lung exam
+Generate differential including bronchiectasis
+Recommend appropriate diagnostic workup (HRCT, sweat test, sputum)
+Communicate need for specialist referral
+Address vaccination gaps respectfully
+Demonstrate cultural sensitivity and offer interpreter if needed
+Engage in shared decision-making</t>
+  </si>
+  <si>
+    <t>What are the early warning signs of bronchiectasis in children?
+How can healthcare teams intervene to prevent complications in this case?
+What are the challenges of managing chronic respiratory disease in underserved populations?
+How does the presence of hemoptysis change your approach?</t>
+  </si>
+  <si>
+    <t>“What made you consider bronchiectasis as a possibility?”
+“How did the social and family history inform your clinical reasoning?”
+“What barriers to care might this family face?”
+“What would you do differently in a follow-up encounter?”
+“How confident were you in engaging the caregiver with a language barrier?”</t>
+  </si>
+  <si>
+    <t>Adaptability</t>
+  </si>
+  <si>
+    <t>OSCE-friendly (SP + checklist + physical exam props).
+Virtual simulation adaptable
+Classroom case discussion with branching outcomes.
+Fits into pediatrics, pulmonology, or family medicine modules.</t>
+  </si>
+  <si>
+    <t>Persistent Pediatric Diarrhea</t>
+  </si>
+  <si>
+    <t>Name: Ayaan Khan
+Age: 6 years old
+Gender: Male
+Ethnicity: South Asian (Pakistani heritage)
+Setting: Pediatric outpatient clinic
+Accompanied by: Mother (primary caregiver, moderate English proficiency)                            Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>Name: Meera Gupta
+Age: 11 months
+Gender: Female
+Ethnicity: South Asian (Indian origin) – for cultural relevance and feeding practice discussions
+Parent present: Mother (Ms. Priya Gupta), 32-year-old, primary caregiver, fluent in Hindi and English                                         Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>By the end of the simulation, learners will be able to:
+Recognize and diagnose persistent diarrhea in a pediatric patient.
+Identify nutritional implications and signs of secondary lactose intolerance.
+Differentiate persistent diarrhea from chronic or recurrent diarrhea.
+Develop a nutritional and medical management plan using staged dietary interventions.
+Communicate effectively with a caregiver from a different cultural background, addressing feeding beliefs and practices.
+Collaborate with interprofessional team members (dietitian, nurse, pharmacist).
+Demonstrate appropriate clinical reasoning under diagnostic uncertainty.</t>
+  </si>
+  <si>
+    <t>Pediatric outpatient clinic or simulated ward setting.
+Infant is brought in by the mother.
+The SP playing the mother is distressed, tired, and seeking help after multiple unsuccessful visits to clinics.
+A baby doll can be used to represent the patient.
+Vital signs and physical findings provided upon request or examination.</t>
+  </si>
+  <si>
+    <t>“Doctor, I’m really worried. Meera hasn’t stopped having watery stools for over two weeks now… She’s losing weight, and I don’t know what to feed her anymore.”</t>
+  </si>
+  <si>
+    <t>(if asked)
+“She has been having frequent loose stools, 6 to 10 times a day, for over two weeks.”</t>
+  </si>
+  <si>
+    <t>Diarrhea began acutely 17 days ago after a presumed viral illness.
+Initially treated with oral rehydration solution (ORS) at home and continued exclusive cow’s milk diet.
+Intermittent fever resolved by day 5.
+Stools became more watery, explosive, foul-smelling, associated with perianal redness.
+Infant appears fatigued and irritable.
+Poor feeding over past week; weight loss noted by the mother.
+No vomiting currently, mild fever 3 days ago.
+No blood in stools.</t>
+  </si>
+  <si>
+    <t>Temp: 37.8°C
+HR: 138 bpm
+RR: 32 breaths/min
+BP: 84/56 mmHg
+Weight: 6.1 kg (previously 6.8 kg 3 weeks ago)
+MUAC: 11.2 cm
+Cap refill: 3 seconds
+Mild dehydration signs (sunken eyes, dry mucous membranes)</t>
+  </si>
+  <si>
+    <t>Full-term vaginal delivery, normal birth weight (2.9 kg)
+Up-to-date immunizations
+No previous hospitalizations</t>
+  </si>
+  <si>
+    <t>Multivitamin syrup (self-initiated by mother)
+No current prescription meds</t>
+  </si>
+  <si>
+    <t>No known drug or food allergies</t>
+  </si>
+  <si>
+    <t>Lives in urban apartment, both parents working (father unavailable during visit).
+Clean water access, but uses boiled cow’s milk as primary feed.
+Exclusive breastfeeding stopped at 4 months.
+Introduced semisolids at 7 months (mainly rice and potatoes).
+Care provided mainly by mother and grandmother.</t>
+  </si>
+  <si>
+    <t>No history of chronic gastrointestinal diseases
+Mother had lactose intolerance as a child</t>
+  </si>
+  <si>
+    <t>GI: Frequent explosive stools, poor appetite, no vomiting now
+GU: Normal urine output, no UTI symptoms
+Neuro: Alert, irritable when handled
+Respiratory: Normal
+Skin: Mild diaper rash</t>
+  </si>
+  <si>
+    <t>Anxious, sleep-deprived, emotionally reactive.
+Defensive when asked about feeding practices (“I thought cow’s milk is good for babies!”)
+Tearful when discussing weight loss.</t>
+  </si>
+  <si>
+    <t>(To be provided on learner request or during simulation)
+CBC: Mild normocytic anemia, WBC normal
+Stool exam: Positive reducing substances, pH &lt; 5, no blood, no parasites
+Urinalysis: Normal
+Serum electrolytes: Mild hyponatremia
+Weight-for-age: &lt; -2 SD
+No growth of bacteria in stool culture (done externally)</t>
+  </si>
+  <si>
+    <t>Take a focused history and perform pediatric assessment.
+Recognize signs of secondary lactose intolerance and nutritional decline.
+Identify malnutrition (based on weight loss, MUAC, and growth faltering).
+Communicate dietary changes to the parent with empathy and clarity.
+Propose Diet A initiation, with criteria for escalation.
+Consider empiric antibiotic use if systemic infection suspected.
+Educate mother about feeding practices and hygiene.
+Consult with a dietitian and pediatric nurse for feeding plan.
+Initiate zinc and vitamin A supplementation.
+Schedule follow-up or admission depending on risk assessment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elicit complete and focused history (feeding, stool pattern, weight).
+Identify signs of secondary lactose intolerance.
+Assess nutritional status (MUAC, growth trajectory).
+Counsel on dietary modifications (Diet A initiation).
+Prescribe zinc and vitamin A.
+Discuss danger signs and follow-up.
+Offer culturally sensitive education.
+Document clear plan and involve the interprofessional team.
+Recognize and plan for malnutrition management.
+</t>
+  </si>
+  <si>
+    <t>How does persistent diarrhea differ from chronic or recurrent diarrhea?
+What are the red flags for malnutrition in infants?
+How would you tailor nutritional counseling in a cross-cultural setting?
+What are the implications of prolonged antibiotic use in diarrhea?
+When would you escalate to Diet B or Diet C?</t>
+  </si>
+  <si>
+    <t>What was the most challenging part of this encounter?
+How did you approach caregiver communication and cultural beliefs?
+Were there any moments where your biases or assumptions influenced your clinical judgment?
+What could you have done to involve the interprofessional team more effectively?
+How would you ensure continuity of care for this patient?</t>
+  </si>
+  <si>
+    <t>OSCE: Use time-bound station with SP scoring sheet.
+Classroom: Conduct as a group role-play with guided discussion.
+Virtual Simulation: Provide interactive branching logic via chat/voice.</t>
+  </si>
+  <si>
+    <t>A Pediatric Upper GI Bleed in the Context of Portal Hypertension</t>
+  </si>
+  <si>
+    <t>Name: Aarav Kumar
+Age: 9 years
+Gender: Male
+Ethnicity: South Asian (Indian)
+Language Preference: English and Hindi (can provide medical history in both)
+Setting: Pediatric ED or inpatient pediatric ward
+Simulation Duration: 20–30 minutes                         Target Audience: Medical students, Residents</t>
+  </si>
+  <si>
+    <t>By the end of this case, learners should be able to:
+Identify and manage life-threatening upper GI bleeding in a pediatric patient.
+Demonstrate clinical reasoning in diagnosing portal hypertension in a child.
+Implement guideline-based resuscitative and therapeutic strategies for variceal bleeding.
+Coordinate interprofessional care (pediatrics, gastroenterology, nursing, interpreter services).
+Communicate effectively with caregivers and team members during pediatric emergencies.
+Apply culturally sensitive communication techniques with non-native English speakers.</t>
+  </si>
+  <si>
+    <t>A pediatric ED or ward room.
+The SP (parent of the child) is panicked and anxious.
+The child is on a stretcher, visibly pale with blood stains on their shirt and face.
+A nurse confederate is available for collaboration.</t>
+  </si>
+  <si>
+    <t>"Doctor, please help! My son just vomited a lot of blood, it was so sudden—I don't know what’s happening!"</t>
+  </si>
+  <si>
+    <t>"He threw up a large amount of bright red blood about 30 minutes ago at home."</t>
+  </si>
+  <si>
+    <t>Aarav was playing at home when he suddenly vomited approximately 300–400 ml of bright red blood.
+No associated pain or fever.
+No trauma or ingestion.
+Similar, smaller episodes of blood-tinged vomitus noted in the past month, but parents thought it was due to a sore throat.
+Occasional mild abdominal distension noticed in the last 6 months.
+No diarrhea, constipation, or weight loss reported.</t>
+  </si>
+  <si>
+    <t>HR: 135 bpm
+BP: 85/50 mmHg
+RR: 26/min
+Temp: 37.1°C
+SpO₂: 97% on room air
+Weight: 25 kg</t>
+  </si>
+  <si>
+    <t>Known cryptogenic liver disease diagnosed 1 year ago.
+Ultrasound previously showed hepatosplenomegaly.
+Missed follow-ups due to financial issues.</t>
+  </si>
+  <si>
+    <t>Propranolol (poor adherence)
+Multivitamins</t>
+  </si>
+  <si>
+    <t>Lives with both parents and younger sibling.
+Father is a shopkeeper; mother is a homemaker.
+No known exposure to TB or hepatitis B/C in the family.
+Household income is limited; sometimes struggles to afford medications.</t>
+  </si>
+  <si>
+    <t>No family history of liver disease or bleeding disorders.
+Maternal uncle died of an unknown liver condition in his 30s.</t>
+  </si>
+  <si>
+    <t>CBC: Hb 6.4 g/dL, WBC 9.2K, Platelets 110K
+LFTs: Elevated AST/ALT, low albumin (2.4 g/dL)
+INR: 1.8
+Ultrasound: Coarse echotexture liver, splenomegaly, mild ascites
+Previous Endoscopy (6 months ago): Grade II esophageal varices</t>
+  </si>
+  <si>
+    <t>Fatigue
+Mild early satiety
+Occasional mild abdominal swelling</t>
+  </si>
+  <si>
+    <t>Child is quiet, fatigued, anxious.
+Parent is distressed, constantly asking questions in both English and Hindi.
+Parent becomes more emotional if learner delays oxygen or IV access.</t>
+  </si>
+  <si>
+    <t>Recognize and prioritize hemorrhagic shock.
+Initiate ABC assessment and support.
+Establish large-bore IV access.
+Order STAT CBC, LFTs, INR, crossmatch.
+Initiate fluid resuscitation with crystalloids followed by packed RBCs.
+Begin IV octreotide or somatostatin.
+Administer third-generation cephalosporin (e.g., cefotaxime).
+Consult pediatric gastroenterology for urgent endoscopy.
+Provide culturally sensitive explanation to parent.
+Engage interpreter services if needed.
+Coordinate with nursing and pharmacy for time-sensitive interventions.</t>
+  </si>
+  <si>
+    <t>Assessed airway, breathing, circulation.         Provided oxygen and established IV access.
+Ordered labs and blood products	
+Initiated octreotide/somatostatin	
+Administered prophylactic antibiotics. Initiated blood transfusion (PRBCs) appropriately	
+Communicated clearly with caregiver. Called for urgent pediatric GI consult	
+Used interpreter or culturally competent approach.	
+Handoff to interprofessional team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the most common causes of upper GI bleeding in children? How do they vary by age?
+Why is prophylactic antibiotic therapy indicated in variceal bleeding?
+How does portal hypertension develop in pediatric liver disease?
+What factors might delay endoscopy in resource-limited settings, and how can care be optimized?
+How can we involve caregivers effectively in clinical decision-making?
+</t>
+  </si>
+  <si>
+    <t>Walk us through your clinical reasoning from first impression to interventions.
+What biases may have influenced your initial differential?
+How did you manage your communication with the distressed parent?
+Did you feel prepared to handle this kind of pediatric emergency?
+What could you improve next time in coordinating care across teams?</t>
+  </si>
+  <si>
+    <t>OSCEs with actor-based SPs
+Virtual simulations with video conferencing and standardized lab result PDFs
+Classroom discussion or flipped classroom with video of a simulated scenario followed by group debrief</t>
+  </si>
+  <si>
+    <t>A Pediatric Liver Abscess in an Immunocompromised Patient</t>
+  </si>
+  <si>
+    <t>Name: Ayaan Hussain
+Age: 9 years
+Gender: Male
+Ethnicity: South Asian
+Language: Speaks English; Urdu is primary language at home
+Parent/Guardian Present: Mother, Amina Hussain (plays a minor role if learners engage family)
+Relevant Background: History of Chronic Granulomatous Disease (CGD), on prophylactic antibiotics                                         Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>This case is designed for medical students and pediatric residents to evaluate, diagnose, and manage a child presenting with systemic signs of infection and abdominal pain. Learners will:
+Conduct a focused pediatric history and physical exam.
+Recognize red flags suggestive of liver abscess.
+Prioritize diagnostic investigations based on immune status.
+Initiate empiric treatment and plan for interprofessional coordination.
+Discuss patient/family education, particularly in culturally sensitive contexts.
+Develop differential diagnosis and clinical reasoning in the context of immunocompromised hosts.</t>
+  </si>
+  <si>
+    <t>Setting: Pediatric Emergency Department or Inpatient Pediatric Ward
+Learner Role: Primary provider (MS or resident)
+Standardized Patient Role: Ayaan (played by SP), with mother present if desired
+SP Notes: SP (Ayaan) is tired, febrile, and occasionally winces or guards RUQ. Cooperative but lethargic. Avoids eye contact, prefers yes/no answers. Mother is anxious but calm, seeks clear explanations.</t>
+  </si>
+  <si>
+    <t>"My stomach really hurts and I feel hot... I’ve been like this for a few days."</t>
+  </si>
+  <si>
+    <t>"Fever and stomach pain, mostly on the right side, since four days."</t>
+  </si>
+  <si>
+    <t>Fever for 4 days (up to 103°F), non-remitting
+Abdominal pain: dull, constant, RUQ, worse with movement or deep breaths
+Poor appetite, some nausea, no vomiting
+Decreased energy, mostly bedridden past 2 days
+No cough, urinary symptoms, or recent trauma
+No recent travel, no contact with sick individuals
+Took Tylenol with temporary relief
+Mother notes he’s "getting sick more often lately"</t>
+  </si>
+  <si>
+    <t>Temp: 39.4°C (102.9°F)
+HR: 120 bpm
+RR: 26/min
+BP: 100/65 mmHg
+SpO₂: 98% on room air</t>
+  </si>
+  <si>
+    <t>Diagnosed CGD at age 3
+Multiple past infections: pneumonia, skin abscesses
+No recent hospitalizations
+UTD on vaccinations</t>
+  </si>
+  <si>
+    <t>Trimethoprim-Sulfamethoxazole (prophylaxis)
+Itraconazole (prophylaxis)
+Acetaminophen PRN</t>
+  </si>
+  <si>
+    <t>Lives with parents and younger sister
+Mother is a homemaker; father is an accountant
+Family immigrated from Pakistan 3 years ago
+Strict dietary habits; does not eat outside food
+Family speaks Urdu at home; mother speaks intermediate English</t>
+  </si>
+  <si>
+    <t>No known genetic disorders in family
+Younger sister healthy</t>
+  </si>
+  <si>
+    <t>Fever, chills, fatigue
+RUQ pain
+No diarrhea, no constipation
+No sore throat, cough
+No dysuria or hematuria</t>
+  </si>
+  <si>
+    <t>Groans softly when touched in RUQ
+Short responses unless prompted
+Clings to mother when overwhelmed
+Tenses up when abdomen is palpated</t>
+  </si>
+  <si>
+    <t>General: Lethargic but alert, toxic appearance
+Abdomen: Tender RUQ with guarding, no rebound, hepatomegaly present
+CV/Resp: Clear lungs, tachycardic, no murmurs
+Skin: No rashes, no jaundice
+Neuro: Oriented, sluggish responses</t>
+  </si>
+  <si>
+    <t>CBC: WBC 19,000/mm³, Neutrophils 85%
+ESR: 74 mm/hr
+CRP: Elevated
+LFTs: Mildly elevated AST/ALT, ALP elevated
+Blood Cultures: Pending
+Abdominal Ultrasound: 6cm hypoechoic lesion in right hepatic lobe with rim enhancement
+CT Abdomen (if ordered): Confirms abscess; no rupture; no biliary obstruction</t>
+  </si>
+  <si>
+    <t>Conduct thorough pediatric HPI and ROS
+Recognize immunocompromised state and risk for unusual infections
+Perform focused abdominal exam with attention to hepatomegaly
+Order relevant labs and imaging (CBC, LFTs, US, blood cultures)
+Consider liver abscess in differential diagnosis
+Initiate empiric IV antibiotics covering gram+, gram–, anaerobes
+Communicate with radiology, ID, and possibly surgery
+Provide family-centered education and use clear language
+Arrange for admission and consultation for percutaneous drainage</t>
+  </si>
+  <si>
+    <t>Identifies immunocompromised status (CGD)
+Orders appropriate imaging and labs
+Recognizes liver abscess as likely diagnosis
+Initiates empiric broad-spectrum antibiotics
+Requests ID consult
+Plans for drainage if clinically indicated
+Engages mother respectfully and provides language-concordant resources
+Documents clinical reasoning and differential</t>
+  </si>
+  <si>
+    <t>What clinical features helped distinguish liver abscess from other abdominal pathology?
+How does CGD alter the patient’s infection risk and treatment approach?
+What are key considerations when treating infections in immunocompromised children?
+How can providers ensure culturally competent care in this scenario?</t>
+  </si>
+  <si>
+    <t>“What cues helped you decide this was more than a typical abdominal complaint?”
+“How did you incorporate the patient’s immune status into your diagnostic reasoning?”
+“Was there any point where you felt uncertain about your differential? Why?”
+“How did you handle the communication with the patient’s mother?”
+“If this case progressed to rupture or sepsis, what would your next steps be?”</t>
+  </si>
+  <si>
+    <t>Adaptable for OSCE by providing imaging reports and prompting critical thinking
+Can be modified for telehealth simulation (e.g., virtual encounter with SP and remote radiology results)
+SP script includes responses in Urdu if interpreter not offered (to test learner's cultural responsiveness)</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Paul, V. K., &amp; Bagga, A. (Eds.). (2013). Ghai essential pediatrics (8th ed.). CBS Publishers &amp; Distributors.</t>
+  </si>
+  <si>
+    <t>Dutta, D. C., &amp; Konar, H. (Ed.). (2015). DC Dutta's textbook of obstetrics: Including perinatology and contraception (8th ed.). Jaypee Brothers Medical Publishers.</t>
   </si>
 </sst>
 </file>
@@ -2398,13 +3663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2414,8 +3672,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2437,24 +3704,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2769,1354 +4036,3022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE0C052-7AB7-DC47-9DDB-42272201E23A}">
-  <dimension ref="A1:AC21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E725C-360B-4F4B-B7BA-A4989DAE5406}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="94" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="3" width="17.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="36.1640625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="36.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="43.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="33.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="32.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="28.83203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="33.1640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="49.6640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="29.83203125" style="2" customWidth="1"/>
-    <col min="26" max="29" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664A7BAF-0C2A-9247-AFA1-05776D92CFBC}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G5:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724E7B9-119E-994A-99A2-8337FA3C7903}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B54550-1027-A346-8C59-DB22363484BB}">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8336F802-8259-704E-9519-29D197B8309B}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF53FD-24A2-40A8-9AFC-21FD8ED25B63}">
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="31.33203125" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="20" max="20" width="34.33203125" customWidth="1"/>
+    <col min="21" max="21" width="33.1640625" customWidth="1"/>
+    <col min="22" max="22" width="31.1640625" customWidth="1"/>
+    <col min="23" max="23" width="30.1640625" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>441</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>480</v>
+      </c>
+      <c r="X1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>240</v>
+      <c r="M3" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="289" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:24" ht="404" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="388" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>354</v>
+      <c r="B5" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="356" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="323" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="289" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:24" ht="356" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="356" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="272" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="272" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="340" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="340" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="289" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="272" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="340" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="372" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="340" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="388" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>340</v>
+      <c r="M6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE08A7-3E9C-A245-8CE2-0A677D50A320}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAE955D-550C-514F-9B20-E1EAD28E083B}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD078BD-32DA-0A4F-9EA7-7DEC84E425BD}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03273311-2822-7B4A-A21F-7F05730E5D71}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018F384-D17A-644C-804B-26CD93346828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3229F103-F3A9-42AE-A08D-7DD5E986C082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-1560" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="574">
   <si>
     <t>Name</t>
   </si>
@@ -3645,6 +3645,170 @@
   </si>
   <si>
     <t>Dutta, D. C., &amp; Konar, H. (Ed.). (2015). DC Dutta's textbook of obstetrics: Including perinatology and contraception (8th ed.). Jaypee Brothers Medical Publishers.</t>
+  </si>
+  <si>
+    <t>Navigating Chronic Pelvic Pain in a Multidimensional Patient Context</t>
+  </si>
+  <si>
+    <t>Name: Ms. Laila Hassan
+Age: 32
+Gender: Female
+Ethnicity/Nationality: Egyptian-American
+Language: Fluent English, slight Egyptian Arabic accent
+Occupation: Secondary school biology teacher
+Cultural/Religious Background: Muslim, observant but open to Western medicine
+Marital Status: Married
+Children: None</t>
+  </si>
+  <si>
+    <t>By the end of this simulation, learners should be able to:
+Conduct a comprehensive gynecological history, including sensitive inquiry into pain, sexual health, and menstrual function.
+Demonstrate cultural competence and appropriate communication strategies in discussing intimate symptoms.
+Generate a differential diagnosis for chronic pelvic pain in reproductive-age women.
+Discuss the role of multidisciplinary care including referral to pain specialists, pelvic physiotherapy, gynecology, and mental health professionals.
+Practice shared decision-making and appropriate explanation of further diagnostic steps (e.g., pelvic ultrasound, laparoscopy).
+Engage in interprofessional collaboration (with nurses, mental health workers, physiotherapists).
+Reflect on how cultural and psychosocial factors influence symptom expression and health-seeking behavior.</t>
+  </si>
+  <si>
+    <t>Location: Outpatient gynecology clinic
+Learner Role: Medical student or junior resident
+SP Setting: Patient is seated in the exam room, clothed. No physical exam is required unless prompted.
+Observer Role (optional): Nurse educator or senior resident may be observing to assess communication and critical thinking.</t>
+  </si>
+  <si>
+    <t>“Hi, I’m here because I’ve been having this deep, aching pain in my lower belly that won’t go away. It’s been really affecting my life.”</t>
+  </si>
+  <si>
+    <t>“I’ve had pelvic pain for over a year, but it’s been worse in the last few months. It’s deep, and sometimes sharp during certain times of the month or with intercourse.”</t>
+  </si>
+  <si>
+    <t>Pain began 15 months ago, gradually worsening.
+Localized to suprapubic and deep pelvic region, sometimes radiating to lower back.
+Described as dull, aching baseline with sharp pain during sex (deep dyspareunia).
+Worse around periods but now persistent throughout the cycle.
+Some days she misses work due to pain.
+NSAIDs help minimally.
+Reports pain with bowel movements during menstruation.
+Denies fever, weight loss, or abnormal bleeding.
+Expresses frustration at not being believed by a previous provider.</t>
+  </si>
+  <si>
+    <t>Temp	36.8°C
+BP	114/72 mmHg
+HR	82 bpm
+RR	16 breaths/min
+O2 Sat	98% on RA
+BMI	24.5</t>
+  </si>
+  <si>
+    <t>Diagnosed with IBS 2 years ago, but unsure
+Migraines
+Mild anxiety, no formal diagnosis</t>
+  </si>
+  <si>
+    <t>Ibuprofen 400 mg as needed
+Vitamin D
+Occasionally uses peppermint oil capsules for IBS</t>
+  </si>
+  <si>
+    <t>No Known drug allergies.</t>
+  </si>
+  <si>
+    <t>Lives with husband
+No tobacco or alcohol
+Observes fasting during Ramadan
+Stresses due to fertility pressure from in-laws
+Work absenteeism is increasing
+No known domestic abuse, but reluctant to discuss intimacy in depth unless rapport is built</t>
+  </si>
+  <si>
+    <t>Mother: Hypertension, hysterectomy at 45 (unknown reason)
+Sister: Diagnosed with endometriosis
+Father: Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Constitutional: No fevers or weight loss
+GI: Constipation around periods, mild bloating
+GU: No dysuria or hematuria
+Neuro: No weakness or paresthesias
+Psych: Mood “low sometimes,” occasional anxiety about infertility</t>
+  </si>
+  <si>
+    <t>Initially guarded, becomes open if approached sensitively
+May tear up slightly when discussing fertility
+Avoids eye contact when asked about sexual activity—needs reassurance of confidentiality
+Responds well to empathetic and structured questioning</t>
+  </si>
+  <si>
+    <t>This scenario can be easily adapted to:
+In-person OSCE with a trained SP
+Virtual simulation via Zoom or telehealth platform
+Classroom-based case discussion
+Interprofessional learning with role-play across disciplines</t>
+  </si>
+  <si>
+    <t>How did it feel discussing sensitive topics like sexual pain or infertility?
+Were there moments you felt uncertain or uncomfortable—how did you manage them?
+What non-verbal cues did you notice that influenced how you proceeded?
+How could you have better addressed the patient’s frustration with prior medical experiences?</t>
+  </si>
+  <si>
+    <t>What are the key red flags that differentiate gynecologic from GI sources of pelvic pain?
+How does culture influence this patient’s expression of pain and her approach to care?
+What role does a gynecologist play in confirming this diagnosis?
+How do we manage diagnostic uncertainty while maintaining patient trust?</t>
+  </si>
+  <si>
+    <t>Establish rapport with professional introduction and culturally sensitive tone
+Use clear language, explain purpose of questions
+Elicit detailed menstrual and dyspareunia history
+Inquire about fertility and psychosocial impact
+Generate focused differential diagnosis
+Recommend appropriate diagnostics and referrals
+Discuss role of gynecologist, physiotherapist, psychologist
+Demonstrate empathy and validate patient’s experience
+Maintain patient dignity throughout</t>
+  </si>
+  <si>
+    <t>Introduce self and explain role and confidentiality
+Use open-ended, non-judgmental language
+Ask about menstrual, sexual, and pain history
+Screen gently for fertility concerns and psychosocial stressors
+Offer preliminary differential: endometriosis, IBS, pelvic floor dysfunction, chronic pelvic pain syndrome
+Suggest further work-up: pelvic US, CA-125, laparoscopy (depending on level)
+Provide reassurance, validate experience
+Consider interprofessional referrals: pelvic physiotherapy, gynecology, mental health, pain clinic
+Discuss possible benefits of hormonal suppression trial</t>
+  </si>
+  <si>
+    <t>Menstrual History</t>
+  </si>
+  <si>
+    <t>Obstetric History</t>
+  </si>
+  <si>
+    <t>Sexual History</t>
+  </si>
+  <si>
+    <t>Cycles every 28–30 days
+Menses last 6–7 days, heavy first 2 days
+Regular but very painful periods since teenage years
+Uses tampons, but sometimes has to lie down due to cramps
+On no hormonal contraception currently</t>
+  </si>
+  <si>
+    <t>G0P0
+Trying to conceive for 1.5 years without success
+Miscarriage ruled out
+Never pregnant to her knowledge</t>
+  </si>
+  <si>
+    <t>Monogamous with husband of 4 years
+Reports pain during deep penetration
+No history of STIs
+Uses condoms occasionally
+Negative chlamydia/gonorrhea last year</t>
   </si>
 </sst>
 </file>
@@ -4043,12 +4207,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4125,7 +4289,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4203,9 +4367,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4282,7 +4446,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4349,7 +4513,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4416,7 +4580,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4483,7 +4647,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4561,13 +4725,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4644,7 +4808,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4724,9 +4888,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4803,7 +4967,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4866,7 +5030,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4931,7 +5095,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4996,7 +5160,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5072,9 +5236,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5151,7 +5315,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5218,7 +5382,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5283,7 +5447,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5350,7 +5514,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5415,7 +5579,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5480,7 +5644,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5543,7 +5707,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5619,9 +5783,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5698,7 +5862,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5770,38 +5934,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF53FD-24A2-40A8-9AFC-21FD8ED25B63}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="31.33203125" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" customWidth="1"/>
-    <col min="20" max="20" width="34.33203125" customWidth="1"/>
-    <col min="21" max="21" width="33.1640625" customWidth="1"/>
-    <col min="22" max="22" width="31.1640625" customWidth="1"/>
-    <col min="23" max="23" width="30.1640625" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" customWidth="1"/>
+    <col min="5" max="5" width="32.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="28.69921875" customWidth="1"/>
+    <col min="9" max="9" width="23.69921875" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" customWidth="1"/>
+    <col min="11" max="11" width="25.296875" customWidth="1"/>
+    <col min="12" max="12" width="20.796875" customWidth="1"/>
+    <col min="13" max="13" width="26.296875" customWidth="1"/>
+    <col min="14" max="14" width="28.296875" customWidth="1"/>
+    <col min="15" max="15" width="30.69921875" customWidth="1"/>
+    <col min="16" max="21" width="31.296875" customWidth="1"/>
+    <col min="22" max="22" width="30.69921875" customWidth="1"/>
+    <col min="23" max="23" width="34.296875" customWidth="1"/>
+    <col min="24" max="24" width="33.19921875" customWidth="1"/>
+    <col min="25" max="25" width="31.19921875" customWidth="1"/>
+    <col min="26" max="26" width="30.19921875" customWidth="1"/>
+    <col min="27" max="27" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5851,31 +6015,40 @@
         <v>440</v>
       </c>
       <c r="Q1" t="s">
+        <v>568</v>
+      </c>
+      <c r="R1" t="s">
+        <v>569</v>
+      </c>
+      <c r="S1" t="s">
+        <v>570</v>
+      </c>
+      <c r="T1" t="s">
         <v>473</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>441</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>480</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5926,20 +6099,23 @@
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5988,32 +6164,35 @@
       <c r="P3" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="404" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6062,29 +6241,32 @@
       <c r="P4" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="U4" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="388" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6133,29 +6315,32 @@
       <c r="P5" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="U5" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="356" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6204,29 +6389,106 @@
       <c r="P6" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6243,9 +6505,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6322,7 +6584,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6396,9 +6658,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6475,7 +6737,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6555,9 +6817,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6634,7 +6896,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6712,9 +6974,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6791,7 +7053,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6856,7 +7118,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6921,7 +7183,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6986,7 +7248,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3229F103-F3A9-42AE-A08D-7DD5E986C082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9476CC7-2115-FF44-97CB-5294D4969EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
     <sheet name="Gastrointestinal System" sheetId="5" r:id="rId2"/>
     <sheet name="Neurology" sheetId="4" r:id="rId3"/>
     <sheet name="Cardiovascular" sheetId="9" r:id="rId4"/>
-    <sheet name="sp" sheetId="2" r:id="rId5"/>
+    <sheet name="Standarized Patient Scenarios" sheetId="2" r:id="rId5"/>
     <sheet name="Endocrine System" sheetId="6" r:id="rId6"/>
     <sheet name="General Surgery" sheetId="3" r:id="rId7"/>
     <sheet name="Musculoskeletal" sheetId="8" r:id="rId8"/>
@@ -2685,15 +2685,6 @@
 Setting: Surgical Intensive Care Unit (SICU)   Target Audience: Nursing Students</t>
   </si>
   <si>
-    <t>Name: Aaliyah Campbell
-Age: 44 years
-Gender: Female
-Ethnicity: African American
-Pronouns: She/her
-Setting: Primary Care Clinic
-Insurance: Medicaid                                            Target Audience: Physician Assistant Students</t>
-  </si>
-  <si>
     <t>Name: Mr. Mahmoud El-Sayed
 Age: 74
 Gender: Male
@@ -3809,6 +3800,16 @@
 No history of STIs
 Uses condoms occasionally
 Negative chlamydia/gonorrhea last year</t>
+  </si>
+  <si>
+    <t>Name: Aaliyah Campbell
+Age: 44 years
+Gender: Female
+Ethnicity: African American
+Pronouns: She/her
+Setting: Primary Care Clinic
+Insurance: Medicaid
+Target Audience: Physician Assistant Students</t>
   </si>
 </sst>
 </file>
@@ -4207,12 +4208,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.19921875" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4283,13 +4284,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>206</v>
@@ -4320,10 +4321,10 @@
         <v>211</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
@@ -4367,9 +4368,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4440,13 +4441,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4507,13 +4508,13 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4574,13 +4575,13 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4641,13 +4642,13 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4710,7 +4711,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -4729,9 +4730,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4802,71 +4803,71 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -4888,9 +4889,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4961,13 +4962,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>137</v>
@@ -5030,7 +5031,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>147</v>
@@ -5095,7 +5096,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>163</v>
@@ -5160,7 +5161,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>179</v>
@@ -5232,13 +5233,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B54550-1027-A346-8C59-DB22363484BB}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="68.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5309,13 +5313,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
@@ -5382,7 +5386,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -5447,7 +5451,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
@@ -5514,7 +5518,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>68</v>
@@ -5579,7 +5583,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>85</v>
@@ -5644,7 +5648,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>101</v>
@@ -5707,7 +5711,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>116</v>
@@ -5783,9 +5787,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5856,13 +5860,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>236</v>
@@ -5940,32 +5944,32 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="29.69921875" customWidth="1"/>
-    <col min="5" max="5" width="32.69921875" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="28.69921875" customWidth="1"/>
-    <col min="9" max="9" width="23.69921875" customWidth="1"/>
-    <col min="10" max="10" width="28.19921875" customWidth="1"/>
-    <col min="11" max="11" width="25.296875" customWidth="1"/>
-    <col min="12" max="12" width="20.796875" customWidth="1"/>
-    <col min="13" max="13" width="26.296875" customWidth="1"/>
-    <col min="14" max="14" width="28.296875" customWidth="1"/>
-    <col min="15" max="15" width="30.69921875" customWidth="1"/>
-    <col min="16" max="21" width="31.296875" customWidth="1"/>
-    <col min="22" max="22" width="30.69921875" customWidth="1"/>
-    <col min="23" max="23" width="34.296875" customWidth="1"/>
-    <col min="24" max="24" width="33.19921875" customWidth="1"/>
-    <col min="25" max="25" width="31.19921875" customWidth="1"/>
-    <col min="26" max="26" width="30.19921875" customWidth="1"/>
-    <col min="27" max="27" width="17.69921875" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="21" width="31.33203125" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" customWidth="1"/>
+    <col min="23" max="23" width="34.33203125" customWidth="1"/>
+    <col min="24" max="24" width="33.1640625" customWidth="1"/>
+    <col min="25" max="25" width="31.1640625" customWidth="1"/>
+    <col min="26" max="26" width="30.1640625" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5973,22 +5977,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" t="s">
         <v>433</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>434</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>435</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>436</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>437</v>
-      </c>
-      <c r="H1" t="s">
-        <v>438</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -6009,22 +6013,22 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
+        <v>438</v>
+      </c>
+      <c r="P1" t="s">
         <v>439</v>
       </c>
-      <c r="P1" t="s">
-        <v>440</v>
-      </c>
       <c r="Q1" t="s">
+        <v>567</v>
+      </c>
+      <c r="R1" t="s">
         <v>568</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>569</v>
       </c>
-      <c r="S1" t="s">
-        <v>570</v>
-      </c>
       <c r="T1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -6036,19 +6040,19 @@
         <v>26</v>
       </c>
       <c r="X1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y1" t="s">
         <v>31</v>
       </c>
       <c r="Z1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="312" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="340" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6056,46 +6060,46 @@
         <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -6103,392 +6107,392 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>459</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" ht="312" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="340" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="404" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="AA4" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="388" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="O5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="AA5" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="356" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="AA6" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6505,9 +6509,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6578,13 +6582,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>193</v>
@@ -6658,9 +6662,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6731,13 +6735,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6817,9 +6821,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6890,13 +6894,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>221</v>
@@ -6974,9 +6978,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7047,13 +7051,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7118,7 +7122,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7183,7 +7187,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7248,7 +7252,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9476CC7-2115-FF44-97CB-5294D4969EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F5A3B5-10D9-4392-AAA4-B8A480B41FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
     <sheet name="Gastrointestinal System" sheetId="5" r:id="rId2"/>
     <sheet name="Neurology" sheetId="4" r:id="rId3"/>
     <sheet name="Cardiovascular" sheetId="9" r:id="rId4"/>
-    <sheet name="Standarized Patient Scenarios" sheetId="2" r:id="rId5"/>
+    <sheet name="Standardized Patient Scenarios" sheetId="2" r:id="rId5"/>
     <sheet name="Endocrine System" sheetId="6" r:id="rId6"/>
     <sheet name="General Surgery" sheetId="3" r:id="rId7"/>
     <sheet name="Musculoskeletal" sheetId="8" r:id="rId8"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="723">
   <si>
     <t>Name</t>
   </si>
@@ -3810,6 +3810,999 @@
 Setting: Primary Care Clinic
 Insurance: Medicaid
 Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Diabetic Retinopathy</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Lata Devi
+Age: 62
+Gender: Female
+Ethnicity: South Asian (Indian)
+Language Preference: Hindi (limited English proficiency)
+Occupation: Retired schoolteacher
+Target Audience: Medical students and junior residents</t>
+  </si>
+  <si>
+    <t>“I can't see clearly anymore… it’s gotten worse over the last few months.”</t>
+  </si>
+  <si>
+    <t>Blood Pressure: 158/92 mmHg
+Heart Rate: 84 bpm
+Respiratory Rate: 16/min
+SpO₂: 98% on room air
+Temperature: 36.7°C
+BMI: 31.2 kg/m²</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus × 18 years
+Hypertension × 10 years
+Hyperlipidemia
+Cataract surgery (left eye) 3 years ago</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Amlodipine 10 mg daily
+Atorvastatin 40 mg daily
+Aspirin 75 mg daily (self-discontinued)</t>
+  </si>
+  <si>
+    <t>Lives alone; daughter overseas
+Missed last two ophthalmology appointments due to transport and language barriers
+Limited digital literacy (does not use patient portals)
+Non-smoker, does not consume alcohol</t>
+  </si>
+  <si>
+    <t>Brother with ESRD secondary to diabetes</t>
+  </si>
+  <si>
+    <t>HbA1c: 9.2%
+LDL-C: 142 mg/dL
+BUN/Cr: 22/1.3 mg/dL
+Fundoscopy (by non-mydriatic camera):
+Right Eye: Cotton wool spots, dot-and-blot hemorrhages, IRMA in 2 quadrants
+Left Eye: Neovascularization near optic disc, pre-retinal hemorrhage
+OCT Macula: Bilateral macular edema, worse in the left eye
+Fluorescein Angiography (pending in scenario): Non-perfusion zones, leakage at macula</t>
+  </si>
+  <si>
+    <t>Initially presents with blurry vision, especially in the left eye.
+Describes difficulty reading and frequent bumping into objects on her left side.
+As learners progress, they uncover advanced PDR with diabetic macular edema.
+Patient mentions she "stopped going" because “no one explained what the eye tests meant.”</t>
+  </si>
+  <si>
+    <t>Failure of previous care continuum (missed follow-up).
+Communication challenges due to language, health literacy.
+Deciding urgent vs. routine referral (to retina specialist).
+Determining whether the vision loss is reversible.
+Managing poorly controlled diabetes and its impact on progression.</t>
+  </si>
+  <si>
+    <t>Take a focused history on diabetes care and ophthalmologic symptoms.
+Interpret fundoscopy/OCT images (or simulated reports).
+Classify diabetic retinopathy severity.
+Prioritize referrals: ophthalmology (urgent), diabetes educator, social worker.
+Identify social barriers to follow-up and strategize solutions.
+Communicate plan empathetically using teach-back method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recognize proliferative diabetic retinopathy and diabetic macular edema
+Identify risk factors for progression and complications
+Refer urgently to ophthalmology for panretinal photocoagulation
+Recommend control of systemic factors (HbA1c, lipids, BP)
+Initiate patient education about retinopathy and follow-up needs
+Coordinate care with primary care, endocrinology, and social services
+Use an interpreter or medical translation service appropriately
+</t>
+  </si>
+  <si>
+    <t>Ophthalmologist (laser therapy decision-making)
+Endocrinologist (optimize metabolic control)
+Diabetes Educator/Nutritionist (counseling)
+Social Worker/Case Manager (transport, follow-up support)
+Interpreter Services (health communication)</t>
+  </si>
+  <si>
+    <t>How does language and health literacy impact chronic disease outcomes?
+What are the long-term complications of untreated proliferative diabetic retinopathy?
+When is intravitreal anti-VEGF preferred over laser therapy?
+How would you ensure this patient follows up appropriately?
+How do you adapt management for elderly patients with comorbidities and limited social support?</t>
+  </si>
+  <si>
+    <t>What was challenging in prioritizing the patient’s needs?
+Did you feel comfortable explaining complex ophthalmology findings in lay terms?
+What could be improved in the healthcare system to prevent this delay in care?
+How did interprofessional collaboration enhance the quality of care?</t>
+  </si>
+  <si>
+    <t>OSCE Format: Use standardized patient and fundus image interpretation.
+Virtual Simulation: Include telehealth encounter + shared imaging via EHR portal.
+In-classroom Case Review: Team-based learning; split learners into interprofessional roles.</t>
+  </si>
+  <si>
+    <t>Age-Related Macular Degeneration</t>
+  </si>
+  <si>
+    <t>Name: Mr. Howard Lin
+Age: 74
+Gender: Male
+Ethnicity: Chinese-American
+Language Preference: English (fluent, prefers simplified written materials)
+Setting: Outpatient Internal Medicine Clinic
+Target Audience: Senior medical students and junior ophthalmology or internal medicine residents</t>
+  </si>
+  <si>
+    <t>“I’ve noticed a dark patch in the middle of my vision. It started last week and hasn’t gone away.”</t>
+  </si>
+  <si>
+    <t>BP	146/84 mmHg
+HR	76 bpm
+RR	14/min
+Temp	36.8°C
+SpO₂	97% on room air
+BMI	26.4 kg/m²</t>
+  </si>
+  <si>
+    <t>Hypertension × 20 years
+Type 2 Diabetes Mellitus × 5 years (diet-controlled)
+Mild chronic kidney disease (Stage 2)
+Cataracts (surgically corrected 3 years ago)
+Hearing loss (wears hearing aid)</t>
+  </si>
+  <si>
+    <t>Amlodipine 10 mg daily
+Aspirin 81 mg daily
+Multivitamin (non-AREDS formulation)
+OTC Ginkgo Biloba (self-initiated for “memory and vision”)</t>
+  </si>
+  <si>
+    <t>Father had “vision loss in old age”
+Mother had glaucoma</t>
+  </si>
+  <si>
+    <t>Retired engineer; widowed
+Lives alone in a senior independent living community
+Smoked 1 pack/day for 25 years; quit at age 60
+Drinks green tea daily; no alcohol use
+Lacks a primary ophthalmologist and has not had an eye exam in 4 years</t>
+  </si>
+  <si>
+    <t>Fundoscopic Findings (simulated or described):
+Right Eye: Retinal hemorrhage near the macula, grayish-green subretinal lesion suggestive of choroidal neovascular membrane (CNVM)
+Left Eye: Drusen, pigment mottling, geographic atrophy
+Laboratory Results:
+HbA1c: 6.3%
+LDL: 132 mg/dL
+eGFR: 78 mL/min/1.73 m²
+OCT Results (for learners to interpret):
+Right Eye: Subretinal fluid, RPE elevation, hyperreflective lesion
+Left Eye: Thinned RPE, drusen deposits
+Fluorescein Angiography:
+(Pending or optional based on learner choices) Shows classic subfoveal CNVM with leakage</t>
+  </si>
+  <si>
+    <t>Reports recent-onset central visual distortion, especially when reading or recognizing faces
+Describes a “blurry black spot” in the center of his vision in the right eye, worsening over the past 7–10 days
+Notes that straight lines appear “wavy”
+No eye pain, discharge, or photophobia
+Learners will discover during the scenario that his left eye had dry ARMD diagnosed years ago</t>
+  </si>
+  <si>
+    <t>Differentiating wet vs. dry ARMD based on subtle clinical signs
+Avoiding premature reassurance in a seemingly “routine vision complaint”
+Understanding when to urgently refer to ophthalmology for anti-VEGF therapy
+Assessing modifiability of risk factors in an elderly patient
+Managing expectations and treatment burden in older adults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain a detailed ophthalmologic history including functional vision changes
+Perform or simulate fundoscopy and interpret provided OCT images
+Identify signs of exudative ARMD requiring urgent intervention
+Explain diagnosis and management in accessible terms (low health literacy, older adult)
+Arrange urgent referral to retina specialist for anti-VEGF injection
+Counsel on lifestyle and nutritional risk factors (AREDS-2 supplements)
+Coordinate care across specialties: internal medicine, ophthalmology, geriatrics
+</t>
+  </si>
+  <si>
+    <t>Recognize signs of exudative (wet) ARMD and initiate urgent referral.
+Discuss treatment options including anti-VEGF agents (ranibizumab, aflibercept, etc.).
+Counsel on dry ARMD in the other eye and use of AREDS-2 supplements.
+Review and optimize modifiable risk factors (BP, smoking, diet, eye care follow-up).
+Communicate clearly with an older adult using low-vision-appropriate materials.
+Involve interprofessional team to assist with care navigation and education.</t>
+  </si>
+  <si>
+    <t>Ophthalmologist/Retina Specialist (diagnosis confirmation, anti-VEGF injections)
+Geriatrician (comorbidity review and cognitive screening)
+Low Vision Rehabilitation Specialist (tools for remaining vision optimization)
+Pharmacist (review OTC supplement use, AREDS guidance)
+Dietitian (AREDS dietary recommendations: leafy greens, omega-3s)
+Social Worker/Case Manager (transportation, follow-up coordination)</t>
+  </si>
+  <si>
+    <t>What clues point toward wet vs. dry ARMD, and why is this distinction critical?
+How do anti-VEGF agents work, and what are the current guidelines for their use?
+What barriers do older adults face in accessing eye care, and how can we mitigate them?
+How can healthcare providers reduce misinformation from OTC “vision supplements”?
+How would this case differ if the patient had late-stage bilateral ARMD?</t>
+  </si>
+  <si>
+    <t>What made this case more complex than a typical vision complaint?
+How did you balance urgency vs. education in your patient interaction?
+Did you feel equipped to explain treatment options to someone unfamiliar with ophthalmology?
+What would you do if there was a delay in specialist access?
+What systems could help catch patients like Mr. Lin earlier?</t>
+  </si>
+  <si>
+    <t>OSCE format: Include a simulated patient + OCT interpretation station
+Virtual Simulation: Use telemedicine framework with uploaded fundus images
+In-Classroom: Problem-based learning session with breakout roles (PCP, retina, social work)</t>
+  </si>
+  <si>
+    <t>Khurana, A. K. (2007). Comprehensive ophthalmology (4th ed.). New Age International (P) Ltd., Publishers.</t>
+  </si>
+  <si>
+    <t>Chalazion</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Nuria Rahman
+Age: 66
+Gender: Female
+Ethnicity: Bangladeshi-American
+Language Preference: Fluent in English, occasional interpreter use for medical terms
+Setting: Community health center ophthalmology referral clinic
+Target Audience: Final-year medical students and first-year ophthalmology or internal medicine residents</t>
+  </si>
+  <si>
+    <t>“I’ve had this small lump on my eyelid for about three weeks. It doesn’t hurt, but it’s getting bigger.”</t>
+  </si>
+  <si>
+    <t>BP	138/88 mmHg
+HR	72 bpm
+RR	16/min
+Temp	36.9°C
+SpO₂	98% on room air
+BMI	31.2 kg/m²</t>
+  </si>
+  <si>
+    <t>Onset &amp; Duration: 3 weeks ago
+Symptoms: No pain, just swelling of the upper left eyelid; reports “heaviness” when reading
+Visual Disturbances: No loss of visual acuity but notes mild blurring of vision
+No discharge, no fever, no trauma</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus (diagnosed 12 years ago, suboptimally controlled)
+Hypertension
+Recurrent blepharitis (diagnosed 1 year ago)
+Hyperlipidemia</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Lisinopril 10 mg daily
+Atorvastatin 20 mg nightly
+Occasional use of artificial tears
+No recent antibiotics or steroids</t>
+  </si>
+  <si>
+    <t>Lives with extended family
+No alcohol or tobacco use
+Eats traditional South Asian diet high in carbohydrates and saturated fats
+Works as a school librarian (recently struggling with reading)</t>
+  </si>
+  <si>
+    <t>HbA1c: 8.4%
+Fasting Glucose: 168 mg/dL
+Lipid Panel: LDL 142, HDL 38, Triglycerides 180
+Visual Acuity: 20/20 OD, 20/40 OS
+Eyelid Eversion: Reveals firm, non-tender swelling on the conjunctival side of the left upper lid with a purplish hue, no discharge
+Fluorescein stain: Negative for corneal abrasion
+IOP: Within normal limits</t>
+  </si>
+  <si>
+    <t>The lesion began as a small lump; over two weeks it grew slowly. Patient denied pain, erythema, or systemic signs. She now reports slight pressure on her left eye and visual fatigue. She initially assumed it was a stye and treated it with warm compresses inconsistently.</t>
+  </si>
+  <si>
+    <t>Distinguishing chalazion from hordeolum, sebaceous carcinoma, or other lid masses
+Considering systemic associations (e.g., diabetes, recurrent blepharitis) as predisposing factors
+Evaluating when conservative management is sufficient versus when to escalate
+Recognizing red flag features (e.g., recurrence, age, eyelid distortion) that might warrant biopsy
+Addressing patient misconceptions and over-the-counter treatments that delay care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a focused ophthalmologic history and physical examination including eyelid eversion
+Accurately identify the lesion as chalazion
+Discuss management options including conservative care, intralesional steroid injection, and I&amp;C
+Recognize poor glycemic control and its contribution to recurrent lid inflammation
+Refer for ophthalmology follow-up for surgical curettage if unresolved in 2–4 weeks
+Educate the patient on eyelid hygiene, compliance with warm compresses, and diabetes control
+Consider rare but serious differentials like meibomian gland carcinoma in elderly patients
+</t>
+  </si>
+  <si>
+    <t>Differentiate chalazion from hordeolum or malignancy
+Examine inner eyelid (conjunctival side) and document lesion characteristics
+Counsel on conservative management: warm compresses, lid hygiene, diabetes control
+Discuss escalation: intralesional triamcinolone vs. incision &amp; curettage
+Recognize potential need for biopsy in recurrent or atypical lesions
+Coordinate care with PCP for metabolic control
+Refer for ophthalmologic evaluation within 2–4 weeks if unresolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmologist: Surgical management or intralesional steroid administration
+Primary Care Physician/Endocrinologist: Diabetes control, lipid optimization
+Pharmacist: Medication counseling (overuse of OTC drops, glycemic medications)
+Diabetes Educator/Nurse: Improve adherence, glucose monitoring
+Interpreter/Cultural Mediator (if needed): Address health literacy barriers
+</t>
+  </si>
+  <si>
+    <t>What are the differentiating features between a chalazion and an internal hordeolum?
+When should we suspect sebaceous carcinoma in a patient with recurrent chalazia?
+What role does glycemic control play in recurrent eyelid lesions?
+How do we approach patient education in culturally diverse, elderly populations?
+What are the risks and benefits of intralesional steroid use in eyelid lesions?</t>
+  </si>
+  <si>
+    <t>What made this case more than a “routine eyelid lump”?
+Did you feel comfortable identifying when to refer and when to reassure?
+What challenges did you encounter when balancing patient autonomy with clinical urgency?
+How can we empower primary care teams to detect eye pathology early?
+What biases might we have about “benign” eye lesions that could delay serious diagnoses?</t>
+  </si>
+  <si>
+    <t>OSCE Format: Station with simulated patient and fundoscopy/photos
+Virtual Simulation: Teleconsultation with image interpretation and management planning
+Classroom/PBL Session: Small group diagnostic reasoning with role-played team interactions</t>
+  </si>
+  <si>
+    <t>More Than Tears: A Diagnostic Challenge in Chronic Epiphora</t>
+  </si>
+  <si>
+    <t>Name: Mr. Elias Matovu
+Age: 72
+Gender: Male
+Ethnicity: Ugandan-born, lives in the U.S. for 30 years
+Language: Fluent in English
+Setting: Urban outpatient ophthalmology clinic
+Target Audience: Senior medical students and junior ophthalmology/internal medicine residents</t>
+  </si>
+  <si>
+    <t>“I’ve had constant tearing in my right eye for almost four months—it’s worse when I go outside.”</t>
+  </si>
+  <si>
+    <t>BP	128/76 mmHg
+HR	68 bpm
+RR	14/min
+Temp	36.7°C
+SpO₂	98% RA
+BMI	26.0 kg/m²</t>
+  </si>
+  <si>
+    <t>Gradual onset of right-sided tearing that worsens in wind or cold air
+Occasional blurry vision due to tear film over cornea
+No significant redness, itching, photophobia, or discharge
+Tried OTC antihistamine drops—no improvement
+Reports feeling a “fullness” near the inner corner of his right eye
+No known trauma, surgeries, or recent infections</t>
+  </si>
+  <si>
+    <t>Hypertension (well-controlled)
+Cataract surgery in left eye only, 2 years ago
+No known autoimmune diseases
+History of seasonal allergic rhinitis</t>
+  </si>
+  <si>
+    <t>Amlodipine 5 mg daily
+Lisinopril 10 mg daily
+Loratadine 10 mg PRN (in allergy season)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retired high school teacher
+Lives with spouse, independent in ADLs
+No smoking or alcohol use
+Walks daily, wears a scarf in cold months
+Moderate exposure to urban air pollution
+</t>
+  </si>
+  <si>
+    <t>Visual Acuity: 20/25 OU
+Slit lamp: Normal conjunctiva and cornea; mild lid laxity on right side
+Fluorescein Dye Disappearance Test (FDDT): Delayed clearance on right eye
+Regurgitation Test: Positive mucopurulent reflux from right lacrimal sac
+Syringing: No flow into nose, saline refluxes through opposite punctum
+Dacryocystography: Shows distal nasolacrimal duct obstruction
+Nasal endoscopy (ENT): Unremarkable findings, no intranasal mass</t>
+  </si>
+  <si>
+    <t>Now notes a mild swelling over the lacrimal sac area
+Occasional mucous strands on waking
+Becomes self-conscious in social situations due to visible tearing
+Worries it could be a sign of something “serious” like a tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiate hyperlacrimation from epiphora
+Rule out early dacryocystitis vs chronic mechanical obstruction
+Interpret diagnostic tests like FDDT, syringing, and imaging
+Assess need for surgical referral (e.g., DCR) vs conservative measures
+Address patient concerns empathetically while planning management
+Consider cultural and emotional aspects of chronic facial symptoms
+</t>
+  </si>
+  <si>
+    <t>Perform comprehensive ophthalmologic exam including lacrimal assessment
+Recognize signs of mechanical obstruction in lacrimal drainage
+Conduct appropriate diagnostic maneuvers (dye tests, regurgitation)
+Educate patient about dacryocystorhinostomy (DCR) and referral pathway
+Consider ENT collaboration to rule out nasal or sinus pathology
+Engage in shared decision-making regarding surgical vs. conservative options
+Provide culturally competent reassurance and psychosocial support</t>
+  </si>
+  <si>
+    <t>Identify epiphora (obstructive tearing) vs hyperlacrimation
+Conduct and interpret fluorescein dye test and regurgitation test
+Accurately localize site of obstruction (infer nasolacrimal duct block)
+Counsel patient regarding DCR surgery including risks/benefits
+Coordinate ENT or oculoplastic surgery referral
+Address emotional distress due to visible symptoms
+Document findings and communication appropriately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oculoplastic Surgeon: Evaluate for DCR or endonasal DCR
+ENT Specialist: Exclude intranasal pathology contributing to obstruction
+Primary Care Physician: Monitor systemic health (e.g., blood pressure)
+Ophthalmic Nurse/Technician: Assist with dye tests, irrigation, and patient education
+Cultural Liaison/Interpreter (if needed): Address concerns from non-Western health perspectives
+</t>
+  </si>
+  <si>
+    <t>How can you differentiate between epiphora and reflex tearing clinically?
+What are the key findings on regurgitation and syringing that localize a block?
+What are the indications for dacryocystorhinostomy in adults?
+How might cultural perspectives on visible eye symptoms affect care-seeking behavior?
+How would your management differ if this patient were immunosuppressed or had diabetes?</t>
+  </si>
+  <si>
+    <t>What diagnostic step helped you most in localizing the obstruction?
+How confident were you in interpreting the dye disappearance and syringing tests?
+What role did interprofessional consultation play in your final plan?
+Did anything about the patient's cultural background or communication style challenge your approach?
+How might you approach a similar case in a resource-limited setting?</t>
+  </si>
+  <si>
+    <t>OSCE Station: Includes standardized patient, dye testing props, photos/videos of lacrimal anatomy
+Virtual Case: Asynchronous online discussion with built-in “investigation” choices and branching logic
+Classroom Use: PBL format with evolving case folders (e.g., “Week 1 – Tearing starts”; “Week 3 – new fullness”; etc.)</t>
+  </si>
+  <si>
+    <t>Pseudomembranous conjunctivitis</t>
+  </si>
+  <si>
+    <t>Name: Mr. Javed Khan
+Age: 37
+Gender: Male
+Ethnicity: South Asian (cultural nuances in healthcare-seeking behavior, potential antibiotic use, and trust in traditional vs. modern medicine)
+Occupation: Delivery driver
+Language: Fluent in English; prefers simple explanations                          Target Audience: Medical Students (Senior Year), Residents (PGY1–2)</t>
+  </si>
+  <si>
+    <t>“My eye’s been red and gooey for three days, and now there’s this white stuff sticking to it.”</t>
+  </si>
+  <si>
+    <t>Temperature	38.1°C
+Heart Rate	92 bpm
+Respiratory Rate	16 breaths/min
+Blood Pressure	124/78 mmHg
+SpO₂	98% on room air</t>
+  </si>
+  <si>
+    <t>Mr. Khan reports redness and mild eye pain in the right eye for 3 days, worsening since yesterday. He noticed thick yellowish discharge, increasing tearing, and something “white and stuck” on the inside of his eyelid. He denies any trauma, but admits he rubbed his eyes frequently. He’s been using over-the-counter lubricating drops.
+He also reports photophobia and mild blurred vision. No double vision, systemic rash, or URI symptoms. No known contact with ill individuals but recently delivered packages to a daycare</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus, poorly controlled (last HbA1c: 9.1%)
+Chronic allergic rhinitis
+No prior eye surgeries or known eye disease</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Loratadine PRN</t>
+  </si>
+  <si>
+    <t>Lives with wife and two children
+Non-smoker, drinks occasionally
+No recreational drug use
+Recently increased screen time due to GPS-based work</t>
+  </si>
+  <si>
+    <t>Rapid blood glucose: 198 mg/dL
+Visual acuity (Snellen): OD 20/40, OS 20/20
+Fluorescein stain: Negative for corneal abrasion or ulcer
+Eversion of eyelid: Thin, yellowish-white plaque-like pseudomembrane visible on palpebral conjunctiva
+Membrane peeled: No bleeding underneath
+Conjunctival swab: Sent for Gram stain and culture
+No preauricular lymphadenopathy</t>
+  </si>
+  <si>
+    <t>Differentiating between bacterial, viral, and chemical causes of pseudomembranous conjunctivitis
+Determining when to escalate care to ophthalmology
+Evaluating the need for antibiotics vs. supportive care
+Considering impact of underlying diabetes on eye infections
+Identifying public health risk if contagious etiology is suspected</t>
+  </si>
+  <si>
+    <t>Conduct focused ophthalmic history and examination
+Perform eyelid eversion and identify pseudomembrane
+Develop a differential diagnosis for pseudomembranous conjunctivitis
+Initiate appropriate empiric management (topical antibiotics, hygiene education)
+Decide when to refer or consult ophthalmology
+Address infection control and educate on avoiding transmission
+Communicate findings clearly with nursing and interprofessional team</t>
+  </si>
+  <si>
+    <t>Performs eye exam including lid eversion
+Identifies presence of pseudomembrane
+Orders or interprets culture appropriately
+Considers empirical topical antibiotic (e.g., moxifloxacin)
+Educates patient on hygiene and transmission risks
+Recognizes need to monitor due to diabetes and healing impairment
+Communicates findings and management plan with nursing and supervising physician</t>
+  </si>
+  <si>
+    <t>Nursing: Assist with membrane removal and eye irrigation
+Pharmacy: Discuss safe topical antibiotic use and side effects
+Public Health Team (optional extension): If a reportable infection is suspected (e.g., diphtheria or gonococcal conjunctivitis)</t>
+  </si>
+  <si>
+    <t>What were the key features that distinguished pseudomembranous conjunctivitis from other types?
+How might Mr. Khan’s diabetes complicate his ocular condition?
+What are the infection control considerations in a community setting?
+How did you approach communication with the patient regarding potentially sensitive cultural beliefs about eye health and treatment?</t>
+  </si>
+  <si>
+    <t>How do you decide when a conjunctivitis case requires culture or specialist referral?
+What are the systemic complications of ocular infections in diabetic patients?
+How can clinicians balance antibiotic stewardship with empirical treatment needs in eye infections?</t>
+  </si>
+  <si>
+    <t>OSCE: Simulated patient with removable eyelid membrane (prosthetic or makeup)
+Virtual Simulation: High-resolution eye images + branching dialogue
+Classroom Role-Play: Assign student roles (resident, nurse, ophthalmologist, patient)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Case of Ophthalmia Neonatorum in a Resource-Constrained Urban Clinic</t>
+  </si>
+  <si>
+    <t>Name: Baby Amina
+Age: 6 days
+Sex: Female
+Ethnicity: Somali (important for understanding healthcare access, cultural competence, and language barriers)
+Presenting Location: Urban Community Health Center in a low-resource setting</t>
+  </si>
+  <si>
+    <t>“My baby’s eyes are red and have yellow discharge since yesterday morning.”</t>
+  </si>
+  <si>
+    <t>Temperature: 37.8°C
+Heart Rate: 148 bpm
+Respiratory Rate: 42 breaths/min
+Oxygen Saturation: 98% on room air
+Weight: 3.1 kg
+Appearance: Mild irritability, active movement, feeding adequately</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (of mother)
+Gravida 3 Para 2, uneventful antenatal period until late 3rd trimester
+History of abnormal vaginal discharge in third trimester, not investigated or treated
+No documented STI screening in prenatal record
+Delivered vaginally at home with assistance from a traditional birth attendant
+No intrapartum antibiotic prophylaxis or prophylactic ocular treatment administered postpartum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Infant)
+None
+</t>
+  </si>
+  <si>
+    <t>None known</t>
+  </si>
+  <si>
+    <t>Lives with mother and grandmother in a crowded apartment
+Limited access to formal prenatal care due to immigration and financial barriers
+Language barrier: mother speaks only Somali (requires interpreter)
+No consistent follow-up with pediatric care since birth</t>
+  </si>
+  <si>
+    <t>Work-Up Ordered (available during simulation)
+Conjunctival swab for Gram stain and culture
+Polymerase Chain Reaction (PCR) testing for Chlamydia trachomatis and Neisseria gonorrhoeae
+Complete Blood Count (CBC)
+C-reactive Protein (CRP)
+Photographic image of affected eye(s) (mucopurulent discharge, bilateral conjunctival injection, eyelid edema)</t>
+  </si>
+  <si>
+    <t>On examination, the neonate has bilateral conjunctival injection, mucopurulent discharge, eyelid edema, and mild chemosis. There are no visible corneal opacities or ulcers. The conjunctival Gram stain shows intracellular gram-negative diplococci. PCR is pending but will later confirm Neisseria gonorrhoeae.</t>
+  </si>
+  <si>
+    <t>Differentiate types of neonatal conjunctivitis based on onset, appearance, and risk factors.
+Decide urgency of treatment before definitive culture results return.
+Select empiric treatment that covers both N. gonorrhoeae and Chlamydia trachomatis.
+Understand public health and ethical implications of untreated maternal STIs.
+Communicate with a non-English-speaking caregiver using appropriate interpreter services.
+Balance resource limitations with best practices (e.g., in availability of IV meds or lab testing).</t>
+  </si>
+  <si>
+    <t>Take a focused history from the mother, using an interpreter
+Conduct a thorough neonatal ocular and systemic exam
+Generate a differential diagnosis for neonatal conjunctivitis
+Initiate empiric antibiotic treatment without awaiting culture
+Order appropriate diagnostic testing
+Educate and counsel mother on the diagnosis, treatment plan, and maternal implications
+Notify public health authorities if required (per local STI reporting laws)
+Plan for follow-up and assess risk to future siblings</t>
+  </si>
+  <si>
+    <t>Identify the need for urgent antibiotic therapy
+ Initiate empiric systemic ceftriaxone IM/IV (50 mg/kg, max 125 mg)
+ Begin saline eye irrigation and topical bacitracin or erythromycin
+ Counsel family using an interpreter
+ Notify pediatric infectious disease team (or simulate consultation)
+ Discuss prophylaxis for other newborns in similar settings
+ Provide STI referral for the mother and her partner(s)</t>
+  </si>
+  <si>
+    <t>Nursing: Assisting with eye irrigation and administering IV medications
+Pharmacy: Advising on dosing and availability of pediatric formulations
+Public health liaison: Reporting maternal STI and arranging follow-up
+Interpreter services: Facilitating culturally competent care
+Social work: Addressing healthcare access, immigration status, and follow-up challenges</t>
+  </si>
+  <si>
+    <t>What is the most likely diagnosis and how do you prioritize your differential?
+How does the timing of symptoms help in differentiating etiology (chemical vs bacterial vs viral)?
+What are the systemic implications of gonococcal infection in neonates?
+Why is it essential to treat empirically before PCR or culture results are available?
+How do you ensure maternal and partner treatment to prevent recurrence?
+What barriers might this family face in accessing follow-up care, and how can your team address them?</t>
+  </si>
+  <si>
+    <t>How confident were you in distinguishing types of neonatal conjunctivitis?
+Did anything about the social context affect your decision-making?
+How did the language barrier and lack of prenatal care complicate the case?
+What public health measures can reduce the incidence of ophthalmia neonatorum?
+Reflect on the ethical responsibility of ensuring maternal treatment and follow-up.</t>
+  </si>
+  <si>
+    <t>OSCE Station: Focus on history-taking and decision to treat empirically
+Classroom Discussion: Emphasize clinical reasoning and public health integration
+Virtual Simulation: Include interactive lab result reveals, voice-to-text interpreter role, and escalating symptoms (e.g., corneal opacity risk)</t>
+  </si>
+  <si>
+    <t>Managing a Vision-Threatening Pterygium in a Migrant Agricultural Worker</t>
+  </si>
+  <si>
+    <t>Name: Mr. Pedro Alvarez
+Age: 42
+Gender: Male
+Ethnicity: Hispanic (Mexican origin)
+Language: Spanish-speaking, limited English
+Occupation: Seasonal agricultural worker in California
+Insurance: Uninsured
+Living Conditions: Lives in shared temporary housing with poor ventilation and limited access to health resources
+Target Audience: Senior medical students and first-year residents (IM, FM, Ophthalmology)</t>
+  </si>
+  <si>
+    <t>Mr. Alvarez presents to the free community clinic with progressive irritation, redness, and blurred vision in his right eye over the past 6 months. He reports increasing difficulty focusing, especially during outdoor work in sunlight.</t>
+  </si>
+  <si>
+    <t>Temperature: 36.8°C
+HR: 74 bpm
+BP: 128/82 mmHg
+RR: 14
+SpO₂: 98% on room air
+BMI: 24.1</t>
+  </si>
+  <si>
+    <t>No known chronic medical conditions
+Never had a formal eye exam
+No previous surgeries</t>
+  </si>
+  <si>
+    <t>Smokes 1–2 cigarettes/day (10 pack-years)
+Occasional alcohol use
+Works 12–14 hours daily outdoors without eye protection
+Lives in a crowded bunkhouse with limited hygiene
+No regular primary care follow-up</t>
+  </si>
+  <si>
+    <t>Visual acuity: 20/70 OD, 20/20 OS
+Slit-lamp exam: Nasal wing-shaped fibrovascular growth encroaching &gt;2 mm onto the cornea of the right eye
+Stocker’s line visible ahead of the advancing edge
+Mild induced astigmatism noted on refraction
+Fluorescein staining: No corneal ulceration or active keratitis
+B-scan and OCT: Normal posterior segment findings</t>
+  </si>
+  <si>
+    <t>Differentiating between pterygium and pseudopterygium
+Determining indication for surgical referral vs. conservative management
+Cultural and language barriers in obtaining history and ensuring follow-up
+Understanding recurrence risks and patient education needs in a low-resource setting</t>
+  </si>
+  <si>
+    <t>Conduct a thorough ocular history and physical exam
+Accurately identify pterygium (and rule out pseudopterygium)
+Discuss modifiable environmental risk factors
+Develop a management plan: lubrication, sunglasses, and referral for surgery
+Navigate the challenges of communicating with a Spanish-speaking patient with limited access to care
+Coordinate with social work, case management, and ophthalmology services
+Discuss occupational health and preventive strategies
+Explain the risks of recurrence and surgical options, including conjunctival autografting</t>
+  </si>
+  <si>
+    <t>Recognize and document pterygium with accurate anatomical description
+Differentiate from pseudopterygium using clinical reasoning and history
+Evaluate impact on vision and quality of life
+Identify surgical indications
+Arrange appropriate specialty referral
+Communicate respectfully and effectively with non-English-speaking patient (with interpreter if needed)
+Discuss preventive measures: UV protection, eye hygiene
+Consider barriers to follow-up and treatment access
+Engage interprofessional team to assist with uninsured care pathway</t>
+  </si>
+  <si>
+    <t>Interpreter Services: Spanish interpreter for accurate history and patient education
+Ophthalmology: Referral for surgical consultation
+Social Worker: Assess for transportation, legal support, and healthcare access
+Case Management: Connect patient to community resources for follow-up and affordable surgical care
+Occupational Health Nurse: Coordinate UV protection education and work safety discussion with employer</t>
+  </si>
+  <si>
+    <t>What features distinguish a progressive pterygium from a regressive one?
+How can social determinants of health influence management decisions in this case?
+What are the barriers to accessing ophthalmologic care in underserved populations?
+What can be done at the systems level to reduce occupational risk for conditions like pterygium?
+How do we mitigate recurrence post-surgery, and how do we counsel patients accordingly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect on how you adapted your clinical communication to overcome language and cultural barriers.
+What biases or assumptions might affect care in a case like this?
+Discuss how you balanced the need for definitive care (surgery) with the patient's socioeconomic limitations.
+How might interprofessional collaboration improve both patient outcomes and learner understanding?
+In what ways did this case challenge your clinical reasoning or ethical decision-making?
+</t>
+  </si>
+  <si>
+    <t>Standardized Patient OSCE: Focus on communication, history-taking, and clinical reasoning
+Virtual Simulation: Use virtual slit lamp findings and interactive decision trees
+In-Class Role Play: Involve learners in interprofessional scenarios
+Team-Based Learning Module: Include multidisciplinary care planning</t>
+  </si>
+  <si>
+    <t>Systemic Clues in Episcleritis</t>
+  </si>
+  <si>
+    <t>Name: Ms. Nadia Karim
+Age: 28
+Gender: Female
+Ethnicity: Middle Eastern
+Setting: Outpatient Ophthalmology Clinic         Medical Students (Clinical Years)
+Junior Residents (PGY-1 to PGY-2)</t>
+  </si>
+  <si>
+    <t>“I’ve had redness in my left eye for the past three days. It feels a little gritty, but it’s not painful.”</t>
+  </si>
+  <si>
+    <t>Temperature	37.2°C
+Heart Rate	78 bpm
+Blood Pressure	118/76 mmHg
+Respiratory Rate	14/min
+SpO₂	99% RA</t>
+  </si>
+  <si>
+    <t>Mild acne rosacea (diagnosed 2 years ago)
+Recurrent oral ulcers, occasionally genital ulcers (patient has not previously reported them together)</t>
+  </si>
+  <si>
+    <t>Topical metronidazole gel for rosacea
+Combined oral contraceptive pill</t>
+  </si>
+  <si>
+    <t>Works as a paralegal
+No smoking or alcohol use
+Immigrated from Lebanon 5 years ago
+No recent travel or trauma</t>
+  </si>
+  <si>
+    <t>Initially thought it was just “eye strain.”
+No purulent discharge or photophobia
+Feels better with cold compresses
+Woke up with more localized redness this morning</t>
+  </si>
+  <si>
+    <t>Visual acuity: 20/20 both eyes
+Inspection: Localized sectoral redness in the temporal quadrant of the left eye
+Palpation: Mild tenderness over the nodule 2–3 mm from the limbus
+Slit lamp: Normal cornea, no anterior chamber reaction, normal intraocular pressure
+Conjunctiva: Freely mobile over the nodule
+No posterior segment findings</t>
+  </si>
+  <si>
+    <t>Distinguishing between episcleritis vs. scleritis
+Recognizing possible systemic associations in a young female
+Deciding on when to refer to other specialties (e.g., rheumatology, dermatology)
+Identifying red flags that warrant more than symptomatic treatment
+Communicating diagnostic uncertainty and next steps with the patient
+Cultural competence in exploring underreported symptoms (genital ulcers)</t>
+  </si>
+  <si>
+    <t>Perform a focused ocular and systemic history
+Conduct an accurate ocular exam
+Differentiate episcleritis vs. scleritis clinically
+Identify systemic signs pointing to Behçet’s disease
+Order relevant labs for autoimmune/systemic associations
+Prescribe appropriate first-line management (topical corticosteroids or NSAIDs)
+Recognize the need for rheumatology referral
+Provide patient-centered education and reassurance</t>
+  </si>
+  <si>
+    <t>Elicits systemic symptoms (oral/genital ulcers, joint pain)	
+Performs focused ocular exam and distinguishes episcleritis
+Orders inflammatory markers (CRP/ESR), autoimmune panel
+Considers Behçet’s syndrome in differential diagnosis
+Prescribes topical NSAIDs or corticosteroids
+Coordinates rheumatology referral
+Documents findings and communicates plan clearly</t>
+  </si>
+  <si>
+    <t>Rheumatology: For workup and long-term management of suspected Behçet’s
+Pharmacy: For discussing NSAID vs. corticosteroid topical therapy options
+Primary Care: For ongoing systemic monitoring
+Nursing/Ophthalmic Assistant: For patient education and follow-up scheduling</t>
+  </si>
+  <si>
+    <t>What distinguishes episcleritis from scleritis clinically and diagnostically?
+How would your management change if the patient had vision loss or severe pain?
+What systemic diseases are commonly associated with episcleritis?
+How do you address culturally sensitive topics like genital ulcers during history taking?
+What is the role of interprofessional teams in managing this patient long-term?</t>
+  </si>
+  <si>
+    <t>“What clues helped you suspect this was more than a simple eye complaint?”
+“How confident were you in distinguishing episcleritis from scleritis?”
+“What could be the consequences of missing systemic disease in this patient?”
+“How did you approach discussing sensitive symptoms with this patient?”
+“What could be improved in your diagnostic or communication approach?”</t>
+  </si>
+  <si>
+    <t>Virtual Simulation: Patient is presented via standardized patient video or virtual case file
+OSCE Format: 10-minute history + 5-minute focused exam + post-station reflection
+Classroom Teaching: Small group discussion or flipped classroom with differential-building</t>
+  </si>
+  <si>
+    <t>A Multisystem Challenge in a Patient with a Diabetic Foot Ulcer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Mr. Rakesh Kumar
+Age: 58
+Gender: Male
+Ethnicity: South Asian (Indian)
+Language: Hindi (limited English proficiency)
+Interpreter Needed: Yes
+Occupation: Retired factory worker
+Insurance: Public health scheme; limited access to specialized care          Target Audience
+Medical Students and Junior Residents (Internal Medicine, Surgery, Family Medicine)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I have a wound on my foot that isn't healing, and it's starting to smell."
+</t>
+  </si>
+  <si>
+    <t>Temperature: 38.3°C
+Heart Rate: 104 bpm
+Blood Pressure: 146/90 mmHg
+Respiratory Rate: 20/min
+SpO₂: 96% on room air
+Blood Glucose (Random): 326 mg/dL</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus × 16 years
+Hypertension × 8 years
+Hyperlipidemia
+Past amputation of right second toe (3 years ago)
+Chronic diabetic peripheral neuropathy</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Amlodipine 5 mg daily
+Atorvastatin 20 mg nightly
+Aspirin 81 mg daily (self-initiated, not prescribed)</t>
+  </si>
+  <si>
+    <t>Lives with wife in a rural area
+Walks barefoot at home
+Smoker (10 pack-years), quit 2 years ago
+Diet high in refined carbs, poor adherence to diabetic diet
+Limited transportation access to specialty care
+Reluctant to attend follow-ups due to cost and travel</t>
+  </si>
+  <si>
+    <t>Inspection: 3 cm × 4 cm ulcer over the plantar surface near the first metatarsal head, surrounded by erythema and edema
+Discharge: Purulent, foul-smelling
+Sensation: Diminished to 10g monofilament and vibration
+Pulses: Diminished dorsalis pedis and posterior tibial pulse bilaterally
+Skin: Dry, flaky; fissures at heels
+Gait: Antalgic
+Cardiopulmonary Exam: Unremarkable
+Neurologic Exam: Bilateral lower limb sensory deficits (stocking distribution)</t>
+  </si>
+  <si>
+    <t>Mr. Kumar presents with a non-healing ulcer over the plantar aspect of his left foot, first noticed 3 weeks ago after stepping on a small rock while walking barefoot. Initially painless, he ignored it. Over the past week, he reports malodor, mild swelling, and darkening of skin around the area. His wife reports he has become more fatigued, slightly confused, and is "not himself."</t>
+  </si>
+  <si>
+    <t>CBC: WBC 15,800/mm³, Hb 10.5 g/dL
+CRP: Elevated
+HbA1c: 9.6%
+Serum creatinine: 1.6 mg/dL
+Urinalysis: No ketones
+Foot X-ray: Periosteal reaction at 1st metatarsal base, consistent with possible osteomyelitis
+Wound Culture: Pending
+Ankle-Brachial Index (ABI): 0.65 (moderate PAD)
+Duplex Doppler: Reduced flow in anterior tibial and peroneal arteries</t>
+  </si>
+  <si>
+    <t>Subtle signs of systemic infection vs. early sepsis in a poorly controlled diabetic patient
+Diagnosis and staging of diabetic foot ulcer (Modified Wagner Grade 3)
+Distinguishing cellulitis vs. deep tissue infection vs. osteomyelitis
+Assessing peripheral vascular disease and surgical candidacy
+Interpreting vascular studies in diabetic patients with incompressible arteries</t>
+  </si>
+  <si>
+    <t>Perform a focused history and foot exam
+Identify red flags for systemic infection and sepsis
+Order appropriate imaging and labs (X-ray, CBC, cultures, ABI)
+Initiate empiric broad-spectrum antibiotics
+Escalate insulin therapy and discontinue oral hypoglycemics if needed
+Consult vascular surgery and infectious disease
+Counsel the patient and family on foot care and diabetes management</t>
+  </si>
+  <si>
+    <t>Conduct monofilament test and detailed foot exam
+Recognize potential osteomyelitis and order imaging
+Initiate IV antibiotics based on likely polymicrobial infection
+Start insulin for better glucose control
+Request vascular and ID consultations
+Discuss offloading, wound care, and need for possible debridement
+Address cultural/language barriers using interpreter</t>
+  </si>
+  <si>
+    <t>Nursing: Wound care, dressing changes, patient education
+Pharmacist: Antibiotic stewardship, insulin education
+Podiatrist: Pressure offloading and surgical planning
+Vascular Surgeon: Assessment for revascularization
+Dietitian: Nutritional counseling for glycemic control
+Social Worker: Address transportation, affordability, and access issues</t>
+  </si>
+  <si>
+    <t>What factors contributed to the development of this ulcer?
+How would you approach the management of this patient’s hyperglycemia acutely and long-term?
+What are the red flags for deep tissue infection or sepsis in diabetic foot ulcers?
+When is imaging for osteomyelitis indicated?
+How can language and cultural barriers affect outcomes in chronic disease management?</t>
+  </si>
+  <si>
+    <t>Cognitive: What biases might delay recognition of a serious infection in a diabetic foot?
+Technical: What mistakes could be made in interpreting vascular studies in diabetics?
+Systems-based: How does limited access to care affect patient outcomes?
+Communication: How could you improve counseling on foot care for someone with limited health literacy?
+Reflective: How did this case challenge your assumptions about diabetes complications?</t>
+  </si>
+  <si>
+    <t>Classroom Roleplay: Split learners into interprofessional teams to discuss the care plan
+OSCE Format: Focused physical exam, interpretation of imaging, management planning
+Virtual Simulation: Case-based branching scenario with evolving symptoms and labs</t>
   </si>
 </sst>
 </file>
@@ -4202,18 +5195,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E725C-360B-4F4B-B7BA-A4989DAE5406}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.125" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="21.75" customWidth="1"/>
+    <col min="11" max="11" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="28.375" customWidth="1"/>
+    <col min="16" max="16" width="23.25" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="18" width="22.25" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="22.875" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4290,7 +5303,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4354,6 +5367,472 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>705</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4368,9 +5847,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4447,7 +5926,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4514,7 +5993,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4581,7 +6060,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4648,7 +6127,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4726,13 +6205,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4809,7 +6291,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4885,13 +6367,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724E7B9-119E-994A-99A2-8337FA3C7903}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +6450,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5031,7 +6513,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5096,7 +6578,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5161,7 +6643,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5233,16 +6715,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B54550-1027-A346-8C59-DB22363484BB}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="68.1640625" customWidth="1"/>
+    <col min="3" max="3" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5319,7 +6801,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5386,7 +6868,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5451,7 +6933,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5518,7 +7000,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5583,7 +7065,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5648,7 +7130,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5711,7 +7193,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5785,11 +7267,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8336F802-8259-704E-9519-29D197B8309B}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5866,7 +7348,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5940,36 +7422,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF53FD-24A2-40A8-9AFC-21FD8ED25B63}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="21" width="31.33203125" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="34.33203125" customWidth="1"/>
-    <col min="24" max="24" width="33.1640625" customWidth="1"/>
-    <col min="25" max="25" width="31.1640625" customWidth="1"/>
-    <col min="26" max="26" width="30.1640625" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="28.125" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="26.375" customWidth="1"/>
+    <col min="14" max="14" width="28.375" customWidth="1"/>
+    <col min="15" max="15" width="30.625" customWidth="1"/>
+    <col min="16" max="21" width="31.375" customWidth="1"/>
+    <col min="22" max="22" width="30.625" customWidth="1"/>
+    <col min="23" max="23" width="34.375" customWidth="1"/>
+    <col min="24" max="24" width="33.125" customWidth="1"/>
+    <col min="25" max="25" width="31.125" customWidth="1"/>
+    <col min="26" max="26" width="30.125" customWidth="1"/>
+    <col min="27" max="27" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +7534,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="340" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6119,7 +7601,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="340" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6196,7 +7678,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="404" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6270,7 +7752,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="388" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6344,7 +7826,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="356" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6421,7 +7903,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6505,13 +7987,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE08A7-3E9C-A245-8CE2-0A677D50A320}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6588,7 +8073,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6656,15 +8141,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAE955D-550C-514F-9B20-E1EAD28E083B}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="21.375" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="22.25" customWidth="1"/>
+    <col min="17" max="17" width="24.375" customWidth="1"/>
+    <col min="18" max="18" width="22.25" customWidth="1"/>
+    <col min="19" max="19" width="17.25" customWidth="1"/>
+    <col min="20" max="20" width="22.375" customWidth="1"/>
+    <col min="21" max="21" width="31.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6741,7 +8248,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6807,6 +8314,65 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>722</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6817,13 +8383,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD078BD-32DA-0A4F-9EA7-7DEC84E425BD}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6900,7 +8466,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6978,9 +8544,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7057,7 +8623,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7122,7 +8688,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7187,7 +8753,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7252,7 +8818,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F5A3B5-10D9-4392-AAA4-B8A480B41FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{39F5A3B5-10D9-4392-AAA4-B8A480B41FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA455F0A-2BD4-4881-B019-8123B0476EBE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="907">
   <si>
     <t>Name</t>
   </si>
@@ -4803,6 +4803,1332 @@
     <t>Classroom Roleplay: Split learners into interprofessional teams to discuss the care plan
 OSCE Format: Focused physical exam, interpretation of imaging, management planning
 Virtual Simulation: Case-based branching scenario with evolving symptoms and labs</t>
+  </si>
+  <si>
+    <t>A Case of Crusted Scabies in a Vulnerable Adult</t>
+  </si>
+  <si>
+    <t>Name: Mr. Francisco Ortega
+Age: 56
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: Spanish (requiring interpreter services)
+Occupation: Former construction worker; currently unemployed
+Living Situation: Transitional housing shelter for unhoused individuals</t>
+  </si>
+  <si>
+    <t>Temp: 37.1°C (98.8°F)
+HR: 88 bpm
+BP: 122/76 mmHg
+RR: 16 breaths/min
+SpO₂: 98% on room air</t>
+  </si>
+  <si>
+    <t>"Unbearable itching, especially at night" – patient reports persistent rash and discomfort for the past 3 weeks.</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus (poorly controlled; last A1C 9.2%)
+Chronic alcohol use disorder (currently abstinent × 2 months)
+Depression
+History of untreated latent tuberculosis (LTBI)</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Sertraline 50 mg daily
+Multivitamin (shelter-provided)</t>
+  </si>
+  <si>
+    <t>Former smoker (quit 1 year ago)
+Occasional alcohol use until recent abstinence
+No drug use
+No regular primary care follow-up
+Recently entered a shelter system after 9 months of being unhoused</t>
+  </si>
+  <si>
+    <t>CBC: Mild eosinophilia (eosinophils 8%)
+CMP: Within normal limits
+HbA1c: 9.1%
+HIV Rapid Test: Negative
+Skin Scraping (performed later): Multiple live mites and fecal pellets observed under microscopy
+Dermatoscopy: Shows classic "jet with contrail" burrow appearance
+Skin biopsy (pending)</t>
+  </si>
+  <si>
+    <t>The patient presents with:
+Widespread thickened, scaly plaques over the torso, hands, feet, scalp, and back.
+Intensely pruritic rash, particularly affecting interdigital spaces and wrists.
+A history of scratching lesions, secondary impetiginization suspected.
+Roommate at the shelter reportedly also scratching excessively.</t>
+  </si>
+  <si>
+    <t>Differentiating between atopic dermatitis, contact dermatitis, psoriasis, and scabies in an immunocompromised setting.
+Recognizing Norwegian (crusted) scabies, a less common but highly contagious form, especially in immunosuppressed or socially vulnerable populations.
+Deciding when to initiate isolation precautions and notify public health authorities.
+Balancing treatment efficacy with access, follow-up challenges, and comorbid conditions (diabetes, poor hygiene, risk of bacterial superinfection).</t>
+  </si>
+  <si>
+    <t>Elicit a thorough dermatologic and social history, noting risk factors for communicable skin diseases.
+Perform focused skin examination and document distribution and morphology of lesions.
+Order appropriate diagnostic tests, including skin scraping and dermatoscopy.
+Initiate empiric treatment for crusted scabies using ivermectin and topical permethrin.
+Coordinate interprofessional care, including:
+Interpreter services for language-concordant communication.
+Dermatology consult.
+Social work to ensure shelter-wide prophylaxis and hygiene resources.
+Public health notification and infection control team.
+Educate patient on hygiene, transmission, and the importance of follow-up and treatment adherence.
+Evaluate need for antibiotics for possible secondary bacterial infection.</t>
+  </si>
+  <si>
+    <t>Recognize crusted scabies as a medical urgency due to contagiousness
+Order and interpret skin scraping and dermatoscopy
+Start ivermectin and topical permethrin appropriately
+Initiate contact precautions and notify shelter staff
+Coordinate treatment for close contacts
+Address social determinants of health affecting follow-up and hygiene
+Document in a clear, culturally sensitive, and accessible way</t>
+  </si>
+  <si>
+    <t>Dermatology: For confirmation and management guidance
+Infection Control/Public Health: For contact tracing and community mitigation
+Social Work &amp; Shelter Outreach Team: For mass treatment coordination, education, and hygiene kit distribution
+Pharmacy: To ensure medication access and dosing education
+Interpreter Services: To enable patient understanding and consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What features distinguish crusted scabies from classic scabies and psoriasis?
+How does socioeconomic status affect dermatologic disease progression and access to care?
+What are the public health implications of a scabies outbreak in a shelter setting?
+What are the barriers to successful treatment and prevention in transient or unhoused populations?
+How can clinicians advocate for health equity in vulnerable populations with infectious diseases?
+</t>
+  </si>
+  <si>
+    <t>What biases might influence the clinical care of someone experiencing homelessness or housing insecurity?
+Discuss how cultural competence influenced your patient communication today.
+What did you find challenging about diagnosing a dermatologic disease based on physical findings alone?
+Reflect on your communication with other healthcare professionals—what worked well, and what could be improved?
+How would you adapt this case in a rural or resource-limited setting?</t>
+  </si>
+  <si>
+    <t>Classroom Role-Play with interprofessional actors or SPs
+OSCE Station focused on dermatologic diagnosis, infectious disease, or public health
+Virtual Simulation with asynchronous discussion boards for interprofessional collaboration</t>
+  </si>
+  <si>
+    <t>Sleeping Sickness -“The Fading Wakefulness” – A Diagnostic Dilemma in a Globalized World</t>
+  </si>
+  <si>
+    <t>Name: Mr. Elias Ndlovu
+Age: 28
+Gender: Male
+Ethnicity: Black African (Shona ethnicity, Zimbabwean origin)
+Occupation: Wildlife conservationist, recently relocated to Belgium
+Language/Interpreter Needs: English-speaking, fluent
+Target Audience: Clinical-year medical students, internal medicine residents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Fatigue, fever, and strange sleepiness during the day."
+</t>
+  </si>
+  <si>
+    <t>Temp: 38.6°C
+HR: 106 bpm
+BP: 98/62 mmHg
+RR: 20/min
+O2 Sat: 96% on room air
+Weight: 72 kg</t>
+  </si>
+  <si>
+    <t>Mr. Ndlovu presents to your internal medicine ward after referral from a primary care physician for evaluation of intermittent fevers, daytime sleepiness, and progressive confusion over the last three weeks. He reports a painful insect bite on his shoulder approximately one month ago while working in the Zambezi Valley of Zimbabwe, prior to relocating to Belgium. The area became swollen but resolved. Fevers began 10 days later. He has had episodes of malaise, headaches, and joint pains, which were treated with antipyretics with transient relief. His family, now in Belgium, reports he is “napping more than usual during the day and up pacing at night,” and is forgetting names and appointments.</t>
+  </si>
+  <si>
+    <t>Unremarkable. No chronic illnesses.
+Childhood immunizations up to date.</t>
+  </si>
+  <si>
+    <t>No known drug allergies.</t>
+  </si>
+  <si>
+    <t>Non-smoker, occasional alcohol use.
+No drug use.
+Relocated to Belgium 3 weeks ago with his Belgian partner.
+Worked in conservation near Lake Kariba; often slept outdoors.</t>
+  </si>
+  <si>
+    <t>CBC: Mild anemia (Hb 10.8), mild leukocytosis (WBC 12,500/µL), eosinophilia.
+Peripheral smear: Pending.
+LFTs: Mild elevation in AST/ALT.
+Creatinine: Normal.
+CXR: Normal.
+HIV test: Negative.
+Lumbar puncture (CSF): Opening pressure 240 mm H₂O, elevated protein, lymphocytic pleocytosis. Trypanosomes visualized in CSF.
+Serology: T. brucei antibodies detected.
+PCR: Positive for T. b. gambiense.
+Ultrasound: Mild splenomegaly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiating between infectious and non-infectious encephalopathy in a febrile traveler.
+Recognizing atypical sleep-related symptoms as a possible red flag.
+Choosing appropriate diagnostic tools when the patient is geographically relocated from an endemic area.
+Managing treatment availability for a rare imported disease in a non-endemic country.
+</t>
+  </si>
+  <si>
+    <t>Obtain a detailed travel and occupational history.
+Construct a broad differential diagnosis (including malaria, typhoid, toxoplasmosis, viral encephalitis, HAT).
+Order appropriate laboratory and diagnostic tests (including CSF analysis).
+Notify public health authorities regarding a notifiable tropical disease.
+Consult infectious disease and tropical medicine specialists.
+Initiate Stage II treatment (Eflornithine IV) per WHO guidelines.
+Screen close contacts as needed.</t>
+  </si>
+  <si>
+    <t>Perform thorough history and travel exposure assessment
+Identify need for lumbar puncture
+Recognize trypanosome on microscopy
+Correctly stage the disease
+Initiate appropriate anti-trypanosomal treatment
+Monitor renal and liver function during therapy
+Engage interpreter services and address cultural beliefs about illness
+Involve public health and infectious disease specialists
+Coordinate with pharmacy for drug procurement (possible delay in Europe)</t>
+  </si>
+  <si>
+    <t>Pharmacy: For sourcing and dosing of anti-trypanosomal agents.
+Infectious Disease Specialist: Treatment guidance and disease staging.
+Public Health Officer: Contact tracing and disease reporting.
+Social Worker/Cultural Liaison: Addressing cultural needs and supporting relocation adjustment.
+Nursing Staff: Monitoring neurological status and fluid balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the barriers to diagnosing rare imported diseases in non-endemic regions?
+How does cultural competence influence patient engagement and diagnosis?
+What public health considerations arise when managing imported tropical infections?
+Why is CSF analysis crucial in suspected sleeping sickness?
+How do you approach ethical decisions around treatment access for a rare disease?
+</t>
+  </si>
+  <si>
+    <t>How did your assumptions about the patient’s symptoms shape your initial differential?
+What signs pointed to CNS involvement, and how did you prioritize investigations?
+Did the case challenge your knowledge of global infectious diseases? Why or why not?
+How could communication be improved between departments in such a case?
+What biases, if any, did you identify in your team’s clinical reasoning process?</t>
+  </si>
+  <si>
+    <t>Classroom Setting: Case-based discussion with projected lab and CSF images.
+OSCE: Simulated patient with progressive lethargy, travel history; include CSF lab station.
+Virtual Simulation: Interactive case unfolding over several “days,” allowing learners to order tests and receive timed results.</t>
+  </si>
+  <si>
+    <t>Malaria - Diagnosing the Silent Threat</t>
+  </si>
+  <si>
+    <t>Name: Kofi Mensah
+Age: 27
+Gender: Male
+Ethnicity/Nationality: Ghanaian (currently on a graduate research visa in the U.S.)
+Occupation: PhD student in Environmental Sciences
+Language Preference: English (fluent)
+Interpreter Needed: No</t>
+  </si>
+  <si>
+    <t>Fever and confusion for two days</t>
+  </si>
+  <si>
+    <t>Temp: 39.5°C (103.1°F)
+HR: 118 bpm
+BP: 96/58 mmHg
+RR: 24 breaths/min
+SpO₂: 94% on room air
+GCS: 14 (confused, disoriented to date and place)</t>
+  </si>
+  <si>
+    <t>No chronic illnesses documented
+Childhood vaccinations up-to-date (per Ghanaian records)
+One prior hospitalization for "typhoid fever" at age 15</t>
+  </si>
+  <si>
+    <t>Multivitamin (OTC)
+No current prescriptions
+No malaria chemoprophylaxis</t>
+  </si>
+  <si>
+    <t>Traveled from Ghana to the U.S. 3 weeks ago
+No alcohol, tobacco, or recreational drugs
+Lives alone in university housing
+No known sick contacts
+Attended a conference in Washington, D.C. one week ago</t>
+  </si>
+  <si>
+    <t>CBC:
+WBC: 5.1 x10⁹/L
+Hemoglobin: 11.2 g/dL
+Platelets: 72 x10⁹/L
+CMP:
+BUN: 26 mg/dL
+Creatinine: 1.8 mg/dL
+Total bilirubin: 2.4 mg/dL
+ALT/AST: Mildly elevated
+Rapid Malaria Test (HRP2-based): Positive
+Peripheral Blood Smear (Thick and Thin): Pending
+COVID/Influenza Panel: Negative
+Urinalysis: Normal
+Chest X-ray: No infiltrates
+Head CT (non-contrast): Normal
+Blood Cultures: Pending</t>
+  </si>
+  <si>
+    <t>(Over 6 Hours):
+Increasing confusion
+Fever persists despite antipyretics
+Mild jaundice noted
+Blood smear result: Plasmodium falciparum, parasitemia 6%
+Lactic acid: 4.6 mmol/L
+Glucose: 63 mg/dL</t>
+  </si>
+  <si>
+    <t>Anchoring Bias: Initial consideration of influenza or COVID-19 based on fever and season, despite negative tests.
+Cultural Context and Travel History: Missed opportunity to ask about travel on first evaluation.
+Recognition of Severe Malaria: Understanding diagnostic thresholds (e.g., parasitemia &gt;5%, altered mental status).
+Resource Activation: Awareness of CDC emergency drug protocols for artesunate access in the U.S.</t>
+  </si>
+  <si>
+    <t>Complete thorough travel and exposure history.
+Initiate empirical antimalarial therapy based on high suspicion and rapid test.
+Request thick and thin peripheral smear.
+Recognize severe falciparum malaria criteria.
+Monitor for hypoglycemia and renal dysfunction.
+Collaborate with ID specialist, pharmacist, and nursing staff for urgent management.
+Contact CDC Malaria Hotline to arrange IV artesunate.</t>
+  </si>
+  <si>
+    <t>Obtain detailed travel history
+Order rapid malaria test and peripheral smear
+Interpret lab abnormalities (thrombocytopenia, AKI, lactic acidosis)
+Initiate antimalarial treatment promptly
+Identify signs of severe malaria (neurologic changes, parasitemia &gt;5%)
+Notify infectious disease and pharmacy for artesunate access
+Start glucose monitoring and supportive care
+Communicate findings and plan with nursing team</t>
+  </si>
+  <si>
+    <t>Pharmacy: Drug procurement (IV artesunate), dosage verification, drug-drug interaction checks.
+Nursing: Monitoring of vitals, neuro status, IV fluid/glucose administration.
+Infectious Disease Team: Guiding malaria treatment and public health notification.
+Public Health Officer (simulated): Coordination for CDC reporting and follow-up.</t>
+  </si>
+  <si>
+    <t>What clinical and laboratory clues led you to consider malaria?
+How does P. falciparum’s pathophysiology explain this patient’s symptoms and complications?
+What are the unique diagnostic challenges of malaria in non-endemic areas?
+How do you manage patient safety when waiting for CDC-delivered medications?
+What social and cultural factors should be considered in patient education and follow-up?</t>
+  </si>
+  <si>
+    <t>Clinical Judgment: What went well in your assessment? What could have been done earlier?
+Bias Reflection: Were there moments where assumptions delayed correct diagnosis?
+Systems Thinking: How does the U.S. healthcare system’s approach to rare tropical diseases impact care?
+Communication: How did you ensure clear communication with the team and the patient?
+Professional Development: What did this case teach you about practicing medicine in a globalized world?</t>
+  </si>
+  <si>
+    <t>In-Person Simulation Lab: Use standardized patient, bedside monitors, and lab result printouts.
+OSCE Adaptation: Condense into a 10-minute focused station on recognizing severe malaria and ordering appropriate tests.
+Virtual Simulation: Use case-based branching logic with evolving vitals and digital labs.</t>
+  </si>
+  <si>
+    <t>Candidemia in a Post-COVID ICU Survivor</t>
+  </si>
+  <si>
+    <t>Name: Mr. Jalen Rosario
+Age: 58
+Gender: Male
+Ethnicity: Afro-Caribbean
+Language: English (accented), Spanish-speaking family
+Setting: Academic hospital, Medical ICU step-down unit
+Target Audience: Senior medical students and internal medicine or infectious disease residents</t>
+  </si>
+  <si>
+    <t>Fever and worsening confusion over 2 days.</t>
+  </si>
+  <si>
+    <t>Temp: 38.9°C
+HR: 108 bpm
+BP: 92/60 mmHg
+RR: 22/min
+O2 Sat: 95% on 2L nasal cannula</t>
+  </si>
+  <si>
+    <t>Severe COVID-19 pneumonia 3 weeks ago (intubated x 12 days)
+Type 2 Diabetes Mellitus (HbA1c 9.1%)
+Chronic Kidney Disease Stage 3
+Obesity (BMI 33)
+Hypertension</t>
+  </si>
+  <si>
+    <t>Metformin (held during ICU stay)
+Lisinopril
+Insulin sliding scale (inpatient)
+Piperacillin-tazobactam (for presumed UTI, started 5 days ago)
+Pantoprazole</t>
+  </si>
+  <si>
+    <t>Lives with wife and two grandchildren
+Works as a part-time bus driver
+Non-smoker, drinks alcohol occasionally
+No recent travel
+Primary language: English; family primarily Spanish-speaking</t>
+  </si>
+  <si>
+    <t>WBC: 16.8 x10⁹/L
+Creatinine: 2.4 mg/dL (baseline 1.6)
+Glucose: 242 mg/dL
+UA: cloudy, leukocyte esterase +, nitrite –, many yeast forms seen
+Urine culture: Pending
+Blood cultures: Pending (drawn 12 hours ago)
+CT Head (non-contrast): Normal
+Chest X-ray: Left lower lobe atelectasis
+β-D-glucan: Pending
+Eye exam: No focal findings</t>
+  </si>
+  <si>
+    <t>Recognize Candida in blood culture as NOT contamination
+Identify the need for systemic antifungal therapy
+Order fundoscopic exam and echocardiogram for metastatic seeding
+Discuss source control: remove or replace central line
+Adjust antibiotics appropriately—recognize UTI may be colonization
+Notify and involve ID team
+Address persistent hyperglycemia and immunosuppression as risk factors</t>
+  </si>
+  <si>
+    <t>Recognize candidemia as a medical emergency
+Start appropriate empiric antifungal (e.g., echinocandin)
+Discontinue unnecessary broad-spectrum antibiotics
+Order ophthalmologic exam for endophthalmitis screening
+Request transthoracic echocardiogram (TTE)
+Review and plan for removal of central line
+Communicate with ID, nursing, and pharmacy
+Document and communicate findings with family</t>
+  </si>
+  <si>
+    <t>Infectious Disease consult: treatment plan, antifungal selection
+Pharmacy: antifungal dosing, renal adjustment, interactions
+Nursing: monitor vitals, catheter care, coordinate line removal
+Social Work/Interpreter Services: cultural and linguistic family communication
+Ophthalmology/Cardiology: screen for complications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is candidemia not considered a contaminant, unlike some bacteria?
+How does diabetes and recent broad-spectrum antibiotic use contribute to invasive candidiasis?
+What factors guide the choice between fluconazole and echinocandins?
+Why is eye screening essential in all candidemia patients?
+Should all positive Candida urine cultures in hospitalized patients be treated?
+</t>
+  </si>
+  <si>
+    <t>Reflect on the dangers of anchoring on a diagnosis of UTI.
+Discuss the importance of early involvement of infectious disease in fungal infections.
+Explore the psychosocial aspects of language barriers and family communication during serious illness.
+Analyze how central line practices and antibiotic stewardship relate to rising fungal infections.
+Consider institutional policies on candidemia screening and prophylaxis in post-ICU populations.</t>
+  </si>
+  <si>
+    <t>Setting Options:
+OSCE: Focus on clinical reasoning and communication
+Virtual simulation: Role-play ID consult, family meeting
+Classroom case-based learning: Group discussions and care plan formulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Hours Into Case:
+Blood cultures return positive for yeast (Candida glabrata in both bottles)
+Fever persists
+Mild hypotension requires fluid bolus
+Urine culture also grows Candida glabrata
+</t>
+  </si>
+  <si>
+    <t>ID consult recommends echinocandin (micafungin)
+Ophthalmology and echo pending
+Central line in place since ICU admission (not yet removed)</t>
+  </si>
+  <si>
+    <t>A Diagnostic Challenge in Early Disseminated Lyme Borreliosis</t>
+  </si>
+  <si>
+    <t>Name: Daniel Gomez
+Age: 28
+Gender: Male
+Ethnicity: Hispanic-American
+Occupation: Graduate student in environmental sciences; avid hiker
+Setting: Primary care clinic (adaptable for OSCE, classroom, or virtual simulation)                     Target Audience:
+Medical Students (clinical years), Internal Medicine or Family Medicine Residents</t>
+  </si>
+  <si>
+    <t>“I’ve had this weird rash and now I’m feeling off—headaches, joint pain, and tired all the time.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature: 100.6°F (38.1°C)
+Heart Rate: 58 bpm
+Blood Pressure: 110/68 mmHg
+Respiratory Rate: 16/min
+O2 Sat: 98% on room air
+</t>
+  </si>
+  <si>
+    <t>Past Medical History:
+Seasonal allergic rhinitis
+No chronic illnesses
+Up-to-date on vaccinations</t>
+  </si>
+  <si>
+    <t>Loratadine 10 mg daily</t>
+  </si>
+  <si>
+    <t>Lives with partner in suburban Massachusetts
+No tobacco or drug use
+Occasionally drinks socially
+Recently returned from a week-long hiking trip in the Berkshire Mountains
+Reports several mosquito bites, no recollection of tick bites</t>
+  </si>
+  <si>
+    <t>Mild fever, malaise, generalized fatigue x 5 days
+Severe headaches, neck stiffness (not relieved with NSAIDs)
+Intermittent migratory arthralgias (especially knees and wrists)
+Rash noticed 10 days ago on left thigh: expanding, red with central clearing
+Recently noticed brief episodes of dizziness and “fluttering” in chest</t>
+  </si>
+  <si>
+    <t>Skin: 8-cm annular rash with central clearing, left upper thigh
+HEENT: Mild neck stiffness, photophobia
+Neuro: Alert and oriented; mild bilateral facial weakness (subtle); no focal deficits
+Cardiac: Regular rhythm, occasional skipped beat noted on auscultation
+MSK: No visible joint swelling, tenderness in bilateral knees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordered - CBC, ESR, CRP
+Lyme ELISA with reflex Western blot
+Lumbar puncture (CSF: WBC 90 cells/μL, lymphocytic predominance; elevated protein, normal glucose)
+ECG: First-degree AV block (PR interval 0.28 s)
+ANA, RF (to rule out other causes of arthritis)
+Joint aspiration not indicated at this stage
+</t>
+  </si>
+  <si>
+    <t>Atypical or unnoticed tick exposure
+Nonspecific constitutional symptoms
+Early neurologic and cardiac involvement with subtle signs
+Delayed serologic test positivity
+Need to distinguish from viral meningitis, early autoimmune disease, or post-viral fatigue</t>
+  </si>
+  <si>
+    <t>Obtain a thorough outdoor/environmental exposure history
+Recognize the clinical pattern of early disseminated Lyme disease
+Order appropriate diagnostics (including LP and ECG)
+Initiate empiric antibiotic therapy pending confirmation
+Decide on oral vs. IV antibiotic route
+Monitor for progression of AV block or neurologic symptoms
+Coordinate with neurology and infectious disease specialists
+Educate patient on disease course and follow-up</t>
+  </si>
+  <si>
+    <t>Identifies annular rash as erythema migrans
+ Performs full neurologic exam (facial palsy detection)
+ Orders appropriate serologic tests and CSF analysis
+ Requests ECG and identifies conduction abnormality
+ Starts appropriate empiric treatment (e.g., IV ceftriaxone)
+ Recognizes need for interprofessional collaboration
+ Provides patient education and arranges follow-up</t>
+  </si>
+  <si>
+    <t>Infectious Disease: Confirm diagnosis, manage antibiotic selection and duration
+Neurology: Assess for Lyme meningitis vs other causes
+Cardiology: Monitor and manage AV conduction abnormalities
+Nursing: Monitor IV medication, educate patient on signs of worsening condition
+Pharmacy: Review drug allergies, dosing, and renal adjustment if needed</t>
+  </si>
+  <si>
+    <t>What features in this case support a diagnosis of early disseminated Lyme disease?
+Why might serologic testing be falsely negative in early Lyme disease?
+What are the indications for IV versus oral antibiotic therapy?
+How do you differentiate Lyme meningitis from viral or bacterial meningitis clinically?
+What patient education would you provide regarding long-term outcomes and symptom persistence?</t>
+  </si>
+  <si>
+    <t>Clinical Reasoning: At what point should Lyme disease have been suspected?
+Bias Awareness: Did the lack of known tick bite delay your diagnosis? Why?
+Team Communication: How would you communicate concerns about AV block to cardiology?
+Patient-Centered Care: How might the patient's ethnicity, lifestyle, or access to care impact management and follow-up?
+System-Based Practice: What preventive public health measures could reduce Lyme disease incidence?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSCE Setting: Focus on history, neuro exam, and ECG interpretation
+Virtual Simulation: Include diagnostic test interpretation, interprofessional consults
+Classroom Debrief: Emphasize pattern recognition and diagnostic uncertainty
+</t>
+  </si>
+  <si>
+    <t>A Diagnostic Challenge in Adult Congenital Heart Disease</t>
+  </si>
+  <si>
+    <t>Name: Ms. Lian Zhao
+Age: 32
+Gender: Female
+Ethnicity: Chinese-American
+Occupation: Software engineer, recently relocated to a new city
+Primary Language: English (Mandarin-speaking parents)    Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>"I’ve been feeling more tired than usual and get short of breath even when walking up one flight of stairs.”</t>
+  </si>
+  <si>
+    <t>Temp: 36.8°C
+BP: 112/74 mmHg
+HR: 94 bpm, regular
+RR: 18/min
+O2 Sat: 98% on room air
+Height/Weight: 165 cm / 55 kg
+BMI: 20.2</t>
+  </si>
+  <si>
+    <t>Ms. Zhao presents to a primary care clinic with a 6-month history of progressive fatigue and recent onset of exertional dyspnea. She attributes it initially to stress and lack of exercise during the pandemic, but recently noticed occasional palpitations after moderate physical activity. She denies chest pain, syncope, orthopnea, or leg swelling.
+She visited urgent care three months ago for a brief episode of palpitations, which resolved spontaneously and were attributed to anxiety. No further workup was done.</t>
+  </si>
+  <si>
+    <t>No known chronic conditions
+Had frequent respiratory infections in childhood, including one hospitalization at age 5
+Not followed by a cardiologist in adulthood</t>
+  </si>
+  <si>
+    <t>Occasional over-the-counter ibuprofen for menstrual cramps
+No prescription medications</t>
+  </si>
+  <si>
+    <t>Non-smoker, non-drinker
+Lives alone; works remotely
+Engaged, planning to start a family in the next year
+No recent travel; no substance use
+Family history: Mother with type 2 diabetes, father with hypertension. No known congenital heart disease</t>
+  </si>
+  <si>
+    <t>General: Well-appearing young woman, alert and cooperative
+Cardiac Exam:
+Right ventricular heave
+Wide, fixed splitting of S2
+Grade II/VI systolic murmur at left upper sternal border
+Soft diastolic murmur heard at lower left sternal edge
+Lungs: Clear to auscultation bilaterally
+Extremities: No cyanosis, clubbing, or edema
+Neck: Prominent jugular venous v wave observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Labs:               CBC, CMP: Within normal limits
+BNP: 52 pg/mL (mildly elevated)
+ECG:
+Incomplete RBBB (rSR’ in V1)
+Normal sinus rhythm
+CXR:
+Mild cardiomegaly
+Increased pulmonary vasculature
+Enlarged right atrium and pulmonary artery
+Transthoracic Echocardiogram (TTE):
+Right atrial and ventricular dilation
+Color Doppler suggests left-to-right atrial shunt
+No left atrial enlargement
+EF 65%                                Follow-up Diagnostic Plan
+Transesophageal Echocardiography (TEE):
+Confirms ostium secundum atrial septal defect, approx. 1.5 cm
+No anomalous pulmonary venous return
+Pulmonary-to-systemic flow ratio (Qp:Qs) estimated at 2.2:1                 </t>
+  </si>
+  <si>
+    <t>Recognizing adult congenital heart disease in a patient with vague symptoms
+Interpreting subtle signs (wide fixed S2 split, RV heave)
+Understanding when to escalate from TTE to TEE
+Evaluating indications for closure of ASD
+Considering pregnancy planning implications and timing of repair
+Coordinating multi-specialty input (cardiology, radiology, primary care, OB/GYN)</t>
+  </si>
+  <si>
+    <t>Perform focused cardiac history and exam
+Interpret ECG and imaging findings in the context of congenital heart disease
+Generate a differential diagnosis for exertional dyspnea in a young adult
+Justify the use of advanced imaging (TEE)
+Discuss indications for percutaneous ASD closure
+Address patient’s future pregnancy concerns in shared decision-making
+Collaborate with cardiology and possibly maternal-fetal medicine</t>
+  </si>
+  <si>
+    <t>Identify and correctly interpret signs of right heart overload
+Recognize the likely congenital etiology of patient’s symptoms
+Order and interpret appropriate imaging (CXR, Echo, TEE)
+Communicate findings to patient clearly and empathetically
+Discuss closure options (surgical vs. transcatheter) with consultant
+Initiate appropriate referrals (cardiology, women’s health)
+Document findings thoroughly in clinical note format</t>
+  </si>
+  <si>
+    <t>Cardiology: Confirm diagnosis, determine closure candidacy
+Radiology: Assist in echo interpretation and imaging pathway
+Primary Care/Internal Medicine: Manage long-term follow-up and comorbidities
+OB/GYN or Maternal-Fetal Medicine: Pre-conception counseling
+Nursing: Patient education and care coordination</t>
+  </si>
+  <si>
+    <t>What features in this case point toward a congenital rather than acquired cardiac issue?
+How does the clinical significance of ASD change depending on patient age and symptoms?
+Why is fixed splitting of S2 considered pathognomonic in ASD?
+How does the Qp:Qs ratio influence management decisions?
+What are the implications of uncorrected ASD during pregnancy?
+How can clinicians avoid anchoring bias in young adults presenting with "anxiety-like" symptoms?</t>
+  </si>
+  <si>
+    <t>What signs and symptoms did you find most helpful in guiding your diagnosis?
+How confident were you in interpreting the ECG and echo findings?
+In what ways did the patient’s age and gender influence your initial diagnostic impressions?
+Did you consider any other diagnoses before concluding ASD?
+How would you handle communication if this patient were planning an imminent pregnancy?</t>
+  </si>
+  <si>
+    <t>This scenario can be used in:
+OSCEs for clinical reasoning and communication skills
+Simulation labs with manikins and/or actors for physical exam findings
+Virtual platforms using digital ECGs, echo clips, and interactive decision treesSmall group teaching for integrative problem-solving and interdisciplinary learning</t>
+  </si>
+  <si>
+    <t>An Incidental VSD in a Healthy Adult</t>
+  </si>
+  <si>
+    <t>Name: Mr. Daniel Kojo
+Age: 27
+Gender: Male
+Ethnicity: Ghanaian-American
+Occupation: Personal trainer and wellness coach
+Language: English (fluent), Twi (native speaker)</t>
+  </si>
+  <si>
+    <t>“I’ve been feeling winded during workouts lately—things that used to be easy now leave me catching my breath.”</t>
+  </si>
+  <si>
+    <t>Temp: 36.9°C
+BP: 118/72 mmHg
+HR: 86 bpm, regular
+RR: 17/min
+O2 Sat: 98% on room air
+BMI: 23.1</t>
+  </si>
+  <si>
+    <t>Mr. Kojo presents to a community health center with a 2-month history of progressive fatigue and shortness of breath during high-intensity interval training (HIIT) sessions. He notes that he had excellent cardiovascular fitness but now feels out of breath after moderate exertion. He denies orthopnea, chest pain, dizziness, or syncope.
+He mentions a "heart murmur" was heard in childhood but never investigated. He was told it would “go away on its own.” He has never had an ECG or echocardiogram done as an adult.</t>
+  </si>
+  <si>
+    <t>Full-term birth, no known childhood cardiac surgery
+No known chronic conditions
+Never hospitalized beyond infancy</t>
+  </si>
+  <si>
+    <t>None regularly
+Occasional protein and creatine supplements</t>
+  </si>
+  <si>
+    <t>Non-smoker
+Rare alcohol use (socially on weekends)
+No recreational drug use
+Single, lives alone, financially secure
+Active lifestyle, adheres to a high-protein, high-calorie diet
+Recently started training for a half-marathon</t>
+  </si>
+  <si>
+    <t>Father has hypertension
+Mother has hyperlipidemia
+No family history of congenital heart disease or sudden cardiac death</t>
+  </si>
+  <si>
+    <t>General: Fit young male, appears well, not in distress
+Cardiac Exam:
+Palpable systolic thrill at lower left sternal border
+Grade III/VI holosystolic murmur heard best at LLSB, radiates to the right sternal border
+Normal S1, loud P2
+S3 present
+No peripheral edema or cyanosis
+Pulmonary: Clear to auscultation
+Abdomen/Extremities: Normal
+Neuro: Normal</t>
+  </si>
+  <si>
+    <t>CBC, CMP: Normal
+BNP: Mildly elevated at 78 pg/mL
+ECG:
+Normal sinus rhythm
+Mild signs of LV hypertrophy
+CXR:
+Mild cardiomegaly
+Prominent pulmonary vasculature
+Slight LA and LV enlargement
+Transthoracic Echocardiogram (TTE):
+Left-to-right shunt visualized
+Moderate VSD (approx. 6 mm) at membranous septum
+Left atrial and left ventricular enlargement
+Qp:Qs ratio = 1.8:1
+No signs of pulmonary hypertension</t>
+  </si>
+  <si>
+    <t>OSCEs: Focus on physical exam skills (murmur recognition) and diagnostic synthesis
+Virtual Simulations: Use digital echo, ECG, and imaging tools for realism
+Classroom Case-Based Learning: Small group differential development and management planning
+Simulation Lab: Role-play interprofessional communication and counseling</t>
+  </si>
+  <si>
+    <t>How did you approach the diagnostic workup in a seemingly healthy adult?
+Were there any moments where your clinical reasoning was challenged by the patient’s fitness level?
+What alternative diagnoses did you consider for exertional dyspnea in this case?
+How would your management differ if the patient had signs of pulmonary hypertension?
+Reflect on how interprofessional collaboration enriched this case.</t>
+  </si>
+  <si>
+    <t>How can we differentiate between innocent murmurs and pathologic murmurs in adults?
+What are the long-term risks associated with moderate-sized VSDs in active individuals?
+How should Qp:Qs guide the decision to pursue closure of the VSD?
+What are the lifestyle considerations and exercise restrictions for patients with unrepaired moderate VSDs?
+What are the challenges of managing congenital heart conditions that persist undiagnosed into adulthood?</t>
+  </si>
+  <si>
+    <t>Cardiology: Evaluation of VSD, decision on intervention
+Radiology: Cardiac MRI interpretation
+Nursing: Patient education, lifestyle counseling
+Exercise Physiologist or Sports Medicine: Adjustments to fitness training
+Genetics (optional): If family screening becomes relevant</t>
+  </si>
+  <si>
+    <t>Recognize and accurately describe murmur features
+Interpret imaging findings and Qp:Qs ratio
+Formulate differential diagnosis for exertional dyspnea in young adults
+Identify indications for cardiology referral and possible surgical closure
+Educate patient on the significance of VSD and possible long-term implications
+Communicate effectively with allied professionals (e.g., cardiology, exercise physiologist)
+Document findings and decisions in appropriate clinical note format</t>
+  </si>
+  <si>
+    <t>Conduct comprehensive cardiovascular history and physical
+Interpret murmur characteristics and correlate with VSD findings
+Analyze echo findings to assess severity and clinical relevance of VSD
+Decide whether surgical referral is indicated
+Discuss lifestyle modifications, exercise restrictions, and risk assessment
+Initiate interprofessional referrals and patient education
+Provide anticipatory guidance around potential complications (arrhythmias, heart failure)</t>
+  </si>
+  <si>
+    <t>Differentiating benign murmurs from pathological ones in adults
+Connecting childhood murmurs with adult fitness-limiting symptoms
+Deciding when to escalate from echo to cardiac MRI
+Managing an incidental congenital finding in a healthy, active adult
+Counseling on activity restrictions and long-term risks
+Weighing surgical/interventional vs. conservative management based on shunt size</t>
+  </si>
+  <si>
+    <t>Unmasking Adult PDA in a Competitive Athlete</t>
+  </si>
+  <si>
+    <t>Name: Maya Alvarez
+Age: 24
+Gender: Female
+Ethnicity: Hispanic (Mexican-American)
+Occupation: Graduate student and part-time cycling coach
+Primary Language: English (Spanish spoken at home)</t>
+  </si>
+  <si>
+    <t>“I feel this tightness in my chest after a long ride. Not pain, just like my heart is working harder than usual.”</t>
+  </si>
+  <si>
+    <t>Temp: 37.1°C
+BP: 110/66 mmHg
+HR: 98 bpm, regular
+RR: 16/min
+O2 Sat: 99% on room air
+Height/Weight: 168 cm / 60 kg
+BMI: 21.3</t>
+  </si>
+  <si>
+    <t>Maya, a highly active endurance cyclist and full-time public health student, presents with new-onset exertional fatigue and a persistent sense of “racing heart” during long rides, noticed over the past 3 months. She denies frank chest pain, dizziness, or syncope. She has recently cut back on caffeine due to perceived palpitations.
+A health screening at her university clinic detected a continuous murmur, prompting referral. She recalls being told she had a “heart sound” as a child but never required treatment or follow-up.</t>
+  </si>
+  <si>
+    <t>Term birth; healthy childhood
+No surgical history
+Mild asthma as a child, resolved by adolescence</t>
+  </si>
+  <si>
+    <t>Occasional albuterol (inhaler) during allergy season
+Daily multivitamin
+No hormonal contraceptives</t>
+  </si>
+  <si>
+    <t>Non-smoker
+No alcohol or drug use
+Exercises daily (biking, swimming)
+Lives with roommate; no significant stressors
+Parents immigrated from Mexico; both have hypertension
+No known family history of congenital heart disease</t>
+  </si>
+  <si>
+    <t>General: Healthy-appearing young adult, no acute distress
+Cardiac Exam:
+Bounding peripheral pulses
+Hyperdynamic left ventricular impulse
+Continuous “machinery” murmur heard best at left infraclavicular region
+No gallops or rubs
+Lungs: Clear
+Extremities: Warm, no cyanosis or edema
+Neurological/Abdomen: Normal</t>
+  </si>
+  <si>
+    <t>CBC, CMP: Normal
+BNP: Mildly elevated at 61 pg/mL
+ECG:
+Sinus tachycardia
+Evidence of left ventricular hypertrophy (LVH)
+CXR:
+Enlarged left ventricle and prominent pulmonary vasculature
+Mild enlargement of ascending aorta
+Transthoracic Echocardiogram (TTE):
+Hyperdynamic, enlarged LV
+Left atrial enlargement
+Color Doppler reveals abnormal continuous flow near the descending aorta suggestive of patent ductus arteriosus
+Cardiac MRI (confirmatory):
+Moderate PDA with left-to-right shunt
+Qp:Qs = 1.9:1
+No signs of pulmonary hypertension
+Bubble Study: Negative for intracardiac shunts</t>
+  </si>
+  <si>
+    <t>Recognizing that congenital heart defects may persist silently into adulthood
+Distinguishing PDA murmur from other continuous murmurs (e.g., AV fistulas, venous hums)
+Understanding when non-specific symptoms (e.g., fatigue in an athlete) merit cardiac imaging
+Applying Qp:Qs ratios to decision-making about closure
+Counseling a young, asymptomatic but active adult on long-term cardiac risk</t>
+  </si>
+  <si>
+    <t>Conduct focused history and physical with murmur characterization
+Interpret echo, ECG, and imaging findings
+Formulate differential diagnosis for continuous murmurs
+Identify PDA as the most likely cause
+Refer to cardiology for device closure assessment
+Discuss exercise modification, infective endocarditis risk, and contraceptive considerations
+Coordinate follow-up and patient education</t>
+  </si>
+  <si>
+    <t>Recognize and describe continuous machinery murmur
+Interpret ECG and echo findings indicating volume overload
+Identify PDA as likely congenital cause
+Recommend transcatheter closure referral
+Counsel patient on athletic activity safety and risk of endocarditis
+Initiate cardiology and interprofessional referrals
+Communicate clearly in both lay and clinical terms
+Document in SOAP or consultation note format</t>
+  </si>
+  <si>
+    <t>Cardiology: Evaluation for transcatheter PDA closure
+Radiology: Interpretation of cardiac MRI
+Primary Care/Internal Medicine: Long-term cardiovascular follow-up
+Nursing: Patient education on medication adherence, lifestyle, follow-up
+Sports Medicine/Exercise Physiology: Post-closure return-to-activity planning
+Public Health Counselor (optional): Integrate health literacy and cultural perspectives</t>
+  </si>
+  <si>
+    <t>What are the key auscultation features that suggest a PDA over other murmur etiologies?
+How would you approach management if the patient had signs of pulmonary hypertension?
+Why is closure indicated even in asymptomatic patients?
+What lifestyle and reproductive counseling should be offered to a young woman with a PDA?
+How does Qp:Qs influence closure timing and method?</t>
+  </si>
+  <si>
+    <t>What signs in this patient led you to suspect a congenital cause for her symptoms?
+Did the patient’s high fitness level influence your diagnostic assumptions?
+How did you integrate imaging findings into your reasoning?
+What were your priorities when counseling a young patient with a new cardiac diagnosis?
+Reflect on how interprofessional input might alter or support your plan.</t>
+  </si>
+  <si>
+    <t>OSCEs: Murmur recognition, patient explanation, counseling
+Virtual Simulation: Interactive ECG, echo review, diagnostic planning
+Case-Based Discussion: Small group decision-making
+Simulation Lab: Full cardiac exam + interprofessional roleplay</t>
+  </si>
+  <si>
+    <t>Uncovering Bicuspid Aortic Valve and Coarctation in a Young Hypertensive Patient</t>
+  </si>
+  <si>
+    <t>Name: Isaac Opoku
+Age: 21
+Gender: Male
+Ethnicity: Ghanaian-Canadian
+Occupation: University student (Engineering major)
+Language: English (fluent), Akan (home language)
+Insurance/Access to Care: Recently transitioned from pediatric to adult care</t>
+  </si>
+  <si>
+    <t>“I came for a check-up for my college sports form—but they said my blood pressure was way too high.”</t>
+  </si>
+  <si>
+    <t>BP (Right Arm): 158/76 mmHg
+BP (Left Arm): 160/78 mmHg
+BP (Right Leg): 108/64 mmHg
+HR: 88 bpm
+RR: 16/min
+Temp: 36.7°C
+O2 Sat: 99% RA
+Height/Weight: 180 cm / 74 kg
+BMI: 22.8</t>
+  </si>
+  <si>
+    <t>Isaac presents for a routine athletic clearance. He feels well and denies chest pain, dyspnea, or palpitations. However, the examining nurse flags elevated blood pressure. Isaac states he was once told as a child he had a “heart murmur,” but no follow-up was done as he was asymptomatic. He recalls tiring faster than peers during long-distance runs in high school but attributed it to “being out of shape.”
+Further history reveals occasional headaches and cold feet during winter, which he finds annoying but not alarming. He denies dizziness, leg swelling, vision changes, or claudication.</t>
+  </si>
+  <si>
+    <t>No chronic illnesses diagnosed
+Full-term birth; normal developmental milestones
+No known surgeries or hospitalizations
+Pediatric murmur noted at age 8, never followed up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>Non-smoker
+No alcohol or substance use
+Active (plays recreational soccer, cycles to campus)
+Lives in shared housing with roommates
+Eats mostly take-out; no known dietary restrictions</t>
+  </si>
+  <si>
+    <t>Father: Diagnosed with hypertension at 42
+Mother: Healthy
+No family history of congenital heart disease, sudden cardiac death, or early stroke</t>
+  </si>
+  <si>
+    <t>General: Healthy-appearing, muscular young male
+Cardiac:
+Systolic ejection click at right upper sternal border
+Grade II/VI crescendo-decrescendo systolic murmur best heard at the right second intercostal space, radiating to carotids
+No gallops or rubs
+Peripheral Pulses:
+Brachial and radial pulses bounding
+Femoral pulses are delayed and diminished
+Lower extremities cool to touch
+BP discrepancy: Upper extremity significantly &gt; lower extremity
+Back Auscultation: Soft systolic murmur heard at left interscapular space
+Extremities: No edema or cyanosis</t>
+  </si>
+  <si>
+    <t>ECG:
+Left ventricular hypertrophy (LVH) by voltage criteria
+Normal sinus rhythm
+CXR:
+Rib notching of inferior posterior ribs
+Mild prominence of aortic knob
+"Figure 3" sign noted
+Transthoracic Echocardiogram (TTE):
+Bicuspid aortic valve with mild to moderate stenosis (peak gradient 28 mmHg)
+Concentric LVH
+Mild aortic root dilation
+No aortic regurgitation
+No visible coarctation segment on TTE
+Doppler Study of Aorta:
+Suggests peak gradient &gt;30 mmHg between upper and lower body
+Suspicion of coarctation distal to the left subclavian
+CTA Chest (confirmed):
+Discrete coarctation of the aorta just distal to origin of the left subclavian artery
+Significant collateral circulation through intercostals
+No aneurysm or dissection</t>
+  </si>
+  <si>
+    <t>Recognizing hypertension in young adults as a red flag for secondary causes
+Identifying subtle signs of congenital heart disease (delayed pulses, ejection click)
+Coordinating investigations to assess bicuspid valve anatomy and coarctation
+Integrating imaging modalities: echocardiography vs CT angiography
+Determining intervention timing and follow-up care after diagnosis
+Planning transition to adult congenital cardiology care</t>
+  </si>
+  <si>
+    <t>Perform focused cardiovascular history and examination
+Correlate physical findings with possible congenital heart anomalies
+Interpret multimodal imaging and ECG findings
+Formulate a differential for upper-lower extremity BP gradient
+Identify bicuspid aortic valve and coarctation as coexisting conditions
+Initiate referral for cardiology and interventional planning
+Educate the patient on lifestyle, physical activity limitations, and genetic counseling options</t>
+  </si>
+  <si>
+    <t>Accurately identify physical signs of coarctation (pulse discrepancy, murmur location)
+Describe echocardiographic features of bicuspid aortic valve
+Order appropriate cross-sectional imaging (CT/MR angiography)
+Interpret LVH on ECG in context of pressure overload
+Initiate cardiology referral for surgical/stent planning
+Discuss risk of persistent hypertension and need for long-term follow-up
+Address patient transition to adult congenital cardiology care
+Educate patient on condition, prognosis, and activity modifications</t>
+  </si>
+  <si>
+    <t>Cardiology (Adult Congenital Heart Disease specialist): Long-term management
+Radiology: CTA/MRA interpretation and planning for stent/surgical intervention
+Primary Care: Monitor hypertension and coordinate routine care
+Nursing: Transition care education, lifestyle support
+Genetics (optional): Screening for familial BAV if family history develop</t>
+  </si>
+  <si>
+    <t>What are the red flags for secondary hypertension in a young adult?
+How does the combination of BAV and coarctation complicate clinical management?
+Why is cross-sectional imaging critical in diagnosing coarctation of the aorta?
+How would this patient’s care differ if aortic regurgitation or aneurysm were also present?
+What are the long-term risks of untreated coarctation?</t>
+  </si>
+  <si>
+    <t>What led you to consider a congenital cause of hypertension in this case?
+How did physical examination guide your imaging decisions?
+What were the key features that distinguished BAV-related murmur from other systolic murmurs?
+Reflect on the importance of effective handover from pediatric to adult care in congenital heart disease.
+How would you explain this diagnosis to the patient in lay terms?</t>
+  </si>
+  <si>
+    <t>OSCE Scenario: Physical exam, BP interpretation, and imaging discussion
+Virtual Simulation: Interactive murmur identification, CT angiogram review
+Case-Based Group Discussion: Management strategy and follow-up planning
+Simulation Lab: Pulse assessment + communication with cardiology</t>
+  </si>
+  <si>
+    <t>A Delayed Diagnosis of Rheumatic Mitral Stenosis in a Migrant Worker</t>
+  </si>
+  <si>
+    <t>Name: Nirmala Joshi
+Age: 38
+Gender: Female
+Ethnicity/Nationality: South Asian (Nepali), recent immigrant
+Occupation: Domestic worker
+Primary Language: Nepali (limited English)
+Interpreter Available: Yes</t>
+  </si>
+  <si>
+    <t>“I get tired and short of breath, especially when I walk fast or carry bags.”</t>
+  </si>
+  <si>
+    <t>Temperature: 37.0°C
+Blood Pressure: 106/62 mmHg
+Heart Rate: 92 bpm (irregularly irregular)
+Respiratory Rate: 20/min
+SpO₂: 96% on room air
+Height/Weight: 154 cm / 49 kg
+BMI: 20.6</t>
+  </si>
+  <si>
+    <t>Ms. Joshi, a 38-year-old Nepali woman, presents to a free community clinic with progressively worsening shortness of breath over the last year. She reports difficulty climbing stairs, occasional palpitations, and one episode of coughing up blood 2 weeks ago. She attributes her fatigue to “working too hard” and previously self-managed with herbal remedies. Symptoms worsen with exertion or during her menstrual period. She was hospitalized as a child for “joint swelling and fever” but was never told what it was.
+This is her first contact with the healthcare system since immigrating 2 years ago.</t>
+  </si>
+  <si>
+    <t>Childhood hospitalization in Nepal for febrile illness (likely rheumatic fever, untreated)
+No formal diagnosis or long-term treatment provided</t>
+  </si>
+  <si>
+    <t>Lives with the family she works for; no formal housing or healthcare access
+No tobacco, alcohol, or drug use
+No known family history due to early parental deaths
+Walks or uses public transport daily for work
+Limited health literacy; relies on community aid for communication</t>
+  </si>
+  <si>
+    <t>CBC: Mild anemia (Hb 10.4 g/dL)
+BNP: 164 pg/mL
+ECG:
+Atrial fibrillation
+Left atrial enlargement
+Right axis deviation
+Chest X-ray:
+Prominent left atrial shadow
+Kerley B lines
+Mild pulmonary congestion
+Transthoracic Echocardiogram (TTE):
+Severely thickened mitral valve leaflets with restricted motion
+Mitral valve area = 1.0 cm²
+Mean gradient = 13 mmHg
+Moderate pulmonary hypertension (estimated RV systolic pressure = 48 mmHg)
+No left ventricular dysfunction
+INR: 1.0 (baseline)</t>
+  </si>
+  <si>
+    <t>Identifying rheumatic mitral stenosis in a patient with vague symptoms and limited prior documentation
+Recognizing the significance of atrial fibrillation in MS and embolic risk
+Understanding cultural and access barriers to timely diagnosis and treatment
+Determining suitability for percutaneous balloon valvotomy vs surgical intervention
+Coordinating anticoagulation and rhythm control in the setting of AF and mitral stenosis
+Initiating appropriate preventive measures (e.g., endocarditis, stroke prevention)</t>
+  </si>
+  <si>
+    <t>Take a culturally sensitive, focused cardiovascular history with interpreter support
+Identify classic signs of mitral stenosis on exam and imaging
+Recognize and manage AF with risk of embolism (initiate anticoagulation)
+Recommend diuretics for volume control and rate control (BB, CCB or digoxin)
+Refer for percutaneous mitral balloon valvotomy evaluation
+Discuss need for secondary rheumatic fever prophylaxis
+Coordinate with interprofessional team (cardiology, interpreter services, case management)</t>
+  </si>
+  <si>
+    <t>Identify opening snap and diastolic murmur with presystolic accentuation
+Interpret ECG findings of AF and LAE
+Correlate echo findings with severe mitral stenosis
+Initiate warfarin (after INR baseline &amp; potential bridging plan)
+Manage AF with appropriate rate control agent
+Order dental prophylaxis counseling and discuss risk of infective endocarditis
+Communicate with interpreter and use clear teach-back method
+Refer for valve intervention consultation
+Initiate social work referral for healthcare access and long-term follow-up</t>
+  </si>
+  <si>
+    <t>Cardiology: Evaluation for valvotomy vs valve replacement
+Nursing: Education on medication adherence, symptom monitoring
+Pharmacy: Warfarin counseling and INR monitoring plan
+Interpreter Services: Ensure accurate communication
+Social Work/Public Health Nurse: Connect to safety-net care, medication access, follow-up
+Primary Care/Internal Medicine: Long-term anticoagulation and comorbidity management</t>
+  </si>
+  <si>
+    <t>What are the auscultatory features that help distinguish mitral stenosis from other valvular lesions?
+How does atrial fibrillation impact the hemodynamics and embolic risk in mitral stenosis?
+When is percutaneous mitral valvotomy preferred over surgical intervention?
+How do social determinants of health impact timely diagnosis and treatment in this case?
+What strategies would you use to ensure safe outpatient follow-up for this patient?</t>
+  </si>
+  <si>
+    <t>What challenges did you encounter managing a case with language and socioeconomic barriers?
+Reflect on the importance of auscultation skills in an era of imaging dependency.
+How did your clinical reasoning evolve after seeing the echocardiogram?
+What long-term complications could arise if this patient remains untreated?
+What assumptions did you have to check while managing this patient?</t>
+  </si>
+  <si>
+    <t>OSCE: Focused cardiac exam + communication with interpreter
+Virtual Simulation: Murmur identification, echo interpretation
+Case-Based Learning Session: Longitudinal care planning
+Simulation Lab: Multidisciplinary team huddle + patient education station</t>
+  </si>
+  <si>
+    <t>An Incidental Discovery of Mitral Valve Prolapse in a Young Female with Unexplained Symptoms</t>
+  </si>
+  <si>
+    <t>Name: Aleena Rahim
+Age: 27
+Gender: Female
+Ethnicity: Pakistani-American
+Language: Fluent in English and Urdu
+Occupation: Graduate student (Biomedical Engineering)
+Insurance Status: Privately insured (university-sponsored)</t>
+  </si>
+  <si>
+    <t>“I keep getting these fluttering feelings in my chest—and sometimes I feel a bit short of breath or dizzy when I’m stressed or standing for too long.”</t>
+  </si>
+  <si>
+    <t>Temperature: 36.9°C
+Blood Pressure: 102/68 mmHg
+Heart Rate: 94 bpm, irregularly irregular
+Respiratory Rate: 16/min
+SpO₂: 98% on room air
+Height/Weight: 167 cm / 58 kg
+BMI: 20.8</t>
+  </si>
+  <si>
+    <t>Aleena presents to the student health clinic with a 6-month history of intermittent palpitations, lightheadedness, and vague, non-exertional chest discomfort. She notices symptoms more often during times of academic stress or when she skips meals. She denies syncope, exertional dyspnea, orthopnea, or leg swelling. No history of chest trauma or stimulant use. She recently began using a smartwatch that recorded irregular heart rhythms, prompting this visit.</t>
+  </si>
+  <si>
+    <t>Diagnosed with generalized anxiety disorder (GAD), managed with therapy
+No known cardiovascular disease
+No previous surgeries or hospitalizations</t>
+  </si>
+  <si>
+    <t>Occasional use of propranolol 10 mg PRN for anxiety-related palpitations
+Daily multivitamin</t>
+  </si>
+  <si>
+    <t>NKDA (No Known Drug Allergies)</t>
+  </si>
+  <si>
+    <t>Non-smoker
+Drinks coffee (2 cups/day)
+No alcohol or recreational drug use
+Lives alone; active lifestyle, runs 3x/week
+Family history: Mother has hypothyroidism; paternal aunt had a “heart murmur”</t>
+  </si>
+  <si>
+    <t>General: Alert, pleasant, well-groomed
+Cardiac:
+Mid-systolic click followed by a late systolic murmur heard best at the apex, enhanced with Valsalva
+No S3, S4, or thrills
+Lungs: Clear
+Extremities: No edema or cyanosis
+Neuro: Normal, oriented, no deficits</t>
+  </si>
+  <si>
+    <t>ECG: Sinus rhythm with occasional premature atrial contractions (PACs)
+24-Hour Holter Monitor:
+Frequent PACs, infrequent premature ventricular contractions (PVCs), no sustained arrhythmia
+Echocardiogram (TTE):
+Posterior leaflet prolapse into the left atrium during late systole
+Mild mitral regurgitation
+No left ventricular dilation or hypertrophy
+Normal ejection fraction
+TSH: Normal
+CBC, Electrolytes: WNL
+BNP: Normal</t>
+  </si>
+  <si>
+    <t>Differentiating benign palpitations from arrhythmias in a young, anxious patient
+Understanding the dynamic nature of MVP murmur and when to escalate care
+Interpreting echocardiogram findings in context of symptomatic vs asymptomatic MVP
+Counseling patients on non-cardiac causes of palpitations while not dismissing organic pathology
+Determining who requires follow-up echocardiography, lifestyle counseling, or referral</t>
+  </si>
+  <si>
+    <t>Conduct a focused cardiovascular and psychosocial history
+Perform a dynamic cardiac auscultation (Valsalva, squat-to-stand)
+Interpret Holter and echo findings for MVP
+Explain the natural history and prognosis of MVP with and without MR
+Reassure and educate the patient while ensuring symptom-based follow-up
+Consider beta-blockers for symptomatic relief
+Identify when to refer to cardiology (e.g., progression of MR, arrhythmias, syncopal episodes)</t>
+  </si>
+  <si>
+    <t>Identify mid-systolic click and correlate with MVP
+Interpret echo report accurately (leaflet involvement, MR severity)
+Differentiate between physiologic and pathologic palpitations
+Recommend lifestyle and symptom monitoring (e.g., hydration, caffeine moderation)
+Counsel patient on warning signs that warrant immediate evaluation
+Document findings appropriately and develop a follow-up plan
+Engage in shared decision-making regarding pharmacotherapy (propranolol)</t>
+  </si>
+  <si>
+    <t>Cardiology: For patients with moderate/severe MR or worsening symptoms
+Psychiatry/Psychology: To co-manage anxiety, particularly in setting of somatic symptoms
+Nursing: Education on home heart rate monitoring and trigger identification
+Primary Care: Longitudinal monitoring and repeat echocardiography
+Pharmacy: Medication counseling for beta blockers and potential interactions</t>
+  </si>
+  <si>
+    <t>How can auscultation techniques help differentiate MVP from other causes of systolic murmurs?
+What are the clinical “red flags” that distinguish benign MVP from progressive disease?
+What is the role of beta blockers in MVP, and how do you decide when to initiate them?
+How should MVP be followed over time in an asymptomatic vs symptomatic patient?
+How do mental health conditions complicate the interpretation and management of cardiac symptoms?</t>
+  </si>
+  <si>
+    <t>What biases might have led to attributing Aleena’s symptoms to anxiety prematurely?
+Reflect on the importance of listening closely to physical findings—even in young patients.
+How did your management plan balance reassurance with vigilance?
+What communication strategies did you use to address the patient’s concerns?
+How would you approach this case if the patient were in a resource-limited setting?</t>
+  </si>
+  <si>
+    <t>OSCE Format: Cardiac auscultation + counseling station
+Virtual Simulation: Heart sound identification, dynamic murmur analysis
+Group Discussion Module: Management strategy for MVP with arrhythmia
+Simulation Lab: Teaching station for Holter interpretation and beta-blocker dosing</t>
   </si>
 </sst>
 </file>
@@ -4896,6 +6222,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5197,36 +6527,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E725C-360B-4F4B-B7BA-A4989DAE5406}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.125" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="51.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="4" max="4" width="25.3984375" customWidth="1"/>
+    <col min="5" max="5" width="34.19921875" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="28.8984375" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" customWidth="1"/>
     <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="21.875" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="12" max="12" width="21.8984375" customWidth="1"/>
+    <col min="13" max="13" width="34.69921875" customWidth="1"/>
     <col min="14" max="14" width="28" customWidth="1"/>
-    <col min="15" max="15" width="28.375" customWidth="1"/>
-    <col min="16" max="16" width="23.25" customWidth="1"/>
+    <col min="15" max="15" width="28.3984375" customWidth="1"/>
+    <col min="16" max="16" width="23.19921875" customWidth="1"/>
     <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="22.25" customWidth="1"/>
+    <col min="18" max="18" width="22.19921875" customWidth="1"/>
     <col min="19" max="19" width="24.5" customWidth="1"/>
     <col min="20" max="20" width="25" customWidth="1"/>
-    <col min="21" max="21" width="22.875" customWidth="1"/>
+    <col min="21" max="21" width="22.8984375" customWidth="1"/>
     <col min="24" max="24" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5303,7 +6633,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5368,7 +6698,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5430,7 +6760,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5492,7 +6822,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5554,7 +6884,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5613,7 +6943,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5669,7 +6999,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5725,7 +7055,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5778,7 +7108,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5847,9 +7177,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5926,7 +7256,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5993,7 +7323,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6060,7 +7390,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6127,7 +7457,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6203,18 +7533,38 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" customWidth="1"/>
+    <col min="9" max="9" width="28.09765625" customWidth="1"/>
+    <col min="10" max="10" width="21.8984375" customWidth="1"/>
+    <col min="11" max="11" width="18.8984375" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" customWidth="1"/>
+    <col min="13" max="13" width="24.8984375" customWidth="1"/>
+    <col min="14" max="14" width="26.59765625" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="22.69921875" customWidth="1"/>
+    <col min="17" max="17" width="22.3984375" customWidth="1"/>
+    <col min="18" max="18" width="21.3984375" customWidth="1"/>
+    <col min="19" max="19" width="24.8984375" customWidth="1"/>
+    <col min="20" max="20" width="22.19921875" customWidth="1"/>
+    <col min="21" max="21" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6291,7 +7641,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6357,6 +7707,291 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="327.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>803</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6371,9 +8006,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +8085,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6513,7 +8148,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6578,7 +8213,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6643,7 +8278,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6719,12 +8354,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="68.125" customWidth="1"/>
+    <col min="3" max="3" width="68.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6801,7 +8436,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6868,7 +8503,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6933,7 +8568,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7000,7 +8635,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7065,7 +8700,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7130,7 +8765,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7193,7 +8828,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7265,13 +8900,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8336F802-8259-704E-9519-29D197B8309B}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="9" max="10" width="14.3984375" customWidth="1"/>
+    <col min="11" max="11" width="21.796875" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" customWidth="1"/>
+    <col min="13" max="13" width="25.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="27.59765625" customWidth="1"/>
+    <col min="16" max="16" width="19.09765625" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="23.59765625" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="19.796875" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7287,7 +8946,7 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -7348,7 +9007,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7412,6 +9071,363 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>906</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7426,32 +9442,32 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="28.125" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="26.375" customWidth="1"/>
-    <col min="14" max="14" width="28.375" customWidth="1"/>
-    <col min="15" max="15" width="30.625" customWidth="1"/>
-    <col min="16" max="21" width="31.375" customWidth="1"/>
-    <col min="22" max="22" width="30.625" customWidth="1"/>
-    <col min="23" max="23" width="34.375" customWidth="1"/>
-    <col min="24" max="24" width="33.125" customWidth="1"/>
-    <col min="25" max="25" width="31.125" customWidth="1"/>
-    <col min="26" max="26" width="30.125" customWidth="1"/>
-    <col min="27" max="27" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" customWidth="1"/>
+    <col min="5" max="5" width="32.59765625" customWidth="1"/>
+    <col min="6" max="6" width="19.09765625" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" customWidth="1"/>
+    <col min="8" max="8" width="28.59765625" customWidth="1"/>
+    <col min="9" max="9" width="23.59765625" customWidth="1"/>
+    <col min="10" max="10" width="28.09765625" customWidth="1"/>
+    <col min="11" max="11" width="25.3984375" customWidth="1"/>
+    <col min="12" max="12" width="20.8984375" customWidth="1"/>
+    <col min="13" max="13" width="26.3984375" customWidth="1"/>
+    <col min="14" max="14" width="28.3984375" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="21" width="31.3984375" customWidth="1"/>
+    <col min="22" max="22" width="30.59765625" customWidth="1"/>
+    <col min="23" max="23" width="34.3984375" customWidth="1"/>
+    <col min="24" max="24" width="33.09765625" customWidth="1"/>
+    <col min="25" max="25" width="31.09765625" customWidth="1"/>
+    <col min="26" max="26" width="30.09765625" customWidth="1"/>
+    <col min="27" max="27" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7534,7 +9550,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7601,7 +9617,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7678,7 +9694,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7752,7 +9768,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7826,7 +9842,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7903,7 +9919,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7991,12 +10007,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8073,7 +10089,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8148,30 +10164,30 @@
       <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" customWidth="1"/>
+    <col min="10" max="10" width="17.8984375" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="21.375" customWidth="1"/>
+    <col min="13" max="13" width="21.3984375" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="29" customWidth="1"/>
-    <col min="16" max="16" width="22.25" customWidth="1"/>
-    <col min="17" max="17" width="24.375" customWidth="1"/>
-    <col min="18" max="18" width="22.25" customWidth="1"/>
-    <col min="19" max="19" width="17.25" customWidth="1"/>
-    <col min="20" max="20" width="22.375" customWidth="1"/>
-    <col min="21" max="21" width="31.375" customWidth="1"/>
+    <col min="16" max="16" width="22.19921875" customWidth="1"/>
+    <col min="17" max="17" width="24.3984375" customWidth="1"/>
+    <col min="18" max="18" width="22.19921875" customWidth="1"/>
+    <col min="19" max="19" width="17.19921875" customWidth="1"/>
+    <col min="20" max="20" width="22.3984375" customWidth="1"/>
+    <col min="21" max="21" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8248,7 +10264,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8315,7 +10331,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8387,9 +10403,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8466,7 +10482,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8544,9 +10560,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8623,7 +10639,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8688,7 +10704,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8753,7 +10769,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8818,7 +10834,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
